--- a/TCS_NEWUI_Carousel.xlsx
+++ b/TCS_NEWUI_Carousel.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="292">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -903,6 +903,93 @@
     <t>1. Message "No items were found matching the parameters you've selected. Please try again by broadening your search." should be displayed
 2. Sorted by option should be removed from carousel</t>
   </si>
+  <si>
+    <t>US:WEB-7848_TC 01</t>
+  </si>
+  <si>
+    <t>Verify Carousel  when the default selected sorting option is First Run date</t>
+  </si>
+  <si>
+    <t>User should on Home screen of the application.
+Home screen should contain below section:
+1. Numerator logo on Top Left side of screen
+2. Report list on left side
+3. Total creatives chart
+4. Edit search list
+5. Search options
+6. Save and Reset button should be displayed as Disabled on Right side
+7. Export Result &amp; Search options button on Right bottom side</t>
+  </si>
+  <si>
+    <t>UA - Brand 
+ACC-QA  Testing Dashboard</t>
+  </si>
+  <si>
+    <t>Verify the default selected option of Sorted By below the Carousel</t>
+  </si>
+  <si>
+    <t>Default selected option for sorting of Carousel should be First Run Date</t>
+  </si>
+  <si>
+    <t>Verify the Carousel's Ad tile fields</t>
+  </si>
+  <si>
+    <t>1.User should be able to see the Media and First Run Date data on individual Ad tile</t>
+  </si>
+  <si>
+    <t>Verify All ads disaplyed in Carousel should be sorted by First Run Date data</t>
+  </si>
+  <si>
+    <t>User should be able to see that all the Ads in the Carousel are sorted in Descending order as per their First Run Date</t>
+  </si>
+  <si>
+    <t>US:WEB-7848_TC 02</t>
+  </si>
+  <si>
+    <t>Verify Carousel When user selects sorting option SPEND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on other Sorted by option i.e Spend </t>
+  </si>
+  <si>
+    <t>User should be able select the Spend radio button option</t>
+  </si>
+  <si>
+    <t>User should be able to see the Media and Spend data on individual Ad tile respectively</t>
+  </si>
+  <si>
+    <t>Verify All ads disaplyed in Carousel should be sorted by Spend data</t>
+  </si>
+  <si>
+    <t>User should be able to see that all the Ads in the Carousel are sorted in Descending order as per their Spend data</t>
+  </si>
+  <si>
+    <t>US:WEB-7848_TC 03</t>
+  </si>
+  <si>
+    <t>Verify the Carousel Ad tiles field by switching the sorting options</t>
+  </si>
+  <si>
+    <t>1.Default selected option for sorting of Carousel should be First Run Date
+2. Ads in the carousel should show the media and First Run Date data on it
+3. Ads should be sorted in descending order as per their First Run Date</t>
+  </si>
+  <si>
+    <t>Switch the selected option to Spend</t>
+  </si>
+  <si>
+    <t>1.Selected option for sorting of Carousel should be Spend now
+2. Ads in the carousel should show the media and Spend data on it
+3. Ads should be sorted in descending order as per their Spend data</t>
+  </si>
+  <si>
+    <t>Again Switch back to First Run Date option and observe the Ads in Carousel</t>
+  </si>
+  <si>
+    <t>1.User should be able to switch to First Run Date option for sorting of Carousel 
+2. Ads in the carousel should show the media and First Run Date data on it
+3. Ads should be sorted in descending order as per their First Run Date</t>
+  </si>
 </sst>
 </file>
 
@@ -911,11 +998,18 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1949,343 +2043,301 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
@@ -2294,380 +2346,423 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="105">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="92" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="134"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="11" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="18" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="18" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="37" fillId="20" borderId="2" xfId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="44" fillId="20" borderId="11" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="134" applyFont="1"/>
+    <xf numFmtId="9" fontId="39" fillId="4" borderId="19" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="12" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="152" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="104">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="92" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="134"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="153" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="19" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="20" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="24" xfId="143" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="143" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="143" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="23" borderId="20" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="23" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="143" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="25" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="32" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="28" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="36" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="153" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="153" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="37" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="38" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="143" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="11" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="18" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="18" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="36" fillId="20" borderId="2" xfId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="43" fillId="20" borderId="11" xfId="138" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="134" applyFont="1"/>
-    <xf numFmtId="9" fontId="38" fillId="4" borderId="19" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="12" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="152" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="153" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="19" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="20" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="143" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="143" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="143" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="23" borderId="20" xfId="143" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="23" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="143" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="25" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="32" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="28" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="33" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="153" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="153" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="38" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="143" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="50" fillId="31" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="51" fillId="31" borderId="19" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="19" xfId="144" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="19" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="143" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="143" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="40" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="152" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="152" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" xfId="155" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" xfId="155" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="146" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="146" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="146" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="146" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="146" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="146" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="152" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="152" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="42" xfId="144" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="1" xfId="134" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" xfId="134" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="17" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="15" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="16" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="11" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="21" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="22" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="29" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="30" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" xfId="144" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="42" xfId="144" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="1" xfId="134" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" xfId="134" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="17" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="15" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="16" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="11" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="21" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="22" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="29" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="30" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" xfId="144" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1" xfId="11"/>
@@ -2948,7 +3043,7 @@
           <c:x val="5.3923741222529187E-2"/>
           <c:y val="0.14185650994577867"/>
           <c:w val="0.90694002510216154"/>
-          <c:h val="0.75521895211321843"/>
+          <c:h val="0.75521895211321854"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3110,7 +3205,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3130,11 +3225,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="57193216"/>
-        <c:axId val="57194752"/>
+        <c:axId val="73763456"/>
+        <c:axId val="73773440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57193216"/>
+        <c:axId val="73763456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,14 +3248,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57194752"/>
+        <c:crossAx val="73773440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57194752"/>
+        <c:axId val="73773440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,7 +3263,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="57193216"/>
+        <c:crossAx val="73763456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3188,7 +3283,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3234,8 +3329,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.8831278392536694E-2"/>
-          <c:y val="0.14624350369603387"/>
-          <c:w val="0.92496729254319732"/>
+          <c:y val="0.14624350369603392"/>
+          <c:w val="0.92496729254319754"/>
           <c:h val="0.69766331701963369"/>
         </c:manualLayout>
       </c:layout>
@@ -3348,10 +3443,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.95652173913043481</c:v>
+                  <c:v>0.96153846153846156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3478260869565188E-2</c:v>
+                  <c:v>3.8461538461538436E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3379,8 +3474,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.270891046791853"/>
-          <c:y val="0.88141746683253486"/>
-          <c:w val="0.42791036796598103"/>
+          <c:y val="0.88141746683253475"/>
+          <c:w val="0.4279103679659812"/>
           <c:h val="7.1280252974084315E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3400,7 +3495,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3418,9 +3513,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.27595722641494741"/>
-          <c:y val="7.1365887012686383E-2"/>
-          <c:w val="0.29672375522792604"/>
-          <c:h val="0.85466509216403841"/>
+          <c:y val="7.1365887012686396E-2"/>
+          <c:w val="0.2967237552279261"/>
+          <c:h val="0.85466509216403863"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -3524,7 +3619,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3624,8 +3719,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7216525124691745"/>
-          <c:y val="3.6083951617898588E-3"/>
+          <c:x val="0.72165251246917483"/>
+          <c:y val="3.6083951617898596E-3"/>
           <c:w val="0.24112408909611374"/>
           <c:h val="0.95693837006674254"/>
         </c:manualLayout>
@@ -3687,7 +3782,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3713,7 +3808,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +3846,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3789,7 +3884,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3801,7 +3896,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3821,7 +3916,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3893,7 +3988,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4122,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4077,7 +4172,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4496,7 +4591,7 @@
       </c>
       <c r="B8" s="12">
         <f>'SMART- Carousel'!G7</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="12">
         <f>'SMART- Carousel'!G8</f>
@@ -4512,11 +4607,11 @@
       </c>
       <c r="F8" s="12">
         <f>SUM(B8:E8)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G8" s="17">
         <f>(B8+C8+D8)/(F8)</f>
-        <v>0.95652173913043481</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4534,7 +4629,7 @@
       </c>
       <c r="B10" s="18">
         <f>SUM(B8:B9)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="18">
         <f>SUM(C8:C9)</f>
@@ -4550,11 +4645,11 @@
       </c>
       <c r="F10" s="18">
         <f>SUM(F8:F9)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" s="14">
         <f>SUM(G8:G8)</f>
-        <v>0.95652173913043481</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickTop="1">
@@ -4563,7 +4658,7 @@
       </c>
       <c r="G11" s="15">
         <f>100%-G10</f>
-        <v>4.3478260869565188E-2</v>
+        <v>3.8461538461538436E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5492,7 +5587,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A45"/>
   </mergeCells>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -5503,8 +5598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H960"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6250,7 +6345,7 @@
       </c>
       <c r="G7" s="37">
         <f>COUNTIF(G11:G1086,"Pass")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -6310,7 +6405,7 @@
       </c>
       <c r="C11" s="28">
         <f>G7</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="26"/>
@@ -6389,12 +6484,12 @@
       <c r="A18" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="51" t="s">
         <v>46</v>
       </c>
@@ -6407,14 +6502,14 @@
       <c r="A19" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="97"/>
     </row>
     <row r="20" spans="1:7" s="49" customFormat="1">
       <c r="A20" s="54" t="s">
@@ -6479,23 +6574,23 @@
       <c r="A23" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
     </row>
     <row r="24" spans="1:7" s="49" customFormat="1">
       <c r="A24" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="51" t="s">
         <v>46</v>
       </c>
@@ -6508,14 +6603,14 @@
       <c r="A25" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="94"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="1:7" s="49" customFormat="1">
       <c r="A26" s="54" t="s">
@@ -6595,23 +6690,23 @@
       <c r="A30" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="97"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
     </row>
     <row r="31" spans="1:7" s="49" customFormat="1">
       <c r="A31" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="91"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="51" t="s">
         <v>46</v>
       </c>
@@ -6624,14 +6719,14 @@
       <c r="A32" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="94"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="1:7" s="49" customFormat="1">
       <c r="A33" s="54" t="s">
@@ -6728,23 +6823,23 @@
       <c r="A38" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="97"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="91"/>
     </row>
     <row r="39" spans="1:7" s="49" customFormat="1">
       <c r="A39" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="91"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="94"/>
       <c r="F39" s="51" t="s">
         <v>46</v>
       </c>
@@ -6757,14 +6852,14 @@
       <c r="A40" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="94"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="97"/>
     </row>
     <row r="41" spans="1:7" s="49" customFormat="1">
       <c r="A41" s="54" t="s">
@@ -6861,23 +6956,23 @@
       <c r="A46" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="97"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="91"/>
     </row>
     <row r="47" spans="1:7" s="49" customFormat="1">
       <c r="A47" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="91"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="94"/>
       <c r="F47" s="51" t="s">
         <v>46</v>
       </c>
@@ -6890,14 +6985,14 @@
       <c r="A48" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="94"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="97"/>
     </row>
     <row r="49" spans="1:7" s="49" customFormat="1">
       <c r="A49" s="54" t="s">
@@ -6994,23 +7089,23 @@
       <c r="A54" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="95"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="97"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="91"/>
     </row>
     <row r="55" spans="1:7" s="49" customFormat="1">
       <c r="A55" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="91"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="94"/>
       <c r="F55" s="51" t="s">
         <v>46</v>
       </c>
@@ -7023,14 +7118,14 @@
       <c r="A56" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="94"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="97"/>
     </row>
     <row r="57" spans="1:7" s="49" customFormat="1">
       <c r="A57" s="54" t="s">
@@ -7127,23 +7222,23 @@
       <c r="A62" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="97"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="91"/>
     </row>
     <row r="63" spans="1:7" s="49" customFormat="1">
       <c r="A63" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="91"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="94"/>
       <c r="F63" s="51" t="s">
         <v>46</v>
       </c>
@@ -7156,14 +7251,14 @@
       <c r="A64" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="94"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="97"/>
     </row>
     <row r="65" spans="1:7" s="49" customFormat="1">
       <c r="A65" s="54" t="s">
@@ -7260,23 +7355,23 @@
       <c r="A70" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="95"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="96"/>
-      <c r="E70" s="96"/>
-      <c r="F70" s="96"/>
-      <c r="G70" s="97"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="91"/>
     </row>
     <row r="71" spans="1:7" s="49" customFormat="1">
       <c r="A71" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="89" t="s">
+      <c r="B71" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="90"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="91"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="94"/>
       <c r="F71" s="51" t="s">
         <v>46</v>
       </c>
@@ -7289,14 +7384,14 @@
       <c r="A72" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="92" t="s">
+      <c r="B72" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="94"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="97"/>
     </row>
     <row r="73" spans="1:7" s="49" customFormat="1">
       <c r="A73" s="54" t="s">
@@ -7393,23 +7488,23 @@
       <c r="A78" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="96"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="97"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="90"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="91"/>
     </row>
     <row r="79" spans="1:7" s="49" customFormat="1">
       <c r="A79" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="89" t="s">
+      <c r="B79" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="91"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
+      <c r="E79" s="94"/>
       <c r="F79" s="51" t="s">
         <v>46</v>
       </c>
@@ -7422,14 +7517,14 @@
       <c r="A80" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="92" t="s">
+      <c r="B80" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="93"/>
-      <c r="D80" s="93"/>
-      <c r="E80" s="93"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="94"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="96"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="97"/>
     </row>
     <row r="81" spans="1:7" s="49" customFormat="1">
       <c r="A81" s="54" t="s">
@@ -7611,23 +7706,23 @@
       <c r="A91" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B91" s="95"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="96"/>
-      <c r="E91" s="96"/>
-      <c r="F91" s="96"/>
-      <c r="G91" s="97"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="91"/>
     </row>
     <row r="92" spans="1:7" customFormat="1">
       <c r="A92" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B92" s="89" t="s">
+      <c r="B92" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="90"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="91"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="94"/>
       <c r="F92" s="51" t="s">
         <v>46</v>
       </c>
@@ -7640,14 +7735,14 @@
       <c r="A93" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="92" t="s">
+      <c r="B93" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="93"/>
-      <c r="D93" s="93"/>
-      <c r="E93" s="93"/>
-      <c r="F93" s="93"/>
-      <c r="G93" s="94"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="96"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="96"/>
+      <c r="G93" s="97"/>
     </row>
     <row r="94" spans="1:7" customFormat="1">
       <c r="A94" s="54" t="s">
@@ -7846,23 +7941,23 @@
       <c r="A105" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B105" s="95"/>
-      <c r="C105" s="96"/>
-      <c r="D105" s="96"/>
-      <c r="E105" s="96"/>
-      <c r="F105" s="96"/>
-      <c r="G105" s="97"/>
+      <c r="B105" s="89"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="91"/>
     </row>
     <row r="106" spans="1:7" customFormat="1">
       <c r="A106" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B106" s="89" t="s">
+      <c r="B106" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="C106" s="90"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="91"/>
+      <c r="C106" s="93"/>
+      <c r="D106" s="93"/>
+      <c r="E106" s="94"/>
       <c r="F106" s="51" t="s">
         <v>46</v>
       </c>
@@ -7875,14 +7970,14 @@
       <c r="A107" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B107" s="92" t="s">
+      <c r="B107" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C107" s="93"/>
-      <c r="D107" s="93"/>
-      <c r="E107" s="93"/>
-      <c r="F107" s="93"/>
-      <c r="G107" s="94"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="96"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="96"/>
+      <c r="G107" s="97"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="54" t="s">
@@ -8064,23 +8159,23 @@
       <c r="A118" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="95"/>
-      <c r="C118" s="96"/>
-      <c r="D118" s="96"/>
-      <c r="E118" s="96"/>
-      <c r="F118" s="96"/>
-      <c r="G118" s="97"/>
+      <c r="B118" s="89"/>
+      <c r="C118" s="90"/>
+      <c r="D118" s="90"/>
+      <c r="E118" s="90"/>
+      <c r="F118" s="90"/>
+      <c r="G118" s="91"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B119" s="89" t="s">
+      <c r="B119" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C119" s="90"/>
-      <c r="D119" s="90"/>
-      <c r="E119" s="91"/>
+      <c r="C119" s="93"/>
+      <c r="D119" s="93"/>
+      <c r="E119" s="94"/>
       <c r="F119" s="51" t="s">
         <v>46</v>
       </c>
@@ -8093,14 +8188,14 @@
       <c r="A120" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B120" s="92" t="s">
+      <c r="B120" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C120" s="93"/>
-      <c r="D120" s="93"/>
-      <c r="E120" s="93"/>
-      <c r="F120" s="93"/>
-      <c r="G120" s="94"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="96"/>
+      <c r="F120" s="96"/>
+      <c r="G120" s="97"/>
       <c r="H120" s="63"/>
     </row>
     <row r="121" spans="1:8">
@@ -8300,23 +8395,23 @@
       <c r="A132" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B132" s="95"/>
-      <c r="C132" s="96"/>
-      <c r="D132" s="96"/>
-      <c r="E132" s="96"/>
-      <c r="F132" s="96"/>
-      <c r="G132" s="97"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="90"/>
+      <c r="D132" s="90"/>
+      <c r="E132" s="90"/>
+      <c r="F132" s="90"/>
+      <c r="G132" s="91"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="B133" s="89" t="s">
+      <c r="B133" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C133" s="90"/>
-      <c r="D133" s="90"/>
-      <c r="E133" s="91"/>
+      <c r="C133" s="93"/>
+      <c r="D133" s="93"/>
+      <c r="E133" s="94"/>
       <c r="F133" s="51" t="s">
         <v>46</v>
       </c>
@@ -8329,14 +8424,14 @@
       <c r="A134" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B134" s="92" t="s">
+      <c r="B134" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C134" s="93"/>
-      <c r="D134" s="93"/>
-      <c r="E134" s="93"/>
-      <c r="F134" s="93"/>
-      <c r="G134" s="94"/>
+      <c r="C134" s="96"/>
+      <c r="D134" s="96"/>
+      <c r="E134" s="96"/>
+      <c r="F134" s="96"/>
+      <c r="G134" s="97"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="54" t="s">
@@ -8535,23 +8630,23 @@
       <c r="A146" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B146" s="95"/>
-      <c r="C146" s="96"/>
-      <c r="D146" s="96"/>
-      <c r="E146" s="96"/>
-      <c r="F146" s="96"/>
-      <c r="G146" s="97"/>
+      <c r="B146" s="89"/>
+      <c r="C146" s="90"/>
+      <c r="D146" s="90"/>
+      <c r="E146" s="90"/>
+      <c r="F146" s="90"/>
+      <c r="G146" s="91"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B147" s="89" t="s">
+      <c r="B147" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C147" s="90"/>
-      <c r="D147" s="90"/>
-      <c r="E147" s="91"/>
+      <c r="C147" s="93"/>
+      <c r="D147" s="93"/>
+      <c r="E147" s="94"/>
       <c r="F147" s="51" t="s">
         <v>46</v>
       </c>
@@ -8564,14 +8659,14 @@
       <c r="A148" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B148" s="92" t="s">
+      <c r="B148" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C148" s="93"/>
-      <c r="D148" s="93"/>
-      <c r="E148" s="93"/>
-      <c r="F148" s="93"/>
-      <c r="G148" s="94"/>
+      <c r="C148" s="96"/>
+      <c r="D148" s="96"/>
+      <c r="E148" s="96"/>
+      <c r="F148" s="96"/>
+      <c r="G148" s="97"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="54" t="s">
@@ -8787,23 +8882,23 @@
       <c r="A161" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B161" s="95"/>
-      <c r="C161" s="96"/>
-      <c r="D161" s="96"/>
-      <c r="E161" s="96"/>
-      <c r="F161" s="96"/>
-      <c r="G161" s="97"/>
+      <c r="B161" s="89"/>
+      <c r="C161" s="90"/>
+      <c r="D161" s="90"/>
+      <c r="E161" s="90"/>
+      <c r="F161" s="90"/>
+      <c r="G161" s="91"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B162" s="89" t="s">
+      <c r="B162" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C162" s="90"/>
-      <c r="D162" s="90"/>
-      <c r="E162" s="91"/>
+      <c r="C162" s="93"/>
+      <c r="D162" s="93"/>
+      <c r="E162" s="94"/>
       <c r="F162" s="51" t="s">
         <v>46</v>
       </c>
@@ -8816,14 +8911,14 @@
       <c r="A163" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B163" s="92" t="s">
+      <c r="B163" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C163" s="93"/>
-      <c r="D163" s="93"/>
-      <c r="E163" s="93"/>
-      <c r="F163" s="93"/>
-      <c r="G163" s="94"/>
+      <c r="C163" s="96"/>
+      <c r="D163" s="96"/>
+      <c r="E163" s="96"/>
+      <c r="F163" s="96"/>
+      <c r="G163" s="97"/>
     </row>
     <row r="164" spans="1:7" ht="30.95" customHeight="1">
       <c r="A164" s="54" t="s">
@@ -9022,23 +9117,23 @@
       <c r="A175" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B175" s="95"/>
-      <c r="C175" s="96"/>
-      <c r="D175" s="96"/>
-      <c r="E175" s="96"/>
-      <c r="F175" s="96"/>
-      <c r="G175" s="97"/>
+      <c r="B175" s="89"/>
+      <c r="C175" s="90"/>
+      <c r="D175" s="90"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="90"/>
+      <c r="G175" s="91"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="B176" s="89" t="s">
+      <c r="B176" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C176" s="90"/>
-      <c r="D176" s="90"/>
-      <c r="E176" s="91"/>
+      <c r="C176" s="93"/>
+      <c r="D176" s="93"/>
+      <c r="E176" s="94"/>
       <c r="F176" s="51" t="s">
         <v>46</v>
       </c>
@@ -9051,14 +9146,14 @@
       <c r="A177" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="92" t="s">
+      <c r="B177" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C177" s="93"/>
-      <c r="D177" s="93"/>
-      <c r="E177" s="93"/>
-      <c r="F177" s="93"/>
-      <c r="G177" s="94"/>
+      <c r="C177" s="96"/>
+      <c r="D177" s="96"/>
+      <c r="E177" s="96"/>
+      <c r="F177" s="96"/>
+      <c r="G177" s="97"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="54" t="s">
@@ -9274,23 +9369,23 @@
       <c r="A190" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B190" s="95"/>
-      <c r="C190" s="96"/>
-      <c r="D190" s="96"/>
-      <c r="E190" s="96"/>
-      <c r="F190" s="96"/>
-      <c r="G190" s="97"/>
+      <c r="B190" s="89"/>
+      <c r="C190" s="90"/>
+      <c r="D190" s="90"/>
+      <c r="E190" s="90"/>
+      <c r="F190" s="90"/>
+      <c r="G190" s="91"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="89" t="s">
+      <c r="B191" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="C191" s="90"/>
-      <c r="D191" s="90"/>
-      <c r="E191" s="91"/>
+      <c r="C191" s="93"/>
+      <c r="D191" s="93"/>
+      <c r="E191" s="94"/>
       <c r="F191" s="51" t="s">
         <v>46</v>
       </c>
@@ -9303,14 +9398,14 @@
       <c r="A192" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B192" s="92" t="s">
+      <c r="B192" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C192" s="93"/>
-      <c r="D192" s="93"/>
-      <c r="E192" s="93"/>
-      <c r="F192" s="93"/>
-      <c r="G192" s="94"/>
+      <c r="C192" s="96"/>
+      <c r="D192" s="96"/>
+      <c r="E192" s="96"/>
+      <c r="F192" s="96"/>
+      <c r="G192" s="97"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="54" t="s">
@@ -9594,23 +9689,23 @@
       <c r="A209" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B209" s="95"/>
-      <c r="C209" s="96"/>
-      <c r="D209" s="96"/>
-      <c r="E209" s="96"/>
-      <c r="F209" s="96"/>
-      <c r="G209" s="97"/>
+      <c r="B209" s="89"/>
+      <c r="C209" s="90"/>
+      <c r="D209" s="90"/>
+      <c r="E209" s="90"/>
+      <c r="F209" s="90"/>
+      <c r="G209" s="91"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B210" s="89" t="s">
+      <c r="B210" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C210" s="90"/>
-      <c r="D210" s="90"/>
-      <c r="E210" s="91"/>
+      <c r="C210" s="93"/>
+      <c r="D210" s="93"/>
+      <c r="E210" s="94"/>
       <c r="F210" s="51" t="s">
         <v>46</v>
       </c>
@@ -9623,14 +9718,14 @@
       <c r="A211" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B211" s="92" t="s">
+      <c r="B211" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C211" s="93"/>
-      <c r="D211" s="93"/>
-      <c r="E211" s="93"/>
-      <c r="F211" s="93"/>
-      <c r="G211" s="94"/>
+      <c r="C211" s="96"/>
+      <c r="D211" s="96"/>
+      <c r="E211" s="96"/>
+      <c r="F211" s="96"/>
+      <c r="G211" s="97"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="54" t="s">
@@ -9761,23 +9856,23 @@
       <c r="A219" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B219" s="95"/>
-      <c r="C219" s="96"/>
-      <c r="D219" s="96"/>
-      <c r="E219" s="96"/>
-      <c r="F219" s="96"/>
-      <c r="G219" s="97"/>
+      <c r="B219" s="89"/>
+      <c r="C219" s="90"/>
+      <c r="D219" s="90"/>
+      <c r="E219" s="90"/>
+      <c r="F219" s="90"/>
+      <c r="G219" s="91"/>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="89" t="s">
+      <c r="B220" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="C220" s="90"/>
-      <c r="D220" s="90"/>
-      <c r="E220" s="91"/>
+      <c r="C220" s="93"/>
+      <c r="D220" s="93"/>
+      <c r="E220" s="94"/>
       <c r="F220" s="51" t="s">
         <v>46</v>
       </c>
@@ -9790,14 +9885,14 @@
       <c r="A221" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="92" t="s">
+      <c r="B221" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C221" s="93"/>
-      <c r="D221" s="93"/>
-      <c r="E221" s="93"/>
-      <c r="F221" s="93"/>
-      <c r="G221" s="94"/>
+      <c r="C221" s="96"/>
+      <c r="D221" s="96"/>
+      <c r="E221" s="96"/>
+      <c r="F221" s="96"/>
+      <c r="G221" s="97"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="54" t="s">
@@ -9985,23 +10080,23 @@
       <c r="A232" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B232" s="95"/>
-      <c r="C232" s="96"/>
-      <c r="D232" s="96"/>
-      <c r="E232" s="96"/>
-      <c r="F232" s="96"/>
-      <c r="G232" s="97"/>
+      <c r="B232" s="89"/>
+      <c r="C232" s="90"/>
+      <c r="D232" s="90"/>
+      <c r="E232" s="90"/>
+      <c r="F232" s="90"/>
+      <c r="G232" s="91"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="B233" s="89" t="s">
+      <c r="B233" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C233" s="90"/>
-      <c r="D233" s="90"/>
-      <c r="E233" s="91"/>
+      <c r="C233" s="93"/>
+      <c r="D233" s="93"/>
+      <c r="E233" s="94"/>
       <c r="F233" s="51" t="s">
         <v>46</v>
       </c>
@@ -10014,14 +10109,14 @@
       <c r="A234" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B234" s="92" t="s">
+      <c r="B234" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C234" s="93"/>
-      <c r="D234" s="93"/>
-      <c r="E234" s="93"/>
-      <c r="F234" s="93"/>
-      <c r="G234" s="94"/>
+      <c r="C234" s="96"/>
+      <c r="D234" s="96"/>
+      <c r="E234" s="96"/>
+      <c r="F234" s="96"/>
+      <c r="G234" s="97"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="54" t="s">
@@ -10152,23 +10247,23 @@
       <c r="A242" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="95"/>
-      <c r="C242" s="96"/>
-      <c r="D242" s="96"/>
-      <c r="E242" s="96"/>
-      <c r="F242" s="96"/>
-      <c r="G242" s="97"/>
+      <c r="B242" s="89"/>
+      <c r="C242" s="90"/>
+      <c r="D242" s="90"/>
+      <c r="E242" s="90"/>
+      <c r="F242" s="90"/>
+      <c r="G242" s="91"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="B243" s="89" t="s">
+      <c r="B243" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="C243" s="90"/>
-      <c r="D243" s="90"/>
-      <c r="E243" s="91"/>
+      <c r="C243" s="93"/>
+      <c r="D243" s="93"/>
+      <c r="E243" s="94"/>
       <c r="F243" s="51" t="s">
         <v>46</v>
       </c>
@@ -10181,14 +10276,14 @@
       <c r="A244" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B244" s="92" t="s">
+      <c r="B244" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C244" s="93"/>
-      <c r="D244" s="93"/>
-      <c r="E244" s="93"/>
-      <c r="F244" s="93"/>
-      <c r="G244" s="94"/>
+      <c r="C244" s="96"/>
+      <c r="D244" s="96"/>
+      <c r="E244" s="96"/>
+      <c r="F244" s="96"/>
+      <c r="G244" s="97"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="54" t="s">
@@ -10302,23 +10397,23 @@
       <c r="A251" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B251" s="95"/>
-      <c r="C251" s="96"/>
-      <c r="D251" s="96"/>
-      <c r="E251" s="96"/>
-      <c r="F251" s="96"/>
-      <c r="G251" s="97"/>
+      <c r="B251" s="89"/>
+      <c r="C251" s="90"/>
+      <c r="D251" s="90"/>
+      <c r="E251" s="90"/>
+      <c r="F251" s="90"/>
+      <c r="G251" s="91"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="B252" s="89" t="s">
+      <c r="B252" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="C252" s="90"/>
-      <c r="D252" s="90"/>
-      <c r="E252" s="91"/>
+      <c r="C252" s="93"/>
+      <c r="D252" s="93"/>
+      <c r="E252" s="94"/>
       <c r="F252" s="51" t="s">
         <v>46</v>
       </c>
@@ -10331,14 +10426,14 @@
       <c r="A253" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B253" s="92" t="s">
+      <c r="B253" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C253" s="93"/>
-      <c r="D253" s="93"/>
-      <c r="E253" s="93"/>
-      <c r="F253" s="93"/>
-      <c r="G253" s="94"/>
+      <c r="C253" s="96"/>
+      <c r="D253" s="96"/>
+      <c r="E253" s="96"/>
+      <c r="F253" s="96"/>
+      <c r="G253" s="97"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="54" t="s">
@@ -10435,23 +10530,23 @@
       <c r="A259" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B259" s="95"/>
-      <c r="C259" s="96"/>
-      <c r="D259" s="96"/>
-      <c r="E259" s="96"/>
-      <c r="F259" s="96"/>
-      <c r="G259" s="97"/>
+      <c r="B259" s="89"/>
+      <c r="C259" s="90"/>
+      <c r="D259" s="90"/>
+      <c r="E259" s="90"/>
+      <c r="F259" s="90"/>
+      <c r="G259" s="91"/>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="89" t="s">
+      <c r="B260" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="C260" s="90"/>
-      <c r="D260" s="90"/>
-      <c r="E260" s="91"/>
+      <c r="C260" s="93"/>
+      <c r="D260" s="93"/>
+      <c r="E260" s="94"/>
       <c r="F260" s="51" t="s">
         <v>46</v>
       </c>
@@ -10464,14 +10559,14 @@
       <c r="A261" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B261" s="92" t="s">
+      <c r="B261" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C261" s="93"/>
-      <c r="D261" s="93"/>
-      <c r="E261" s="93"/>
-      <c r="F261" s="93"/>
-      <c r="G261" s="94"/>
+      <c r="C261" s="96"/>
+      <c r="D261" s="96"/>
+      <c r="E261" s="96"/>
+      <c r="F261" s="96"/>
+      <c r="G261" s="97"/>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="54" t="s">
@@ -10589,237 +10684,434 @@
       <c r="A268" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B268" s="95"/>
-      <c r="C268" s="96"/>
-      <c r="D268" s="96"/>
-      <c r="E268" s="96"/>
-      <c r="F268" s="96"/>
-      <c r="G268" s="97"/>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269"/>
-      <c r="B269"/>
-      <c r="C269"/>
-      <c r="D269"/>
-      <c r="E269"/>
-      <c r="F269"/>
-      <c r="G269"/>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270"/>
-      <c r="B270"/>
-      <c r="C270"/>
-      <c r="D270"/>
-      <c r="E270"/>
-      <c r="F270"/>
-      <c r="G270"/>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271"/>
-      <c r="B271"/>
-      <c r="C271"/>
-      <c r="D271"/>
-      <c r="E271"/>
-      <c r="F271"/>
-      <c r="G271"/>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272"/>
-      <c r="B272"/>
-      <c r="C272"/>
-      <c r="D272"/>
-      <c r="E272"/>
-      <c r="F272"/>
-      <c r="G272"/>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273"/>
-      <c r="B273"/>
-      <c r="C273"/>
-      <c r="D273"/>
-      <c r="E273"/>
-      <c r="F273"/>
-      <c r="G273"/>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274"/>
-      <c r="B274"/>
-      <c r="C274"/>
-      <c r="D274"/>
-      <c r="E274"/>
-      <c r="F274"/>
-      <c r="G274"/>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275"/>
-      <c r="B275"/>
-      <c r="C275"/>
-      <c r="D275"/>
-      <c r="E275"/>
-      <c r="F275"/>
-      <c r="G275"/>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276"/>
-      <c r="B276"/>
-      <c r="C276"/>
-      <c r="D276"/>
-      <c r="E276"/>
-      <c r="F276"/>
-      <c r="G276"/>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277"/>
-      <c r="B277"/>
-      <c r="C277"/>
-      <c r="D277"/>
-      <c r="E277"/>
-      <c r="F277"/>
-      <c r="G277"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278"/>
-      <c r="B278"/>
-      <c r="C278"/>
-      <c r="D278"/>
-      <c r="E278"/>
-      <c r="F278"/>
-      <c r="G278"/>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279"/>
-      <c r="B279"/>
-      <c r="C279"/>
-      <c r="D279"/>
-      <c r="E279"/>
-      <c r="F279"/>
-      <c r="G279"/>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280"/>
-      <c r="B280"/>
-      <c r="C280"/>
-      <c r="D280"/>
-      <c r="E280"/>
-      <c r="F280"/>
-      <c r="G280"/>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281"/>
-      <c r="B281"/>
-      <c r="C281"/>
-      <c r="D281"/>
-      <c r="E281"/>
-      <c r="F281"/>
-      <c r="G281"/>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282"/>
-      <c r="B282"/>
-      <c r="C282"/>
-      <c r="D282"/>
-      <c r="E282"/>
-      <c r="F282"/>
-      <c r="G282"/>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283"/>
-      <c r="B283"/>
-      <c r="C283"/>
-      <c r="D283"/>
-      <c r="E283"/>
-      <c r="F283"/>
-      <c r="G283"/>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284"/>
-      <c r="B284"/>
-      <c r="C284"/>
-      <c r="D284"/>
-      <c r="E284"/>
-      <c r="F284"/>
-      <c r="G284"/>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285"/>
-      <c r="B285"/>
-      <c r="C285"/>
-      <c r="D285"/>
-      <c r="E285"/>
-      <c r="F285"/>
-      <c r="G285"/>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286"/>
-      <c r="B286"/>
-      <c r="C286"/>
-      <c r="D286"/>
-      <c r="E286"/>
-      <c r="F286"/>
-      <c r="G286"/>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287"/>
-      <c r="B287"/>
-      <c r="C287"/>
-      <c r="D287"/>
-      <c r="E287"/>
-      <c r="F287"/>
-      <c r="G287"/>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288"/>
-      <c r="B288"/>
-      <c r="C288"/>
-      <c r="D288"/>
-      <c r="E288"/>
-      <c r="F288"/>
-      <c r="G288"/>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289"/>
-      <c r="B289"/>
-      <c r="C289"/>
-      <c r="D289"/>
-      <c r="E289"/>
-      <c r="F289"/>
-      <c r="G289"/>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290"/>
-      <c r="B290"/>
-      <c r="C290"/>
-      <c r="D290"/>
-      <c r="E290"/>
-      <c r="F290"/>
-      <c r="G290"/>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291"/>
-      <c r="B291"/>
-      <c r="C291"/>
-      <c r="D291"/>
-      <c r="E291"/>
-      <c r="F291"/>
-      <c r="G291"/>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292"/>
-      <c r="B292"/>
-      <c r="C292"/>
-      <c r="D292"/>
-      <c r="E292"/>
-      <c r="F292"/>
-      <c r="G292"/>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293"/>
-      <c r="B293"/>
-      <c r="C293"/>
-      <c r="D293"/>
-      <c r="E293"/>
-      <c r="F293"/>
-      <c r="G293"/>
+      <c r="B268" s="89"/>
+      <c r="C268" s="90"/>
+      <c r="D268" s="90"/>
+      <c r="E268" s="90"/>
+      <c r="F268" s="90"/>
+      <c r="G268" s="91"/>
+    </row>
+    <row r="269" spans="1:7" customFormat="1">
+      <c r="A269" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" s="92" t="s">
+        <v>269</v>
+      </c>
+      <c r="C269" s="93"/>
+      <c r="D269" s="93"/>
+      <c r="E269" s="94"/>
+      <c r="F269" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G269" s="52" t="str">
+        <f>IF(COUNTIF(F272:F274,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F272:F274,"Fail")&gt;0,"Fail",IF(COUNTIF(F272:F274,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" customFormat="1">
+      <c r="A270" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B270" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C270" s="96"/>
+      <c r="D270" s="96"/>
+      <c r="E270" s="96"/>
+      <c r="F270" s="96"/>
+      <c r="G270" s="97"/>
+    </row>
+    <row r="271" spans="1:7" customFormat="1">
+      <c r="A271" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B271" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C271" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D271" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E271" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F271" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G271" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" customFormat="1" ht="149.25" customHeight="1">
+      <c r="A272" s="55">
+        <v>1</v>
+      </c>
+      <c r="B272" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C272" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D272" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="E272" s="57"/>
+      <c r="F272" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G272" s="59"/>
+    </row>
+    <row r="273" spans="1:7" customFormat="1" ht="81" customHeight="1">
+      <c r="A273" s="55">
+        <v>2</v>
+      </c>
+      <c r="B273" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="C273" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="D273" s="57"/>
+      <c r="E273" s="57"/>
+      <c r="F273" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G273" s="59"/>
+    </row>
+    <row r="274" spans="1:7" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A274" s="55">
+        <v>3</v>
+      </c>
+      <c r="B274" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C274" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="D274" s="57"/>
+      <c r="E274" s="57"/>
+      <c r="F274" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G274" s="59"/>
+    </row>
+    <row r="275" spans="1:7" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A275" s="55">
+        <v>4</v>
+      </c>
+      <c r="B275" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C275" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D275" s="57"/>
+      <c r="E275" s="57"/>
+      <c r="F275" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G275" s="59"/>
+    </row>
+    <row r="276" spans="1:7" customFormat="1">
+      <c r="A276" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B276" s="89"/>
+      <c r="C276" s="90"/>
+      <c r="D276" s="90"/>
+      <c r="E276" s="90"/>
+      <c r="F276" s="90"/>
+      <c r="G276" s="91"/>
+    </row>
+    <row r="277" spans="1:7" customFormat="1">
+      <c r="A277" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" s="92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C277" s="93"/>
+      <c r="D277" s="93"/>
+      <c r="E277" s="94"/>
+      <c r="F277" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G277" s="52" t="str">
+        <f>IF(COUNTIF(F280:F282,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F280:F282,"Fail")&gt;0,"Fail",IF(COUNTIF(F280:F282,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" customFormat="1">
+      <c r="A278" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B278" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C278" s="96"/>
+      <c r="D278" s="96"/>
+      <c r="E278" s="96"/>
+      <c r="F278" s="96"/>
+      <c r="G278" s="97"/>
+    </row>
+    <row r="279" spans="1:7" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A279" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B279" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C279" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D279" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E279" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F279" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G279" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" customFormat="1" ht="162" customHeight="1">
+      <c r="A280" s="55">
+        <v>1</v>
+      </c>
+      <c r="B280" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C280" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D280" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="E280" s="57"/>
+      <c r="F280" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G280" s="59"/>
+    </row>
+    <row r="281" spans="1:7" customFormat="1" ht="42" customHeight="1">
+      <c r="A281" s="55">
+        <v>2</v>
+      </c>
+      <c r="B281" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="C281" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="D281" s="57"/>
+      <c r="E281" s="57"/>
+      <c r="F281" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G281" s="59"/>
+    </row>
+    <row r="282" spans="1:7" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A282" s="55">
+        <v>3</v>
+      </c>
+      <c r="B282" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C282" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="D282" s="57"/>
+      <c r="E282" s="57"/>
+      <c r="F282" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G282" s="59"/>
+    </row>
+    <row r="283" spans="1:7" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A283" s="55">
+        <v>4</v>
+      </c>
+      <c r="B283" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C283" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="D283" s="57"/>
+      <c r="E283" s="57"/>
+      <c r="F283" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G283" s="59"/>
+    </row>
+    <row r="284" spans="1:7" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A284" s="55">
+        <v>5</v>
+      </c>
+      <c r="B284" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C284" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D284" s="57"/>
+      <c r="E284" s="57"/>
+      <c r="F284" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G284" s="59"/>
+    </row>
+    <row r="285" spans="1:7" customFormat="1">
+      <c r="A285" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B285" s="89"/>
+      <c r="C285" s="90"/>
+      <c r="D285" s="90"/>
+      <c r="E285" s="90"/>
+      <c r="F285" s="90"/>
+      <c r="G285" s="91"/>
+    </row>
+    <row r="286" spans="1:7" customFormat="1">
+      <c r="A286" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="C286" s="93"/>
+      <c r="D286" s="93"/>
+      <c r="E286" s="94"/>
+      <c r="F286" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G286" s="52" t="str">
+        <f>IF(COUNTIF(F289:F291,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F289:F291,"Fail")&gt;0,"Fail",IF(COUNTIF(F289:F291,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" customFormat="1">
+      <c r="A287" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B287" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C287" s="96"/>
+      <c r="D287" s="96"/>
+      <c r="E287" s="96"/>
+      <c r="F287" s="96"/>
+      <c r="G287" s="97"/>
+    </row>
+    <row r="288" spans="1:7" customFormat="1">
+      <c r="A288" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B288" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C288" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D288" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E288" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F288" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G288" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" customFormat="1" ht="135">
+      <c r="A289" s="55">
+        <v>1</v>
+      </c>
+      <c r="B289" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C289" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D289" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="E289" s="57"/>
+      <c r="F289" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G289" s="59"/>
+    </row>
+    <row r="290" spans="1:7" customFormat="1" ht="45">
+      <c r="A290" s="55">
+        <v>2</v>
+      </c>
+      <c r="B290" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="C290" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="D290" s="57"/>
+      <c r="E290" s="57"/>
+      <c r="F290" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G290" s="59"/>
+    </row>
+    <row r="291" spans="1:7" customFormat="1" ht="45">
+      <c r="A291" s="55">
+        <v>3</v>
+      </c>
+      <c r="B291" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C291" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="D291" s="57"/>
+      <c r="E291" s="57"/>
+      <c r="F291" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G291" s="59"/>
+    </row>
+    <row r="292" spans="1:7" s="104" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A292" s="55">
+        <v>4</v>
+      </c>
+      <c r="B292" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C292" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="D292" s="57"/>
+      <c r="E292" s="57"/>
+      <c r="F292" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G292" s="59"/>
+    </row>
+    <row r="293" spans="1:7" customFormat="1">
+      <c r="A293" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B293" s="89"/>
+      <c r="C293" s="90"/>
+      <c r="D293" s="90"/>
+      <c r="E293" s="90"/>
+      <c r="F293" s="90"/>
+      <c r="G293" s="91"/>
     </row>
     <row r="294" spans="1:7">
       <c r="A294"/>
@@ -16822,64 +17114,16 @@
       <c r="H960" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:G244"/>
-    <mergeCell ref="B251:G251"/>
-    <mergeCell ref="B252:E252"/>
-    <mergeCell ref="B253:G253"/>
-    <mergeCell ref="B221:G221"/>
-    <mergeCell ref="B232:G232"/>
-    <mergeCell ref="B233:E233"/>
-    <mergeCell ref="B234:G234"/>
-    <mergeCell ref="B242:G242"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:G211"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B191:E191"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:G72"/>
+  <mergeCells count="82">
+    <mergeCell ref="B285:G285"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:G287"/>
+    <mergeCell ref="B293:G293"/>
+    <mergeCell ref="B269:E269"/>
+    <mergeCell ref="B270:G270"/>
+    <mergeCell ref="B276:G276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B278:G278"/>
     <mergeCell ref="B260:E260"/>
     <mergeCell ref="B261:G261"/>
     <mergeCell ref="B268:G268"/>
@@ -16896,9 +17140,66 @@
     <mergeCell ref="B118:G118"/>
     <mergeCell ref="B119:E119"/>
     <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:G211"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:G221"/>
+    <mergeCell ref="B232:G232"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B234:G234"/>
+    <mergeCell ref="B242:G242"/>
+    <mergeCell ref="B259:G259"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:G244"/>
+    <mergeCell ref="B251:G251"/>
+    <mergeCell ref="B252:E252"/>
+    <mergeCell ref="B253:G253"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F443:F445 F450:F456 F669:F671 F659:F664 F461:F470 F475:F478 F483:F488 F493:F501 F506:F515 F520:F530 F535:F545 F561:F567 F589:F591 F550:F556 F572:F578 F583:F584 F596:F602 F607:F613 F629:F631 F618:F624 F636:F639 F644:F646 F651:F654 F21:F22 F50:F53 F34:F37 F27:F29 F82:F90 F42:F45 F66:F69 F74:F77 F58:F61 F95:F104 F109:F117 F122:F131 F136:F145 F150:F160 F165:F174 F179:F189 F194:F208 F213:F218 F223:F231 F236:F241 F246:F250 F255:F258 F263:F267">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F443:F445 F450:F456 F669:F671 F659:F664 F461:F470 F475:F478 F483:F488 F493:F501 F506:F515 F520:F530 F535:F545 F561:F567 F589:F591 F550:F556 F572:F578 F583:F584 F596:F602 F607:F613 F629:F631 F618:F624 F636:F639 F644:F646 F651:F654 F21:F22 F50:F53 F34:F37 F27:F29 F82:F90 F42:F45 F66:F69 F74:F77 F58:F61 F95:F104 F109:F117 F122:F131 F136:F145 F150:F160 F165:F174 F179:F189 F194:F208 F213:F218 F223:F231 F236:F241 F246:F250 F255:F258 F263:F267 F272:F275 F280:F284 F289:F292">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TCS_NEWUI_Carousel.xlsx
+++ b/TCS_NEWUI_Carousel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" tabRatio="815" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="296">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -904,9 +904,6 @@
 2. Sorted by option should be removed from carousel</t>
   </si>
   <si>
-    <t>US:WEB-7848_TC 01</t>
-  </si>
-  <si>
     <t>Verify Carousel  when the default selected sorting option is First Run date</t>
   </si>
   <si>
@@ -943,9 +940,6 @@
     <t>User should be able to see that all the Ads in the Carousel are sorted in Descending order as per their First Run Date</t>
   </si>
   <si>
-    <t>US:WEB-7848_TC 02</t>
-  </si>
-  <si>
     <t>Verify Carousel When user selects sorting option SPEND</t>
   </si>
   <si>
@@ -962,9 +956,6 @@
   </si>
   <si>
     <t>User should be able to see that all the Ads in the Carousel are sorted in Descending order as per their Spend data</t>
-  </si>
-  <si>
-    <t>US:WEB-7848_TC 03</t>
   </si>
   <si>
     <t>Verify the Carousel Ad tiles field by switching the sorting options</t>
@@ -989,6 +980,27 @@
     <t>1.User should be able to switch to First Run Date option for sorting of Carousel 
 2. Ads in the carousel should show the media and First Run Date data on it
 3. Ads should be sorted in descending order as per their First Run Date</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>US:WEB-7428_TC 24</t>
+  </si>
+  <si>
+    <t>US:WEB-7428_TC 25</t>
+  </si>
+  <si>
+    <t>US:WEB-7428_TC 26</t>
+  </si>
+  <si>
+    <t>SMRT-7987</t>
   </si>
 </sst>
 </file>
@@ -2682,14 +2694,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="152" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="42" xfId="144" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="21" borderId="1" xfId="134" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2762,7 +2770,15 @@
     <xf numFmtId="0" fontId="50" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1" xfId="11"/>
@@ -3043,7 +3059,7 @@
           <c:x val="5.3923741222529187E-2"/>
           <c:y val="0.14185650994577867"/>
           <c:w val="0.90694002510216154"/>
-          <c:h val="0.75521895211321854"/>
+          <c:h val="0.75521895211321866"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3225,11 +3241,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="73763456"/>
-        <c:axId val="73773440"/>
+        <c:axId val="72632960"/>
+        <c:axId val="72642944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73763456"/>
+        <c:axId val="72632960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3248,14 +3264,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73773440"/>
+        <c:crossAx val="72642944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73773440"/>
+        <c:axId val="72642944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,7 +3279,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="73763456"/>
+        <c:crossAx val="72632960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3283,7 +3299,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3329,8 +3345,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.8831278392536694E-2"/>
-          <c:y val="0.14624350369603392"/>
-          <c:w val="0.92496729254319754"/>
+          <c:y val="0.14624350369603395"/>
+          <c:w val="0.92496729254319776"/>
           <c:h val="0.69766331701963369"/>
         </c:manualLayout>
       </c:layout>
@@ -3474,8 +3490,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.270891046791853"/>
-          <c:y val="0.88141746683253475"/>
-          <c:w val="0.4279103679659812"/>
+          <c:y val="0.88141746683253452"/>
+          <c:w val="0.42791036796598136"/>
           <c:h val="7.1280252974084315E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3495,7 +3511,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3513,9 +3529,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.27595722641494741"/>
-          <c:y val="7.1365887012686396E-2"/>
-          <c:w val="0.2967237552279261"/>
-          <c:h val="0.85466509216403863"/>
+          <c:y val="7.136588701268641E-2"/>
+          <c:w val="0.29672375522792616"/>
+          <c:h val="0.85466509216403874"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -3719,8 +3735,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.72165251246917483"/>
-          <c:y val="3.6083951617898596E-3"/>
+          <c:x val="0.72165251246917506"/>
+          <c:y val="3.6083951617898601E-3"/>
           <c:w val="0.24112408909611374"/>
           <c:h val="0.95693837006674254"/>
         </c:manualLayout>
@@ -3782,7 +3798,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3808,7 +3824,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,7 +3862,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3884,7 +3900,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3896,7 +3912,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3916,7 +3932,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3988,7 +4004,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4122,7 +4138,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525" cmpd="sng">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4172,7 +4188,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4541,33 +4557,33 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87" t="s">
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A7" s="83"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -4583,7 +4599,7 @@
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="87"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickTop="1">
       <c r="A8" s="1" t="s">
@@ -4684,15 +4700,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="115.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="69.28515625" style="3" customWidth="1"/>
     <col min="5" max="256" width="9" style="3"/>
     <col min="257" max="257" width="71.85546875" style="3" customWidth="1"/>
@@ -4961,7 +4977,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="70" t="s">
@@ -4974,74 +4990,74 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="88"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="71" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" s="20" customFormat="1">
-      <c r="A4" s="88"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="68"/>
       <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" s="22" customFormat="1">
-      <c r="A5" s="88"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="88"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="88"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="88"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="88"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="102" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -5050,11 +5066,11 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="88"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="72" t="s">
         <v>80</v>
       </c>
       <c r="D10" s="72" t="s">
@@ -5062,28 +5078,28 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="88"/>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="86"/>
       <c r="B11" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="88"/>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="86"/>
       <c r="B12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="103" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="88"/>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="86"/>
       <c r="B13" s="19" t="s">
         <v>22</v>
       </c>
@@ -5092,18 +5108,18 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="88"/>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="86"/>
       <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="103" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="88"/>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="86"/>
       <c r="B15" s="19" t="s">
         <v>94</v>
       </c>
@@ -5112,18 +5128,18 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="88"/>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="86"/>
       <c r="B16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="103" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="88"/>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="86"/>
       <c r="B17" s="19" t="s">
         <v>96</v>
       </c>
@@ -5133,11 +5149,11 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="88"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="104" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="68" t="s">
@@ -5146,22 +5162,22 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="88"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="104" t="s">
         <v>83</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="88"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="104" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="68" t="s">
@@ -5170,12 +5186,12 @@
       <c r="E20" s="5"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="88"/>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="86"/>
       <c r="B21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="104" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="68" t="s">
@@ -5185,11 +5201,11 @@
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="88"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="104" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="68" t="s">
@@ -5199,11 +5215,11 @@
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="88"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="72" t="s">
         <v>241</v>
       </c>
       <c r="D23" s="75"/>
@@ -5211,7 +5227,7 @@
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="88"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="19" t="s">
         <v>257</v>
       </c>
@@ -5225,131 +5241,146 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="88"/>
-      <c r="B25" s="4"/>
-      <c r="D25" s="73"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>295</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="88"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="73" t="s">
-        <v>91</v>
+      <c r="A26" s="86"/>
+      <c r="B26" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="5"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="88"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="D27" s="68"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="88"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="4"/>
       <c r="D28" s="68"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="88"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="88"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="4"/>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="88"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="68"/>
+      <c r="C31" s="73" t="s">
+        <v>91</v>
+      </c>
       <c r="D31" s="68"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="88"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="4"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="88"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="4"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="88"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="4"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="88"/>
+      <c r="A35" s="86"/>
       <c r="B35" s="4"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="88"/>
+      <c r="A36" s="86"/>
       <c r="B36" s="4"/>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="88"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="4"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="88"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="4"/>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="88"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="4"/>
       <c r="C39" s="68"/>
       <c r="D39" s="68"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="88"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="4"/>
       <c r="C40" s="68"/>
       <c r="D40" s="68"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="88"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="4"/>
       <c r="D41" s="68"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="88"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="4"/>
       <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="88"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="4"/>
       <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="88"/>
+      <c r="A44" s="86"/>
       <c r="B44" s="4"/>
       <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="88"/>
+      <c r="A45" s="86"/>
       <c r="B45" s="4"/>
       <c r="C45" s="6"/>
     </row>
@@ -5598,8 +5629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+    <sheetView topLeftCell="A269" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6265,10 +6296,10 @@
       </c>
       <c r="D2"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="99"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="26"/>
@@ -6325,10 +6356,10 @@
       <c r="C6" s="28"/>
       <c r="D6"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="101"/>
+      <c r="G6" s="99"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="26"/>
@@ -6459,37 +6490,37 @@
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" s="49" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
     </row>
     <row r="17" spans="1:7" s="49" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:7" s="49" customFormat="1">
       <c r="A18" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="51" t="s">
         <v>46</v>
       </c>
@@ -6502,14 +6533,14 @@
       <c r="A19" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="97"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
     </row>
     <row r="20" spans="1:7" s="49" customFormat="1">
       <c r="A20" s="54" t="s">
@@ -6574,23 +6605,23 @@
       <c r="A23" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" s="49" customFormat="1">
       <c r="A24" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="51" t="s">
         <v>46</v>
       </c>
@@ -6603,14 +6634,14 @@
       <c r="A25" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" s="49" customFormat="1">
       <c r="A26" s="54" t="s">
@@ -6690,23 +6721,23 @@
       <c r="A30" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
     </row>
     <row r="31" spans="1:7" s="49" customFormat="1">
       <c r="A31" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="51" t="s">
         <v>46</v>
       </c>
@@ -6719,14 +6750,14 @@
       <c r="A32" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" s="49" customFormat="1">
       <c r="A33" s="54" t="s">
@@ -6823,23 +6854,23 @@
       <c r="A38" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="91"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
     </row>
     <row r="39" spans="1:7" s="49" customFormat="1">
       <c r="A39" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="94"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="51" t="s">
         <v>46</v>
       </c>
@@ -6852,14 +6883,14 @@
       <c r="A40" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="97"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="1:7" s="49" customFormat="1">
       <c r="A41" s="54" t="s">
@@ -6956,23 +6987,23 @@
       <c r="A46" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="91"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="89"/>
     </row>
     <row r="47" spans="1:7" s="49" customFormat="1">
       <c r="A47" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="94"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="92"/>
       <c r="F47" s="51" t="s">
         <v>46</v>
       </c>
@@ -6985,14 +7016,14 @@
       <c r="A48" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="97"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="95"/>
     </row>
     <row r="49" spans="1:7" s="49" customFormat="1">
       <c r="A49" s="54" t="s">
@@ -7089,23 +7120,23 @@
       <c r="A54" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="89"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="91"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="89"/>
     </row>
     <row r="55" spans="1:7" s="49" customFormat="1">
       <c r="A55" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="94"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="51" t="s">
         <v>46</v>
       </c>
@@ -7118,14 +7149,14 @@
       <c r="A56" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="97"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="95"/>
     </row>
     <row r="57" spans="1:7" s="49" customFormat="1">
       <c r="A57" s="54" t="s">
@@ -7222,23 +7253,23 @@
       <c r="A62" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="91"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="89"/>
     </row>
     <row r="63" spans="1:7" s="49" customFormat="1">
       <c r="A63" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="92" t="s">
+      <c r="B63" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="93"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="94"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="92"/>
       <c r="F63" s="51" t="s">
         <v>46</v>
       </c>
@@ -7251,14 +7282,14 @@
       <c r="A64" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="95" t="s">
+      <c r="B64" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="96"/>
-      <c r="D64" s="96"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="97"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="95"/>
     </row>
     <row r="65" spans="1:7" s="49" customFormat="1">
       <c r="A65" s="54" t="s">
@@ -7355,23 +7386,23 @@
       <c r="A70" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="89"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="91"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="89"/>
     </row>
     <row r="71" spans="1:7" s="49" customFormat="1">
       <c r="A71" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="92" t="s">
+      <c r="B71" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="94"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="92"/>
       <c r="F71" s="51" t="s">
         <v>46</v>
       </c>
@@ -7384,14 +7415,14 @@
       <c r="A72" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="95" t="s">
+      <c r="B72" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="96"/>
-      <c r="D72" s="96"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="97"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="95"/>
     </row>
     <row r="73" spans="1:7" s="49" customFormat="1">
       <c r="A73" s="54" t="s">
@@ -7488,23 +7519,23 @@
       <c r="A78" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="89"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="91"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="89"/>
     </row>
     <row r="79" spans="1:7" s="49" customFormat="1">
       <c r="A79" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="92" t="s">
+      <c r="B79" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="93"/>
-      <c r="D79" s="93"/>
-      <c r="E79" s="94"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="92"/>
       <c r="F79" s="51" t="s">
         <v>46</v>
       </c>
@@ -7517,14 +7548,14 @@
       <c r="A80" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="95" t="s">
+      <c r="B80" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="96"/>
-      <c r="D80" s="96"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="97"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="94"/>
+      <c r="G80" s="95"/>
     </row>
     <row r="81" spans="1:7" s="49" customFormat="1">
       <c r="A81" s="54" t="s">
@@ -7706,23 +7737,23 @@
       <c r="A91" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B91" s="89"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="91"/>
+      <c r="B91" s="87"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="88"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="89"/>
     </row>
     <row r="92" spans="1:7" customFormat="1">
       <c r="A92" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="93"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="94"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="92"/>
       <c r="F92" s="51" t="s">
         <v>46</v>
       </c>
@@ -7735,14 +7766,14 @@
       <c r="A93" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="95" t="s">
+      <c r="B93" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="96"/>
-      <c r="D93" s="96"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="96"/>
-      <c r="G93" s="97"/>
+      <c r="C93" s="94"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="94"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="95"/>
     </row>
     <row r="94" spans="1:7" customFormat="1">
       <c r="A94" s="54" t="s">
@@ -7941,23 +7972,23 @@
       <c r="A105" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B105" s="89"/>
-      <c r="C105" s="90"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="90"/>
-      <c r="F105" s="90"/>
-      <c r="G105" s="91"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="88"/>
+      <c r="E105" s="88"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="89"/>
     </row>
     <row r="106" spans="1:7" customFormat="1">
       <c r="A106" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B106" s="92" t="s">
+      <c r="B106" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="C106" s="93"/>
-      <c r="D106" s="93"/>
-      <c r="E106" s="94"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="92"/>
       <c r="F106" s="51" t="s">
         <v>46</v>
       </c>
@@ -7970,14 +8001,14 @@
       <c r="A107" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B107" s="95" t="s">
+      <c r="B107" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C107" s="96"/>
-      <c r="D107" s="96"/>
-      <c r="E107" s="96"/>
-      <c r="F107" s="96"/>
-      <c r="G107" s="97"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="94"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="95"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="54" t="s">
@@ -8159,23 +8190,23 @@
       <c r="A118" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="89"/>
-      <c r="C118" s="90"/>
-      <c r="D118" s="90"/>
-      <c r="E118" s="90"/>
-      <c r="F118" s="90"/>
-      <c r="G118" s="91"/>
+      <c r="B118" s="87"/>
+      <c r="C118" s="88"/>
+      <c r="D118" s="88"/>
+      <c r="E118" s="88"/>
+      <c r="F118" s="88"/>
+      <c r="G118" s="89"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B119" s="92" t="s">
+      <c r="B119" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C119" s="93"/>
-      <c r="D119" s="93"/>
-      <c r="E119" s="94"/>
+      <c r="C119" s="91"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="92"/>
       <c r="F119" s="51" t="s">
         <v>46</v>
       </c>
@@ -8188,14 +8219,14 @@
       <c r="A120" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B120" s="95" t="s">
+      <c r="B120" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C120" s="96"/>
-      <c r="D120" s="96"/>
-      <c r="E120" s="96"/>
-      <c r="F120" s="96"/>
-      <c r="G120" s="97"/>
+      <c r="C120" s="94"/>
+      <c r="D120" s="94"/>
+      <c r="E120" s="94"/>
+      <c r="F120" s="94"/>
+      <c r="G120" s="95"/>
       <c r="H120" s="63"/>
     </row>
     <row r="121" spans="1:8">
@@ -8395,23 +8426,23 @@
       <c r="A132" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B132" s="89"/>
-      <c r="C132" s="90"/>
-      <c r="D132" s="90"/>
-      <c r="E132" s="90"/>
-      <c r="F132" s="90"/>
-      <c r="G132" s="91"/>
+      <c r="B132" s="87"/>
+      <c r="C132" s="88"/>
+      <c r="D132" s="88"/>
+      <c r="E132" s="88"/>
+      <c r="F132" s="88"/>
+      <c r="G132" s="89"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="B133" s="92" t="s">
+      <c r="B133" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="C133" s="93"/>
-      <c r="D133" s="93"/>
-      <c r="E133" s="94"/>
+      <c r="C133" s="91"/>
+      <c r="D133" s="91"/>
+      <c r="E133" s="92"/>
       <c r="F133" s="51" t="s">
         <v>46</v>
       </c>
@@ -8424,14 +8455,14 @@
       <c r="A134" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B134" s="95" t="s">
+      <c r="B134" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C134" s="96"/>
-      <c r="D134" s="96"/>
-      <c r="E134" s="96"/>
-      <c r="F134" s="96"/>
-      <c r="G134" s="97"/>
+      <c r="C134" s="94"/>
+      <c r="D134" s="94"/>
+      <c r="E134" s="94"/>
+      <c r="F134" s="94"/>
+      <c r="G134" s="95"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="54" t="s">
@@ -8630,23 +8661,23 @@
       <c r="A146" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B146" s="89"/>
-      <c r="C146" s="90"/>
-      <c r="D146" s="90"/>
-      <c r="E146" s="90"/>
-      <c r="F146" s="90"/>
-      <c r="G146" s="91"/>
+      <c r="B146" s="87"/>
+      <c r="C146" s="88"/>
+      <c r="D146" s="88"/>
+      <c r="E146" s="88"/>
+      <c r="F146" s="88"/>
+      <c r="G146" s="89"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B147" s="92" t="s">
+      <c r="B147" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C147" s="93"/>
-      <c r="D147" s="93"/>
-      <c r="E147" s="94"/>
+      <c r="C147" s="91"/>
+      <c r="D147" s="91"/>
+      <c r="E147" s="92"/>
       <c r="F147" s="51" t="s">
         <v>46</v>
       </c>
@@ -8659,14 +8690,14 @@
       <c r="A148" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B148" s="95" t="s">
+      <c r="B148" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C148" s="96"/>
-      <c r="D148" s="96"/>
-      <c r="E148" s="96"/>
-      <c r="F148" s="96"/>
-      <c r="G148" s="97"/>
+      <c r="C148" s="94"/>
+      <c r="D148" s="94"/>
+      <c r="E148" s="94"/>
+      <c r="F148" s="94"/>
+      <c r="G148" s="95"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="54" t="s">
@@ -8882,23 +8913,23 @@
       <c r="A161" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B161" s="89"/>
-      <c r="C161" s="90"/>
-      <c r="D161" s="90"/>
-      <c r="E161" s="90"/>
-      <c r="F161" s="90"/>
-      <c r="G161" s="91"/>
+      <c r="B161" s="87"/>
+      <c r="C161" s="88"/>
+      <c r="D161" s="88"/>
+      <c r="E161" s="88"/>
+      <c r="F161" s="88"/>
+      <c r="G161" s="89"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B162" s="92" t="s">
+      <c r="B162" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C162" s="93"/>
-      <c r="D162" s="93"/>
-      <c r="E162" s="94"/>
+      <c r="C162" s="91"/>
+      <c r="D162" s="91"/>
+      <c r="E162" s="92"/>
       <c r="F162" s="51" t="s">
         <v>46</v>
       </c>
@@ -8911,14 +8942,14 @@
       <c r="A163" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B163" s="95" t="s">
+      <c r="B163" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C163" s="96"/>
-      <c r="D163" s="96"/>
-      <c r="E163" s="96"/>
-      <c r="F163" s="96"/>
-      <c r="G163" s="97"/>
+      <c r="C163" s="94"/>
+      <c r="D163" s="94"/>
+      <c r="E163" s="94"/>
+      <c r="F163" s="94"/>
+      <c r="G163" s="95"/>
     </row>
     <row r="164" spans="1:7" ht="30.95" customHeight="1">
       <c r="A164" s="54" t="s">
@@ -9117,23 +9148,23 @@
       <c r="A175" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B175" s="89"/>
-      <c r="C175" s="90"/>
-      <c r="D175" s="90"/>
-      <c r="E175" s="90"/>
-      <c r="F175" s="90"/>
-      <c r="G175" s="91"/>
+      <c r="B175" s="87"/>
+      <c r="C175" s="88"/>
+      <c r="D175" s="88"/>
+      <c r="E175" s="88"/>
+      <c r="F175" s="88"/>
+      <c r="G175" s="89"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="B176" s="92" t="s">
+      <c r="B176" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="C176" s="93"/>
-      <c r="D176" s="93"/>
-      <c r="E176" s="94"/>
+      <c r="C176" s="91"/>
+      <c r="D176" s="91"/>
+      <c r="E176" s="92"/>
       <c r="F176" s="51" t="s">
         <v>46</v>
       </c>
@@ -9146,14 +9177,14 @@
       <c r="A177" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="95" t="s">
+      <c r="B177" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C177" s="96"/>
-      <c r="D177" s="96"/>
-      <c r="E177" s="96"/>
-      <c r="F177" s="96"/>
-      <c r="G177" s="97"/>
+      <c r="C177" s="94"/>
+      <c r="D177" s="94"/>
+      <c r="E177" s="94"/>
+      <c r="F177" s="94"/>
+      <c r="G177" s="95"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="54" t="s">
@@ -9369,23 +9400,23 @@
       <c r="A190" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B190" s="89"/>
-      <c r="C190" s="90"/>
-      <c r="D190" s="90"/>
-      <c r="E190" s="90"/>
-      <c r="F190" s="90"/>
-      <c r="G190" s="91"/>
+      <c r="B190" s="87"/>
+      <c r="C190" s="88"/>
+      <c r="D190" s="88"/>
+      <c r="E190" s="88"/>
+      <c r="F190" s="88"/>
+      <c r="G190" s="89"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="92" t="s">
+      <c r="B191" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="C191" s="93"/>
-      <c r="D191" s="93"/>
-      <c r="E191" s="94"/>
+      <c r="C191" s="91"/>
+      <c r="D191" s="91"/>
+      <c r="E191" s="92"/>
       <c r="F191" s="51" t="s">
         <v>46</v>
       </c>
@@ -9398,14 +9429,14 @@
       <c r="A192" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B192" s="95" t="s">
+      <c r="B192" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C192" s="96"/>
-      <c r="D192" s="96"/>
-      <c r="E192" s="96"/>
-      <c r="F192" s="96"/>
-      <c r="G192" s="97"/>
+      <c r="C192" s="94"/>
+      <c r="D192" s="94"/>
+      <c r="E192" s="94"/>
+      <c r="F192" s="94"/>
+      <c r="G192" s="95"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="54" t="s">
@@ -9689,23 +9720,23 @@
       <c r="A209" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B209" s="89"/>
-      <c r="C209" s="90"/>
-      <c r="D209" s="90"/>
-      <c r="E209" s="90"/>
-      <c r="F209" s="90"/>
-      <c r="G209" s="91"/>
+      <c r="B209" s="87"/>
+      <c r="C209" s="88"/>
+      <c r="D209" s="88"/>
+      <c r="E209" s="88"/>
+      <c r="F209" s="88"/>
+      <c r="G209" s="89"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B210" s="92" t="s">
+      <c r="B210" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="C210" s="93"/>
-      <c r="D210" s="93"/>
-      <c r="E210" s="94"/>
+      <c r="C210" s="91"/>
+      <c r="D210" s="91"/>
+      <c r="E210" s="92"/>
       <c r="F210" s="51" t="s">
         <v>46</v>
       </c>
@@ -9718,14 +9749,14 @@
       <c r="A211" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B211" s="95" t="s">
+      <c r="B211" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C211" s="96"/>
-      <c r="D211" s="96"/>
-      <c r="E211" s="96"/>
-      <c r="F211" s="96"/>
-      <c r="G211" s="97"/>
+      <c r="C211" s="94"/>
+      <c r="D211" s="94"/>
+      <c r="E211" s="94"/>
+      <c r="F211" s="94"/>
+      <c r="G211" s="95"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="54" t="s">
@@ -9856,23 +9887,23 @@
       <c r="A219" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B219" s="89"/>
-      <c r="C219" s="90"/>
-      <c r="D219" s="90"/>
-      <c r="E219" s="90"/>
-      <c r="F219" s="90"/>
-      <c r="G219" s="91"/>
+      <c r="B219" s="87"/>
+      <c r="C219" s="88"/>
+      <c r="D219" s="88"/>
+      <c r="E219" s="88"/>
+      <c r="F219" s="88"/>
+      <c r="G219" s="89"/>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="92" t="s">
+      <c r="B220" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="C220" s="93"/>
-      <c r="D220" s="93"/>
-      <c r="E220" s="94"/>
+      <c r="C220" s="91"/>
+      <c r="D220" s="91"/>
+      <c r="E220" s="92"/>
       <c r="F220" s="51" t="s">
         <v>46</v>
       </c>
@@ -9885,14 +9916,14 @@
       <c r="A221" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="95" t="s">
+      <c r="B221" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C221" s="96"/>
-      <c r="D221" s="96"/>
-      <c r="E221" s="96"/>
-      <c r="F221" s="96"/>
-      <c r="G221" s="97"/>
+      <c r="C221" s="94"/>
+      <c r="D221" s="94"/>
+      <c r="E221" s="94"/>
+      <c r="F221" s="94"/>
+      <c r="G221" s="95"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="54" t="s">
@@ -10080,23 +10111,23 @@
       <c r="A232" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B232" s="89"/>
-      <c r="C232" s="90"/>
-      <c r="D232" s="90"/>
-      <c r="E232" s="90"/>
-      <c r="F232" s="90"/>
-      <c r="G232" s="91"/>
+      <c r="B232" s="87"/>
+      <c r="C232" s="88"/>
+      <c r="D232" s="88"/>
+      <c r="E232" s="88"/>
+      <c r="F232" s="88"/>
+      <c r="G232" s="89"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="B233" s="92" t="s">
+      <c r="B233" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C233" s="93"/>
-      <c r="D233" s="93"/>
-      <c r="E233" s="94"/>
+      <c r="C233" s="91"/>
+      <c r="D233" s="91"/>
+      <c r="E233" s="92"/>
       <c r="F233" s="51" t="s">
         <v>46</v>
       </c>
@@ -10109,14 +10140,14 @@
       <c r="A234" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B234" s="95" t="s">
+      <c r="B234" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C234" s="96"/>
-      <c r="D234" s="96"/>
-      <c r="E234" s="96"/>
-      <c r="F234" s="96"/>
-      <c r="G234" s="97"/>
+      <c r="C234" s="94"/>
+      <c r="D234" s="94"/>
+      <c r="E234" s="94"/>
+      <c r="F234" s="94"/>
+      <c r="G234" s="95"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="54" t="s">
@@ -10247,23 +10278,23 @@
       <c r="A242" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="89"/>
-      <c r="C242" s="90"/>
-      <c r="D242" s="90"/>
-      <c r="E242" s="90"/>
-      <c r="F242" s="90"/>
-      <c r="G242" s="91"/>
+      <c r="B242" s="87"/>
+      <c r="C242" s="88"/>
+      <c r="D242" s="88"/>
+      <c r="E242" s="88"/>
+      <c r="F242" s="88"/>
+      <c r="G242" s="89"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="B243" s="92" t="s">
+      <c r="B243" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C243" s="93"/>
-      <c r="D243" s="93"/>
-      <c r="E243" s="94"/>
+      <c r="C243" s="91"/>
+      <c r="D243" s="91"/>
+      <c r="E243" s="92"/>
       <c r="F243" s="51" t="s">
         <v>46</v>
       </c>
@@ -10276,14 +10307,14 @@
       <c r="A244" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B244" s="95" t="s">
+      <c r="B244" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C244" s="96"/>
-      <c r="D244" s="96"/>
-      <c r="E244" s="96"/>
-      <c r="F244" s="96"/>
-      <c r="G244" s="97"/>
+      <c r="C244" s="94"/>
+      <c r="D244" s="94"/>
+      <c r="E244" s="94"/>
+      <c r="F244" s="94"/>
+      <c r="G244" s="95"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="54" t="s">
@@ -10397,23 +10428,23 @@
       <c r="A251" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B251" s="89"/>
-      <c r="C251" s="90"/>
-      <c r="D251" s="90"/>
-      <c r="E251" s="90"/>
-      <c r="F251" s="90"/>
-      <c r="G251" s="91"/>
+      <c r="B251" s="87"/>
+      <c r="C251" s="88"/>
+      <c r="D251" s="88"/>
+      <c r="E251" s="88"/>
+      <c r="F251" s="88"/>
+      <c r="G251" s="89"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="B252" s="92" t="s">
+      <c r="B252" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="C252" s="93"/>
-      <c r="D252" s="93"/>
-      <c r="E252" s="94"/>
+      <c r="C252" s="91"/>
+      <c r="D252" s="91"/>
+      <c r="E252" s="92"/>
       <c r="F252" s="51" t="s">
         <v>46</v>
       </c>
@@ -10426,14 +10457,14 @@
       <c r="A253" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B253" s="95" t="s">
+      <c r="B253" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C253" s="96"/>
-      <c r="D253" s="96"/>
-      <c r="E253" s="96"/>
-      <c r="F253" s="96"/>
-      <c r="G253" s="97"/>
+      <c r="C253" s="94"/>
+      <c r="D253" s="94"/>
+      <c r="E253" s="94"/>
+      <c r="F253" s="94"/>
+      <c r="G253" s="95"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="54" t="s">
@@ -10530,23 +10561,23 @@
       <c r="A259" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B259" s="89"/>
-      <c r="C259" s="90"/>
-      <c r="D259" s="90"/>
-      <c r="E259" s="90"/>
-      <c r="F259" s="90"/>
-      <c r="G259" s="91"/>
+      <c r="B259" s="87"/>
+      <c r="C259" s="88"/>
+      <c r="D259" s="88"/>
+      <c r="E259" s="88"/>
+      <c r="F259" s="88"/>
+      <c r="G259" s="89"/>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="92" t="s">
+      <c r="B260" s="90" t="s">
         <v>258</v>
       </c>
-      <c r="C260" s="93"/>
-      <c r="D260" s="93"/>
-      <c r="E260" s="94"/>
+      <c r="C260" s="91"/>
+      <c r="D260" s="91"/>
+      <c r="E260" s="92"/>
       <c r="F260" s="51" t="s">
         <v>46</v>
       </c>
@@ -10559,14 +10590,14 @@
       <c r="A261" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B261" s="95" t="s">
+      <c r="B261" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C261" s="96"/>
-      <c r="D261" s="96"/>
-      <c r="E261" s="96"/>
-      <c r="F261" s="96"/>
-      <c r="G261" s="97"/>
+      <c r="C261" s="94"/>
+      <c r="D261" s="94"/>
+      <c r="E261" s="94"/>
+      <c r="F261" s="94"/>
+      <c r="G261" s="95"/>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="54" t="s">
@@ -10678,29 +10709,29 @@
       <c r="F267" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G267" s="79"/>
+      <c r="G267" s="76"/>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B268" s="89"/>
-      <c r="C268" s="90"/>
-      <c r="D268" s="90"/>
-      <c r="E268" s="90"/>
-      <c r="F268" s="90"/>
-      <c r="G268" s="91"/>
+      <c r="B268" s="87"/>
+      <c r="C268" s="88"/>
+      <c r="D268" s="88"/>
+      <c r="E268" s="88"/>
+      <c r="F268" s="88"/>
+      <c r="G268" s="89"/>
     </row>
     <row r="269" spans="1:7" customFormat="1">
       <c r="A269" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B269" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="B269" s="92" t="s">
-        <v>269</v>
-      </c>
-      <c r="C269" s="93"/>
-      <c r="D269" s="93"/>
-      <c r="E269" s="94"/>
+      <c r="C269" s="91"/>
+      <c r="D269" s="91"/>
+      <c r="E269" s="92"/>
       <c r="F269" s="51" t="s">
         <v>46</v>
       </c>
@@ -10713,14 +10744,14 @@
       <c r="A270" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B270" s="95" t="s">
+      <c r="B270" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C270" s="96"/>
-      <c r="D270" s="96"/>
-      <c r="E270" s="96"/>
-      <c r="F270" s="96"/>
-      <c r="G270" s="97"/>
+      <c r="C270" s="94"/>
+      <c r="D270" s="94"/>
+      <c r="E270" s="94"/>
+      <c r="F270" s="94"/>
+      <c r="G270" s="95"/>
     </row>
     <row r="271" spans="1:7" customFormat="1">
       <c r="A271" s="54" t="s">
@@ -10753,10 +10784,10 @@
         <v>56</v>
       </c>
       <c r="C272" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D272" s="57" t="s">
         <v>270</v>
-      </c>
-      <c r="D272" s="57" t="s">
-        <v>271</v>
       </c>
       <c r="E272" s="57"/>
       <c r="F272" s="58" t="s">
@@ -10769,10 +10800,10 @@
         <v>2</v>
       </c>
       <c r="B273" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C273" s="57" t="s">
         <v>272</v>
-      </c>
-      <c r="C273" s="57" t="s">
-        <v>273</v>
       </c>
       <c r="D273" s="57"/>
       <c r="E273" s="57"/>
@@ -10786,10 +10817,10 @@
         <v>3</v>
       </c>
       <c r="B274" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="C274" s="57" t="s">
         <v>274</v>
-      </c>
-      <c r="C274" s="57" t="s">
-        <v>275</v>
       </c>
       <c r="D274" s="57"/>
       <c r="E274" s="57"/>
@@ -10803,10 +10834,10 @@
         <v>4</v>
       </c>
       <c r="B275" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C275" s="57" t="s">
         <v>276</v>
-      </c>
-      <c r="C275" s="57" t="s">
-        <v>277</v>
       </c>
       <c r="D275" s="57"/>
       <c r="E275" s="57"/>
@@ -10819,23 +10850,23 @@
       <c r="A276" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B276" s="89"/>
-      <c r="C276" s="90"/>
-      <c r="D276" s="90"/>
-      <c r="E276" s="90"/>
-      <c r="F276" s="90"/>
-      <c r="G276" s="91"/>
+      <c r="B276" s="87"/>
+      <c r="C276" s="88"/>
+      <c r="D276" s="88"/>
+      <c r="E276" s="88"/>
+      <c r="F276" s="88"/>
+      <c r="G276" s="89"/>
     </row>
     <row r="277" spans="1:7" customFormat="1">
       <c r="A277" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="B277" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="C277" s="93"/>
-      <c r="D277" s="93"/>
-      <c r="E277" s="94"/>
+        <v>293</v>
+      </c>
+      <c r="B277" s="90" t="s">
+        <v>277</v>
+      </c>
+      <c r="C277" s="91"/>
+      <c r="D277" s="91"/>
+      <c r="E277" s="92"/>
       <c r="F277" s="51" t="s">
         <v>46</v>
       </c>
@@ -10848,14 +10879,14 @@
       <c r="A278" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B278" s="95" t="s">
+      <c r="B278" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C278" s="96"/>
-      <c r="D278" s="96"/>
-      <c r="E278" s="96"/>
-      <c r="F278" s="96"/>
-      <c r="G278" s="97"/>
+      <c r="C278" s="94"/>
+      <c r="D278" s="94"/>
+      <c r="E278" s="94"/>
+      <c r="F278" s="94"/>
+      <c r="G278" s="95"/>
     </row>
     <row r="279" spans="1:7" customFormat="1" ht="45.75" customHeight="1">
       <c r="A279" s="54" t="s">
@@ -10888,10 +10919,10 @@
         <v>56</v>
       </c>
       <c r="C280" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D280" s="57" t="s">
         <v>270</v>
-      </c>
-      <c r="D280" s="57" t="s">
-        <v>271</v>
       </c>
       <c r="E280" s="57"/>
       <c r="F280" s="58" t="s">
@@ -10904,10 +10935,10 @@
         <v>2</v>
       </c>
       <c r="B281" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C281" s="57" t="s">
         <v>272</v>
-      </c>
-      <c r="C281" s="57" t="s">
-        <v>273</v>
       </c>
       <c r="D281" s="57"/>
       <c r="E281" s="57"/>
@@ -10921,10 +10952,10 @@
         <v>3</v>
       </c>
       <c r="B282" s="56" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C282" s="57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D282" s="57"/>
       <c r="E282" s="57"/>
@@ -10938,10 +10969,10 @@
         <v>4</v>
       </c>
       <c r="B283" s="56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C283" s="57" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D283" s="57"/>
       <c r="E283" s="57"/>
@@ -10955,10 +10986,10 @@
         <v>5</v>
       </c>
       <c r="B284" s="56" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C284" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D284" s="57"/>
       <c r="E284" s="57"/>
@@ -10971,23 +11002,23 @@
       <c r="A285" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B285" s="89"/>
-      <c r="C285" s="90"/>
-      <c r="D285" s="90"/>
-      <c r="E285" s="90"/>
-      <c r="F285" s="90"/>
-      <c r="G285" s="91"/>
+      <c r="B285" s="87"/>
+      <c r="C285" s="88"/>
+      <c r="D285" s="88"/>
+      <c r="E285" s="88"/>
+      <c r="F285" s="88"/>
+      <c r="G285" s="89"/>
     </row>
     <row r="286" spans="1:7" customFormat="1">
       <c r="A286" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="B286" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="C286" s="93"/>
-      <c r="D286" s="93"/>
-      <c r="E286" s="94"/>
+        <v>294</v>
+      </c>
+      <c r="B286" s="90" t="s">
+        <v>283</v>
+      </c>
+      <c r="C286" s="91"/>
+      <c r="D286" s="91"/>
+      <c r="E286" s="92"/>
       <c r="F286" s="51" t="s">
         <v>46</v>
       </c>
@@ -11000,14 +11031,14 @@
       <c r="A287" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B287" s="95" t="s">
+      <c r="B287" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C287" s="96"/>
-      <c r="D287" s="96"/>
-      <c r="E287" s="96"/>
-      <c r="F287" s="96"/>
-      <c r="G287" s="97"/>
+      <c r="C287" s="94"/>
+      <c r="D287" s="94"/>
+      <c r="E287" s="94"/>
+      <c r="F287" s="94"/>
+      <c r="G287" s="95"/>
     </row>
     <row r="288" spans="1:7" customFormat="1">
       <c r="A288" s="54" t="s">
@@ -11040,10 +11071,10 @@
         <v>56</v>
       </c>
       <c r="C289" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D289" s="57" t="s">
         <v>270</v>
-      </c>
-      <c r="D289" s="57" t="s">
-        <v>271</v>
       </c>
       <c r="E289" s="57"/>
       <c r="F289" s="58" t="s">
@@ -11056,10 +11087,10 @@
         <v>2</v>
       </c>
       <c r="B290" s="56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C290" s="57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D290" s="57"/>
       <c r="E290" s="57"/>
@@ -11073,10 +11104,10 @@
         <v>3</v>
       </c>
       <c r="B291" s="56" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C291" s="57" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D291" s="57"/>
       <c r="E291" s="57"/>
@@ -11085,15 +11116,15 @@
       </c>
       <c r="G291" s="59"/>
     </row>
-    <row r="292" spans="1:7" s="104" customFormat="1" ht="91.5" customHeight="1">
+    <row r="292" spans="1:7" s="77" customFormat="1" ht="91.5" customHeight="1">
       <c r="A292" s="55">
         <v>4</v>
       </c>
       <c r="B292" s="56" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C292" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D292" s="57"/>
       <c r="E292" s="57"/>
@@ -11106,12 +11137,12 @@
       <c r="A293" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B293" s="89"/>
-      <c r="C293" s="90"/>
-      <c r="D293" s="90"/>
-      <c r="E293" s="90"/>
-      <c r="F293" s="90"/>
-      <c r="G293" s="91"/>
+      <c r="B293" s="87"/>
+      <c r="C293" s="88"/>
+      <c r="D293" s="88"/>
+      <c r="E293" s="88"/>
+      <c r="F293" s="88"/>
+      <c r="G293" s="89"/>
     </row>
     <row r="294" spans="1:7">
       <c r="A294"/>
@@ -17115,15 +17146,63 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B285:G285"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:G287"/>
-    <mergeCell ref="B293:G293"/>
-    <mergeCell ref="B269:E269"/>
-    <mergeCell ref="B270:G270"/>
-    <mergeCell ref="B276:G276"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B278:G278"/>
+    <mergeCell ref="B259:G259"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:G244"/>
+    <mergeCell ref="B251:G251"/>
+    <mergeCell ref="B252:E252"/>
+    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B221:G221"/>
+    <mergeCell ref="B232:G232"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B234:G234"/>
+    <mergeCell ref="B242:G242"/>
+    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:G211"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:G72"/>
     <mergeCell ref="B260:E260"/>
     <mergeCell ref="B261:G261"/>
     <mergeCell ref="B268:G268"/>
@@ -17140,63 +17219,15 @@
     <mergeCell ref="B118:G118"/>
     <mergeCell ref="B119:E119"/>
     <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B191:E191"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:G211"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:G221"/>
-    <mergeCell ref="B232:G232"/>
-    <mergeCell ref="B233:E233"/>
-    <mergeCell ref="B234:G234"/>
-    <mergeCell ref="B242:G242"/>
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:G244"/>
-    <mergeCell ref="B251:G251"/>
-    <mergeCell ref="B252:E252"/>
-    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B285:G285"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:G287"/>
+    <mergeCell ref="B293:G293"/>
+    <mergeCell ref="B269:E269"/>
+    <mergeCell ref="B270:G270"/>
+    <mergeCell ref="B276:G276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B278:G278"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F443:F445 F450:F456 F669:F671 F659:F664 F461:F470 F475:F478 F483:F488 F493:F501 F506:F515 F520:F530 F535:F545 F561:F567 F589:F591 F550:F556 F572:F578 F583:F584 F596:F602 F607:F613 F629:F631 F618:F624 F636:F639 F644:F646 F651:F654 F21:F22 F50:F53 F34:F37 F27:F29 F82:F90 F42:F45 F66:F69 F74:F77 F58:F61 F95:F104 F109:F117 F122:F131 F136:F145 F150:F160 F165:F174 F179:F189 F194:F208 F213:F218 F223:F231 F236:F241 F246:F250 F255:F258 F263:F267 F272:F275 F280:F284 F289:F292">

--- a/TCS_NEWUI_Carousel.xlsx
+++ b/TCS_NEWUI_Carousel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB349AD-8008-4981-8FE8-8EA0C3E8B922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -40,7 +46,7 @@
     <definedName name="test" localSheetId="1">#REF!</definedName>
     <definedName name="test">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="297">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -1002,11 +1008,14 @@
   <si>
     <t>SMRT-7987</t>
   </si>
+  <si>
+    <t>Ticket No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -2698,6 +2707,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="21" borderId="1" xfId="134" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2770,173 +2788,164 @@
     <xf numFmtId="0" fontId="50" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="152" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1" xfId="11"/>
-    <cellStyle name="20% - Accent1 2" xfId="2"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="7"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="13"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3 2" xfId="17"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3 3" xfId="20"/>
-    <cellStyle name="20% - Accent1 2 3" xfId="22"/>
-    <cellStyle name="20% - Accent1 2 3 2" xfId="25"/>
-    <cellStyle name="20% - Accent1 2 3 2 2" xfId="28"/>
-    <cellStyle name="20% - Accent1 2 3 2 3" xfId="5"/>
-    <cellStyle name="20% - Accent1 2 3 2 4" xfId="29"/>
-    <cellStyle name="20% - Accent2" xfId="30"/>
-    <cellStyle name="20% - Accent2 2" xfId="32"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="33"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="34"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3 2" xfId="36"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3 3" xfId="37"/>
-    <cellStyle name="20% - Accent2 2 3" xfId="35"/>
-    <cellStyle name="20% - Accent2 2 3 2" xfId="9"/>
-    <cellStyle name="20% - Accent3" xfId="39"/>
-    <cellStyle name="20% - Accent4" xfId="40"/>
-    <cellStyle name="20% - Accent5" xfId="42"/>
-    <cellStyle name="20% - Accent6" xfId="16"/>
-    <cellStyle name="40% - Accent1" xfId="3"/>
-    <cellStyle name="40% - Accent1 2" xfId="43"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="45"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2" xfId="48"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2 2" xfId="51"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2 3" xfId="52"/>
-    <cellStyle name="40% - Accent1 2 3" xfId="54"/>
-    <cellStyle name="40% - Accent1 2 3 2" xfId="55"/>
-    <cellStyle name="40% - Accent2" xfId="12"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="38"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2" xfId="60"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2 2" xfId="62"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2 3" xfId="31"/>
-    <cellStyle name="40% - Accent2 2 3" xfId="58"/>
-    <cellStyle name="40% - Accent2 2 3 2" xfId="61"/>
-    <cellStyle name="40% - Accent2 2 3 2 2" xfId="138"/>
-    <cellStyle name="40% - Accent2 2 3 2 2 2" xfId="150"/>
-    <cellStyle name="40% - Accent3" xfId="6"/>
-    <cellStyle name="40% - Accent4" xfId="21"/>
-    <cellStyle name="40% - Accent5" xfId="44"/>
-    <cellStyle name="40% - Accent6" xfId="53"/>
-    <cellStyle name="60% - Accent1" xfId="41"/>
-    <cellStyle name="60% - Accent2" xfId="14"/>
-    <cellStyle name="60% - Accent3" xfId="18"/>
-    <cellStyle name="60% - Accent4" xfId="47"/>
-    <cellStyle name="60% - Accent5" xfId="63"/>
-    <cellStyle name="60% - Accent6" xfId="50"/>
-    <cellStyle name="Accent1" xfId="64"/>
-    <cellStyle name="Accent1 2" xfId="65"/>
-    <cellStyle name="Accent1 2 2" xfId="57"/>
-    <cellStyle name="Accent1 2 2 2 2 3" xfId="24"/>
-    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="27"/>
-    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="4"/>
-    <cellStyle name="Accent1 2 3" xfId="66"/>
-    <cellStyle name="Accent1 2 3 2" xfId="69"/>
-    <cellStyle name="Accent1 2 3 2 2" xfId="135"/>
-    <cellStyle name="Accent2" xfId="70"/>
-    <cellStyle name="Accent2 2" xfId="46"/>
-    <cellStyle name="Accent2 2 2" xfId="49"/>
-    <cellStyle name="Accent2 2 2 2 2 3" xfId="71"/>
-    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="72"/>
-    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="73"/>
-    <cellStyle name="Accent2 2 3" xfId="74"/>
-    <cellStyle name="Accent2 2 3 2" xfId="75"/>
-    <cellStyle name="Accent2 2 3 2 2" xfId="136"/>
-    <cellStyle name="Accent3" xfId="76"/>
-    <cellStyle name="Accent4" xfId="23"/>
-    <cellStyle name="Accent5" xfId="77"/>
-    <cellStyle name="Accent6" xfId="26"/>
-    <cellStyle name="Bad" xfId="78"/>
-    <cellStyle name="Calculation" xfId="8"/>
-    <cellStyle name="Check Cell" xfId="79"/>
-    <cellStyle name="Comma [0] 2" xfId="154"/>
-    <cellStyle name="Comma [0] 3" xfId="155"/>
-    <cellStyle name="Explanatory Text" xfId="80"/>
-    <cellStyle name="Good" xfId="81"/>
-    <cellStyle name="Heading 1" xfId="82"/>
-    <cellStyle name="Heading 2" xfId="84"/>
-    <cellStyle name="Heading 2 2" xfId="85"/>
-    <cellStyle name="Heading 2 2 2" xfId="86"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89"/>
-    <cellStyle name="Heading 2 2 3" xfId="10"/>
-    <cellStyle name="Heading 2 2 3 2" xfId="1"/>
-    <cellStyle name="Heading 3" xfId="90"/>
-    <cellStyle name="Heading 4" xfId="91"/>
+    <cellStyle name="20% - Accent1" xfId="11" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent1 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent2 2 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent2 2 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent5" xfId="42" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent6" xfId="16" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40% - Accent1" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40% - Accent1 2 3" xfId="54" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40% - Accent1 2 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - Accent2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="40% - Accent2 2 3" xfId="58" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2 2 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - Accent3" xfId="6" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="40% - Accent4" xfId="21" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - Accent5" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - Accent6" xfId="53" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="60% - Accent1" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="60% - Accent2" xfId="14" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="60% - Accent3" xfId="18" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60% - Accent4" xfId="47" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60% - Accent5" xfId="63" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - Accent6" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Accent1" xfId="64" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Accent1 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Accent1 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Accent1 2 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Accent1 2 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Accent1 2 3 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Accent2" xfId="70" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Accent2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Accent2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Accent2 2 3" xfId="74" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Accent2 2 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Accent2 2 3 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Accent3" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Accent4" xfId="23" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Accent5" xfId="77" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Accent6" xfId="26" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Bad" xfId="78" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Calculation" xfId="8" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Check Cell" xfId="79" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Comma [0] 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Explanatory Text" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Good" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Heading 1" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Heading 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Heading 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Heading 2 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Heading 2 2 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Heading 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Heading 4" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="93"/>
-    <cellStyle name="Hyperlink 2 2" xfId="94"/>
-    <cellStyle name="Hyperlink 3" xfId="95"/>
-    <cellStyle name="Hyperlink 4" xfId="96"/>
-    <cellStyle name="Hyperlink 5" xfId="137"/>
-    <cellStyle name="Input" xfId="97"/>
-    <cellStyle name="Linked Cell" xfId="98"/>
-    <cellStyle name="Neutral" xfId="59"/>
+    <cellStyle name="Hyperlink 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="137" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Input" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Linked Cell" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Neutral" xfId="59" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="99"/>
-    <cellStyle name="Normal 2 2" xfId="100"/>
-    <cellStyle name="Normal 2 2 2" xfId="101"/>
-    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104"/>
-    <cellStyle name="Normal 2 3" xfId="105"/>
-    <cellStyle name="Normal 2 4" xfId="106"/>
-    <cellStyle name="Normal 2 4 2" xfId="134"/>
-    <cellStyle name="Normal 2 4 2 2" xfId="149"/>
-    <cellStyle name="Normal 3" xfId="107"/>
-    <cellStyle name="Normal 3 2" xfId="108"/>
-    <cellStyle name="Normal 3 2 2" xfId="109"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="110"/>
-    <cellStyle name="Normal 3 2 4" xfId="140"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="143"/>
-    <cellStyle name="Normal 3 2 4 3" xfId="146"/>
-    <cellStyle name="Normal 3 2 4 3 2" xfId="152"/>
-    <cellStyle name="Normal 3 3" xfId="56"/>
-    <cellStyle name="Normal 3 3 2" xfId="111"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="112"/>
-    <cellStyle name="Normal 3 4" xfId="139"/>
-    <cellStyle name="Normal 3 4 2" xfId="151"/>
-    <cellStyle name="Normal 4" xfId="113"/>
-    <cellStyle name="Normal 5" xfId="114"/>
-    <cellStyle name="Note" xfId="68"/>
-    <cellStyle name="Output" xfId="19"/>
-    <cellStyle name="TableStyleLight1" xfId="115"/>
-    <cellStyle name="TableStyleLight1 2" xfId="116"/>
-    <cellStyle name="TableStyleLight1 2 2" xfId="117"/>
-    <cellStyle name="TableStyleLight1 2 2 2" xfId="118"/>
-    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119"/>
-    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120"/>
-    <cellStyle name="TableStyleLight1 2 3" xfId="121"/>
-    <cellStyle name="TableStyleLight1 2 4" xfId="142"/>
-    <cellStyle name="TableStyleLight1 2 4 2" xfId="145"/>
-    <cellStyle name="TableStyleLight1 2 4 3" xfId="148"/>
-    <cellStyle name="TableStyleLight1 3" xfId="122"/>
-    <cellStyle name="TableStyleLight1 3 2" xfId="123"/>
-    <cellStyle name="TableStyleLight1 3 2 2" xfId="124"/>
-    <cellStyle name="TableStyleLight1 3 2 3" xfId="125"/>
-    <cellStyle name="TableStyleLight1 3 3" xfId="126"/>
-    <cellStyle name="TableStyleLight1 3 4" xfId="141"/>
-    <cellStyle name="TableStyleLight1 3 4 2" xfId="144"/>
-    <cellStyle name="TableStyleLight1 3 4 3" xfId="147"/>
-    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="153"/>
-    <cellStyle name="TableStyleLight1 4" xfId="67"/>
-    <cellStyle name="TableStyleLight1 4 2" xfId="127"/>
-    <cellStyle name="TableStyleLight1 4 3" xfId="128"/>
-    <cellStyle name="TableStyleLight1 5" xfId="129"/>
-    <cellStyle name="TableStyleLight1 5 2" xfId="130"/>
-    <cellStyle name="Title" xfId="131"/>
-    <cellStyle name="Total" xfId="132"/>
-    <cellStyle name="Warning Text" xfId="133"/>
+    <cellStyle name="Normal 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 2 4" xfId="106" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="134" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 2 4 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 3 2 4 3" xfId="146" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 3 2 4 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 3 4" xfId="139" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="151" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 4" xfId="113" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Note" xfId="68" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Output" xfId="19" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="115" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="TableStyleLight1 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="TableStyleLight1 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="TableStyleLight1 2 3" xfId="121" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="TableStyleLight1 2 4" xfId="142" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 3" xfId="148" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="TableStyleLight1 3" xfId="122" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="TableStyleLight1 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="TableStyleLight1 3 3" xfId="126" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="TableStyleLight1 3 4" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="TableStyleLight1 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="TableStyleLight1 4 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="TableStyleLight1 4 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="TableStyleLight1 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="TableStyleLight1 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Title" xfId="131" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Total" xfId="132" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Warning Text" xfId="133" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3023,10 +3032,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="48"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="148"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="48"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3049,7 +3066,9 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3065,6 +3084,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3079,8 +3099,11 @@
               <a:bevelT w="63500" h="25400"/>
             </a:sp3d>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -3097,7 +3120,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3105,6 +3128,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="E22B00"/>
@@ -3119,7 +3144,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3127,6 +3152,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
@@ -3141,7 +3168,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3149,6 +3176,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
@@ -3163,7 +3192,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -3187,8 +3216,14 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -3235,12 +3270,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="72632960"/>
         <c:axId val="72642944"/>
       </c:barChart>
@@ -3249,8 +3293,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3269,6 +3316,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="72642944"/>
@@ -3278,6 +3326,8 @@
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="72632960"/>
         <c:crosses val="autoZero"/>
@@ -3286,6 +3336,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:effectLst/>
@@ -3306,10 +3357,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="45"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="145"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="45"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3332,12 +3391,24 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="32"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="90"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3357,6 +3428,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -3365,7 +3437,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-700B-4388-A157-532FE5806D3B}"/>
               </c:ext>
@@ -3373,6 +3445,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:explosion val="19"/>
             <c:spPr>
               <a:solidFill>
@@ -3382,7 +3455,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-700B-4388-A157-532FE5806D3B}"/>
               </c:ext>
@@ -3406,6 +3479,17 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-700B-4388-A157-532FE5806D3B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3424,6 +3508,17 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-700B-4388-A157-532FE5806D3B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3432,9 +3527,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3467,14 +3567,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-700B-4388-A157-532FE5806D3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -3495,9 +3601,11 @@
           <c:h val="7.1280252974084315E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln w="0"/>
@@ -3519,9 +3627,20 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3546,6 +3665,7 @@
           </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
@@ -3554,7 +3674,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3562,6 +3682,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -3570,7 +3691,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3578,6 +3699,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
@@ -3586,7 +3708,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3594,6 +3716,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
@@ -3602,7 +3725,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3649,12 +3772,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-25D4-4E58-AB57-52CC97BAF3DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3741,6 +3873,7 @@
           <c:h val="0.95693837006674254"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -3767,6 +3900,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3824,7 +3958,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3862,7 +3996,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3900,7 +4034,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3912,7 +4046,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3932,7 +4066,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4004,7 +4138,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4138,7 +4272,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4188,7 +4322,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4539,7 +4673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4557,33 +4691,33 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A7" s="81"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -4599,7 +4733,7 @@
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="85"/>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickTop="1">
       <c r="A8" s="1" t="s">
@@ -4688,7 +4822,7 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" location="'SMART- Carousel'!A1" display="SMART-Carousel"/>
+    <hyperlink ref="A8" location="'SMART- Carousel'!A1" display="SMART-Carousel" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4697,11 +4831,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4975,9 +5109,12 @@
       <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="89" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="70" t="s">
@@ -4990,7 +5127,7 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="86"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="69" t="s">
         <v>11</v>
       </c>
@@ -5001,7 +5138,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" s="20" customFormat="1">
-      <c r="A4" s="86"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="70" t="s">
         <v>12</v>
       </c>
@@ -5012,7 +5149,7 @@
       <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" s="22" customFormat="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="67" t="s">
         <v>13</v>
       </c>
@@ -5023,7 +5160,7 @@
       <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="86"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="67" t="s">
         <v>14</v>
       </c>
@@ -5033,7 +5170,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="86"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="67" t="s">
         <v>15</v>
       </c>
@@ -5043,7 +5180,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="86"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="67" t="s">
         <v>17</v>
       </c>
@@ -5053,11 +5190,11 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="86"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="78" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -5066,7 +5203,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="86"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="67" t="s">
         <v>19</v>
       </c>
@@ -5078,8 +5215,8 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="86"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="89"/>
       <c r="B11" s="67" t="s">
         <v>20</v>
       </c>
@@ -5089,17 +5226,17 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="86"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="79" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="86"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="19" t="s">
         <v>22</v>
       </c>
@@ -5109,17 +5246,17 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="86"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="79" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="86"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="19" t="s">
         <v>94</v>
       </c>
@@ -5129,17 +5266,17 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="86"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="79" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="86"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="19" t="s">
         <v>96</v>
       </c>
@@ -5149,11 +5286,11 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="86"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="80" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="68" t="s">
@@ -5162,22 +5299,22 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="86"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="80" t="s">
         <v>83</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="86"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="80" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="68" t="s">
@@ -5187,11 +5324,11 @@
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="86"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="68" t="s">
@@ -5201,11 +5338,11 @@
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="86"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="80" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="68" t="s">
@@ -5215,7 +5352,7 @@
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="86"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="19" t="s">
         <v>253</v>
       </c>
@@ -5227,7 +5364,7 @@
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="86"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="19" t="s">
         <v>257</v>
       </c>
@@ -5241,7 +5378,7 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="86"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="19" t="s">
         <v>289</v>
       </c>
@@ -5255,7 +5392,7 @@
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="86"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="19" t="s">
         <v>290</v>
       </c>
@@ -5267,7 +5404,7 @@
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="86"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="19" t="s">
         <v>291</v>
       </c>
@@ -5278,26 +5415,26 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="86"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="4"/>
       <c r="D28" s="68"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="86"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="4"/>
       <c r="D29" s="68"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="86"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="4"/>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="86"/>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="89"/>
       <c r="B31" s="4"/>
       <c r="C31" s="73" t="s">
         <v>91</v>
@@ -5306,81 +5443,81 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="86"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="4"/>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="86"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="4"/>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="86"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="4"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="86"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="4"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="86"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="4"/>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="86"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="4"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="86"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="4"/>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="86"/>
+      <c r="A39" s="89"/>
       <c r="B39" s="4"/>
       <c r="C39" s="68"/>
       <c r="D39" s="68"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="86"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="4"/>
       <c r="C40" s="68"/>
       <c r="D40" s="68"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="86"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="4"/>
       <c r="D41" s="68"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="86"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="4"/>
       <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="86"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="4"/>
       <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="86"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="4"/>
       <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="86"/>
+      <c r="A45" s="89"/>
       <c r="B45" s="4"/>
       <c r="C45" s="6"/>
     </row>
@@ -5626,7 +5763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H960"/>
   <sheetViews>
     <sheetView topLeftCell="A269" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6296,10 +6433,10 @@
       </c>
       <c r="D2"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="97"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="26"/>
@@ -6356,10 +6493,10 @@
       <c r="C6" s="28"/>
       <c r="D6"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="99"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="26"/>
@@ -6490,37 +6627,37 @@
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" s="49" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
     </row>
     <row r="17" spans="1:7" s="49" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
     </row>
     <row r="18" spans="1:7" s="49" customFormat="1">
       <c r="A18" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="51" t="s">
         <v>46</v>
       </c>
@@ -6533,14 +6670,14 @@
       <c r="A19" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="98"/>
     </row>
     <row r="20" spans="1:7" s="49" customFormat="1">
       <c r="A20" s="54" t="s">
@@ -6605,23 +6742,23 @@
       <c r="A23" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" s="49" customFormat="1">
       <c r="A24" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
       <c r="F24" s="51" t="s">
         <v>46</v>
       </c>
@@ -6634,14 +6771,14 @@
       <c r="A25" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="95"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98"/>
     </row>
     <row r="26" spans="1:7" s="49" customFormat="1">
       <c r="A26" s="54" t="s">
@@ -6721,23 +6858,23 @@
       <c r="A30" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="92"/>
     </row>
     <row r="31" spans="1:7" s="49" customFormat="1">
       <c r="A31" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="51" t="s">
         <v>46</v>
       </c>
@@ -6750,14 +6887,14 @@
       <c r="A32" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="95"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="98"/>
     </row>
     <row r="33" spans="1:7" s="49" customFormat="1">
       <c r="A33" s="54" t="s">
@@ -6854,23 +6991,23 @@
       <c r="A38" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="1:7" s="49" customFormat="1">
       <c r="A39" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="92"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="95"/>
       <c r="F39" s="51" t="s">
         <v>46</v>
       </c>
@@ -6883,14 +7020,14 @@
       <c r="A40" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="98"/>
     </row>
     <row r="41" spans="1:7" s="49" customFormat="1">
       <c r="A41" s="54" t="s">
@@ -6987,23 +7124,23 @@
       <c r="A46" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="89"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="92"/>
     </row>
     <row r="47" spans="1:7" s="49" customFormat="1">
       <c r="A47" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="90" t="s">
+      <c r="B47" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="92"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="95"/>
       <c r="F47" s="51" t="s">
         <v>46</v>
       </c>
@@ -7016,14 +7153,14 @@
       <c r="A48" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="95"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="98"/>
     </row>
     <row r="49" spans="1:7" s="49" customFormat="1">
       <c r="A49" s="54" t="s">
@@ -7120,23 +7257,23 @@
       <c r="A54" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="89"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="92"/>
     </row>
     <row r="55" spans="1:7" s="49" customFormat="1">
       <c r="A55" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="92"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="95"/>
       <c r="F55" s="51" t="s">
         <v>46</v>
       </c>
@@ -7149,14 +7286,14 @@
       <c r="A56" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="93" t="s">
+      <c r="B56" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="95"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="98"/>
     </row>
     <row r="57" spans="1:7" s="49" customFormat="1">
       <c r="A57" s="54" t="s">
@@ -7253,23 +7390,23 @@
       <c r="A62" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="89"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="92"/>
     </row>
     <row r="63" spans="1:7" s="49" customFormat="1">
       <c r="A63" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="90" t="s">
+      <c r="B63" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="92"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="95"/>
       <c r="F63" s="51" t="s">
         <v>46</v>
       </c>
@@ -7282,14 +7419,14 @@
       <c r="A64" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="95"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="98"/>
     </row>
     <row r="65" spans="1:7" s="49" customFormat="1">
       <c r="A65" s="54" t="s">
@@ -7386,23 +7523,23 @@
       <c r="A70" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="87"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="89"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="92"/>
     </row>
     <row r="71" spans="1:7" s="49" customFormat="1">
       <c r="A71" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="90" t="s">
+      <c r="B71" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="92"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="95"/>
       <c r="F71" s="51" t="s">
         <v>46</v>
       </c>
@@ -7415,14 +7552,14 @@
       <c r="A72" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="95"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="98"/>
     </row>
     <row r="73" spans="1:7" s="49" customFormat="1">
       <c r="A73" s="54" t="s">
@@ -7519,23 +7656,23 @@
       <c r="A78" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="89"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="92"/>
     </row>
     <row r="79" spans="1:7" s="49" customFormat="1">
       <c r="A79" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="90" t="s">
+      <c r="B79" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="92"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="95"/>
       <c r="F79" s="51" t="s">
         <v>46</v>
       </c>
@@ -7548,14 +7685,14 @@
       <c r="A80" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="93" t="s">
+      <c r="B80" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="94"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="95"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="98"/>
     </row>
     <row r="81" spans="1:7" s="49" customFormat="1">
       <c r="A81" s="54" t="s">
@@ -7737,23 +7874,23 @@
       <c r="A91" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B91" s="87"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="89"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="92"/>
     </row>
     <row r="92" spans="1:7" customFormat="1">
       <c r="A92" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B92" s="90" t="s">
+      <c r="B92" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="91"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="92"/>
+      <c r="C92" s="94"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="95"/>
       <c r="F92" s="51" t="s">
         <v>46</v>
       </c>
@@ -7766,14 +7903,14 @@
       <c r="A93" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="93" t="s">
+      <c r="B93" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="94"/>
-      <c r="D93" s="94"/>
-      <c r="E93" s="94"/>
-      <c r="F93" s="94"/>
-      <c r="G93" s="95"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="97"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="97"/>
+      <c r="G93" s="98"/>
     </row>
     <row r="94" spans="1:7" customFormat="1">
       <c r="A94" s="54" t="s">
@@ -7972,23 +8109,23 @@
       <c r="A105" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B105" s="87"/>
-      <c r="C105" s="88"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="88"/>
-      <c r="F105" s="88"/>
-      <c r="G105" s="89"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="91"/>
+      <c r="E105" s="91"/>
+      <c r="F105" s="91"/>
+      <c r="G105" s="92"/>
     </row>
     <row r="106" spans="1:7" customFormat="1">
       <c r="A106" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B106" s="90" t="s">
+      <c r="B106" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="C106" s="91"/>
-      <c r="D106" s="91"/>
-      <c r="E106" s="92"/>
+      <c r="C106" s="94"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="95"/>
       <c r="F106" s="51" t="s">
         <v>46</v>
       </c>
@@ -8001,14 +8138,14 @@
       <c r="A107" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B107" s="93" t="s">
+      <c r="B107" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C107" s="94"/>
-      <c r="D107" s="94"/>
-      <c r="E107" s="94"/>
-      <c r="F107" s="94"/>
-      <c r="G107" s="95"/>
+      <c r="C107" s="97"/>
+      <c r="D107" s="97"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="97"/>
+      <c r="G107" s="98"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="54" t="s">
@@ -8190,23 +8327,23 @@
       <c r="A118" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="87"/>
-      <c r="C118" s="88"/>
-      <c r="D118" s="88"/>
-      <c r="E118" s="88"/>
-      <c r="F118" s="88"/>
-      <c r="G118" s="89"/>
+      <c r="B118" s="90"/>
+      <c r="C118" s="91"/>
+      <c r="D118" s="91"/>
+      <c r="E118" s="91"/>
+      <c r="F118" s="91"/>
+      <c r="G118" s="92"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B119" s="90" t="s">
+      <c r="B119" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="C119" s="91"/>
-      <c r="D119" s="91"/>
-      <c r="E119" s="92"/>
+      <c r="C119" s="94"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="95"/>
       <c r="F119" s="51" t="s">
         <v>46</v>
       </c>
@@ -8219,14 +8356,14 @@
       <c r="A120" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B120" s="93" t="s">
+      <c r="B120" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C120" s="94"/>
-      <c r="D120" s="94"/>
-      <c r="E120" s="94"/>
-      <c r="F120" s="94"/>
-      <c r="G120" s="95"/>
+      <c r="C120" s="97"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="97"/>
+      <c r="F120" s="97"/>
+      <c r="G120" s="98"/>
       <c r="H120" s="63"/>
     </row>
     <row r="121" spans="1:8">
@@ -8426,23 +8563,23 @@
       <c r="A132" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B132" s="87"/>
-      <c r="C132" s="88"/>
-      <c r="D132" s="88"/>
-      <c r="E132" s="88"/>
-      <c r="F132" s="88"/>
-      <c r="G132" s="89"/>
+      <c r="B132" s="90"/>
+      <c r="C132" s="91"/>
+      <c r="D132" s="91"/>
+      <c r="E132" s="91"/>
+      <c r="F132" s="91"/>
+      <c r="G132" s="92"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="B133" s="90" t="s">
+      <c r="B133" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C133" s="91"/>
-      <c r="D133" s="91"/>
-      <c r="E133" s="92"/>
+      <c r="C133" s="94"/>
+      <c r="D133" s="94"/>
+      <c r="E133" s="95"/>
       <c r="F133" s="51" t="s">
         <v>46</v>
       </c>
@@ -8455,14 +8592,14 @@
       <c r="A134" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B134" s="93" t="s">
+      <c r="B134" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C134" s="94"/>
-      <c r="D134" s="94"/>
-      <c r="E134" s="94"/>
-      <c r="F134" s="94"/>
-      <c r="G134" s="95"/>
+      <c r="C134" s="97"/>
+      <c r="D134" s="97"/>
+      <c r="E134" s="97"/>
+      <c r="F134" s="97"/>
+      <c r="G134" s="98"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="54" t="s">
@@ -8661,23 +8798,23 @@
       <c r="A146" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B146" s="87"/>
-      <c r="C146" s="88"/>
-      <c r="D146" s="88"/>
-      <c r="E146" s="88"/>
-      <c r="F146" s="88"/>
-      <c r="G146" s="89"/>
+      <c r="B146" s="90"/>
+      <c r="C146" s="91"/>
+      <c r="D146" s="91"/>
+      <c r="E146" s="91"/>
+      <c r="F146" s="91"/>
+      <c r="G146" s="92"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B147" s="90" t="s">
+      <c r="B147" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="C147" s="91"/>
-      <c r="D147" s="91"/>
-      <c r="E147" s="92"/>
+      <c r="C147" s="94"/>
+      <c r="D147" s="94"/>
+      <c r="E147" s="95"/>
       <c r="F147" s="51" t="s">
         <v>46</v>
       </c>
@@ -8690,14 +8827,14 @@
       <c r="A148" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B148" s="93" t="s">
+      <c r="B148" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C148" s="94"/>
-      <c r="D148" s="94"/>
-      <c r="E148" s="94"/>
-      <c r="F148" s="94"/>
-      <c r="G148" s="95"/>
+      <c r="C148" s="97"/>
+      <c r="D148" s="97"/>
+      <c r="E148" s="97"/>
+      <c r="F148" s="97"/>
+      <c r="G148" s="98"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="54" t="s">
@@ -8913,23 +9050,23 @@
       <c r="A161" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B161" s="87"/>
-      <c r="C161" s="88"/>
-      <c r="D161" s="88"/>
-      <c r="E161" s="88"/>
-      <c r="F161" s="88"/>
-      <c r="G161" s="89"/>
+      <c r="B161" s="90"/>
+      <c r="C161" s="91"/>
+      <c r="D161" s="91"/>
+      <c r="E161" s="91"/>
+      <c r="F161" s="91"/>
+      <c r="G161" s="92"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B162" s="90" t="s">
+      <c r="B162" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C162" s="91"/>
-      <c r="D162" s="91"/>
-      <c r="E162" s="92"/>
+      <c r="C162" s="94"/>
+      <c r="D162" s="94"/>
+      <c r="E162" s="95"/>
       <c r="F162" s="51" t="s">
         <v>46</v>
       </c>
@@ -8942,14 +9079,14 @@
       <c r="A163" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B163" s="93" t="s">
+      <c r="B163" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C163" s="94"/>
-      <c r="D163" s="94"/>
-      <c r="E163" s="94"/>
-      <c r="F163" s="94"/>
-      <c r="G163" s="95"/>
+      <c r="C163" s="97"/>
+      <c r="D163" s="97"/>
+      <c r="E163" s="97"/>
+      <c r="F163" s="97"/>
+      <c r="G163" s="98"/>
     </row>
     <row r="164" spans="1:7" ht="30.95" customHeight="1">
       <c r="A164" s="54" t="s">
@@ -9148,23 +9285,23 @@
       <c r="A175" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B175" s="87"/>
-      <c r="C175" s="88"/>
-      <c r="D175" s="88"/>
-      <c r="E175" s="88"/>
-      <c r="F175" s="88"/>
-      <c r="G175" s="89"/>
+      <c r="B175" s="90"/>
+      <c r="C175" s="91"/>
+      <c r="D175" s="91"/>
+      <c r="E175" s="91"/>
+      <c r="F175" s="91"/>
+      <c r="G175" s="92"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="B176" s="90" t="s">
+      <c r="B176" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="C176" s="91"/>
-      <c r="D176" s="91"/>
-      <c r="E176" s="92"/>
+      <c r="C176" s="94"/>
+      <c r="D176" s="94"/>
+      <c r="E176" s="95"/>
       <c r="F176" s="51" t="s">
         <v>46</v>
       </c>
@@ -9177,14 +9314,14 @@
       <c r="A177" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B177" s="93" t="s">
+      <c r="B177" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C177" s="94"/>
-      <c r="D177" s="94"/>
-      <c r="E177" s="94"/>
-      <c r="F177" s="94"/>
-      <c r="G177" s="95"/>
+      <c r="C177" s="97"/>
+      <c r="D177" s="97"/>
+      <c r="E177" s="97"/>
+      <c r="F177" s="97"/>
+      <c r="G177" s="98"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="54" t="s">
@@ -9400,23 +9537,23 @@
       <c r="A190" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B190" s="87"/>
-      <c r="C190" s="88"/>
-      <c r="D190" s="88"/>
-      <c r="E190" s="88"/>
-      <c r="F190" s="88"/>
-      <c r="G190" s="89"/>
+      <c r="B190" s="90"/>
+      <c r="C190" s="91"/>
+      <c r="D190" s="91"/>
+      <c r="E190" s="91"/>
+      <c r="F190" s="91"/>
+      <c r="G190" s="92"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="90" t="s">
+      <c r="B191" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="C191" s="91"/>
-      <c r="D191" s="91"/>
-      <c r="E191" s="92"/>
+      <c r="C191" s="94"/>
+      <c r="D191" s="94"/>
+      <c r="E191" s="95"/>
       <c r="F191" s="51" t="s">
         <v>46</v>
       </c>
@@ -9429,14 +9566,14 @@
       <c r="A192" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B192" s="93" t="s">
+      <c r="B192" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C192" s="94"/>
-      <c r="D192" s="94"/>
-      <c r="E192" s="94"/>
-      <c r="F192" s="94"/>
-      <c r="G192" s="95"/>
+      <c r="C192" s="97"/>
+      <c r="D192" s="97"/>
+      <c r="E192" s="97"/>
+      <c r="F192" s="97"/>
+      <c r="G192" s="98"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="54" t="s">
@@ -9720,23 +9857,23 @@
       <c r="A209" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B209" s="87"/>
-      <c r="C209" s="88"/>
-      <c r="D209" s="88"/>
-      <c r="E209" s="88"/>
-      <c r="F209" s="88"/>
-      <c r="G209" s="89"/>
+      <c r="B209" s="90"/>
+      <c r="C209" s="91"/>
+      <c r="D209" s="91"/>
+      <c r="E209" s="91"/>
+      <c r="F209" s="91"/>
+      <c r="G209" s="92"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B210" s="90" t="s">
+      <c r="B210" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="C210" s="91"/>
-      <c r="D210" s="91"/>
-      <c r="E210" s="92"/>
+      <c r="C210" s="94"/>
+      <c r="D210" s="94"/>
+      <c r="E210" s="95"/>
       <c r="F210" s="51" t="s">
         <v>46</v>
       </c>
@@ -9749,14 +9886,14 @@
       <c r="A211" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B211" s="93" t="s">
+      <c r="B211" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C211" s="94"/>
-      <c r="D211" s="94"/>
-      <c r="E211" s="94"/>
-      <c r="F211" s="94"/>
-      <c r="G211" s="95"/>
+      <c r="C211" s="97"/>
+      <c r="D211" s="97"/>
+      <c r="E211" s="97"/>
+      <c r="F211" s="97"/>
+      <c r="G211" s="98"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="54" t="s">
@@ -9887,23 +10024,23 @@
       <c r="A219" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B219" s="87"/>
-      <c r="C219" s="88"/>
-      <c r="D219" s="88"/>
-      <c r="E219" s="88"/>
-      <c r="F219" s="88"/>
-      <c r="G219" s="89"/>
+      <c r="B219" s="90"/>
+      <c r="C219" s="91"/>
+      <c r="D219" s="91"/>
+      <c r="E219" s="91"/>
+      <c r="F219" s="91"/>
+      <c r="G219" s="92"/>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="90" t="s">
+      <c r="B220" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="C220" s="91"/>
-      <c r="D220" s="91"/>
-      <c r="E220" s="92"/>
+      <c r="C220" s="94"/>
+      <c r="D220" s="94"/>
+      <c r="E220" s="95"/>
       <c r="F220" s="51" t="s">
         <v>46</v>
       </c>
@@ -9916,14 +10053,14 @@
       <c r="A221" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B221" s="93" t="s">
+      <c r="B221" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C221" s="94"/>
-      <c r="D221" s="94"/>
-      <c r="E221" s="94"/>
-      <c r="F221" s="94"/>
-      <c r="G221" s="95"/>
+      <c r="C221" s="97"/>
+      <c r="D221" s="97"/>
+      <c r="E221" s="97"/>
+      <c r="F221" s="97"/>
+      <c r="G221" s="98"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="54" t="s">
@@ -10111,23 +10248,23 @@
       <c r="A232" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B232" s="87"/>
-      <c r="C232" s="88"/>
-      <c r="D232" s="88"/>
-      <c r="E232" s="88"/>
-      <c r="F232" s="88"/>
-      <c r="G232" s="89"/>
+      <c r="B232" s="90"/>
+      <c r="C232" s="91"/>
+      <c r="D232" s="91"/>
+      <c r="E232" s="91"/>
+      <c r="F232" s="91"/>
+      <c r="G232" s="92"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="B233" s="90" t="s">
+      <c r="B233" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="C233" s="91"/>
-      <c r="D233" s="91"/>
-      <c r="E233" s="92"/>
+      <c r="C233" s="94"/>
+      <c r="D233" s="94"/>
+      <c r="E233" s="95"/>
       <c r="F233" s="51" t="s">
         <v>46</v>
       </c>
@@ -10140,14 +10277,14 @@
       <c r="A234" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B234" s="93" t="s">
+      <c r="B234" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C234" s="94"/>
-      <c r="D234" s="94"/>
-      <c r="E234" s="94"/>
-      <c r="F234" s="94"/>
-      <c r="G234" s="95"/>
+      <c r="C234" s="97"/>
+      <c r="D234" s="97"/>
+      <c r="E234" s="97"/>
+      <c r="F234" s="97"/>
+      <c r="G234" s="98"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="54" t="s">
@@ -10278,23 +10415,23 @@
       <c r="A242" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="87"/>
-      <c r="C242" s="88"/>
-      <c r="D242" s="88"/>
-      <c r="E242" s="88"/>
-      <c r="F242" s="88"/>
-      <c r="G242" s="89"/>
+      <c r="B242" s="90"/>
+      <c r="C242" s="91"/>
+      <c r="D242" s="91"/>
+      <c r="E242" s="91"/>
+      <c r="F242" s="91"/>
+      <c r="G242" s="92"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="B243" s="90" t="s">
+      <c r="B243" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C243" s="91"/>
-      <c r="D243" s="91"/>
-      <c r="E243" s="92"/>
+      <c r="C243" s="94"/>
+      <c r="D243" s="94"/>
+      <c r="E243" s="95"/>
       <c r="F243" s="51" t="s">
         <v>46</v>
       </c>
@@ -10307,14 +10444,14 @@
       <c r="A244" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B244" s="93" t="s">
+      <c r="B244" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C244" s="94"/>
-      <c r="D244" s="94"/>
-      <c r="E244" s="94"/>
-      <c r="F244" s="94"/>
-      <c r="G244" s="95"/>
+      <c r="C244" s="97"/>
+      <c r="D244" s="97"/>
+      <c r="E244" s="97"/>
+      <c r="F244" s="97"/>
+      <c r="G244" s="98"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="54" t="s">
@@ -10428,23 +10565,23 @@
       <c r="A251" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B251" s="87"/>
-      <c r="C251" s="88"/>
-      <c r="D251" s="88"/>
-      <c r="E251" s="88"/>
-      <c r="F251" s="88"/>
-      <c r="G251" s="89"/>
+      <c r="B251" s="90"/>
+      <c r="C251" s="91"/>
+      <c r="D251" s="91"/>
+      <c r="E251" s="91"/>
+      <c r="F251" s="91"/>
+      <c r="G251" s="92"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="B252" s="90" t="s">
+      <c r="B252" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="C252" s="91"/>
-      <c r="D252" s="91"/>
-      <c r="E252" s="92"/>
+      <c r="C252" s="94"/>
+      <c r="D252" s="94"/>
+      <c r="E252" s="95"/>
       <c r="F252" s="51" t="s">
         <v>46</v>
       </c>
@@ -10457,14 +10594,14 @@
       <c r="A253" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B253" s="93" t="s">
+      <c r="B253" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C253" s="94"/>
-      <c r="D253" s="94"/>
-      <c r="E253" s="94"/>
-      <c r="F253" s="94"/>
-      <c r="G253" s="95"/>
+      <c r="C253" s="97"/>
+      <c r="D253" s="97"/>
+      <c r="E253" s="97"/>
+      <c r="F253" s="97"/>
+      <c r="G253" s="98"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="54" t="s">
@@ -10561,23 +10698,23 @@
       <c r="A259" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B259" s="87"/>
-      <c r="C259" s="88"/>
-      <c r="D259" s="88"/>
-      <c r="E259" s="88"/>
-      <c r="F259" s="88"/>
-      <c r="G259" s="89"/>
+      <c r="B259" s="90"/>
+      <c r="C259" s="91"/>
+      <c r="D259" s="91"/>
+      <c r="E259" s="91"/>
+      <c r="F259" s="91"/>
+      <c r="G259" s="92"/>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="90" t="s">
+      <c r="B260" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="C260" s="91"/>
-      <c r="D260" s="91"/>
-      <c r="E260" s="92"/>
+      <c r="C260" s="94"/>
+      <c r="D260" s="94"/>
+      <c r="E260" s="95"/>
       <c r="F260" s="51" t="s">
         <v>46</v>
       </c>
@@ -10590,14 +10727,14 @@
       <c r="A261" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B261" s="93" t="s">
+      <c r="B261" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C261" s="94"/>
-      <c r="D261" s="94"/>
-      <c r="E261" s="94"/>
-      <c r="F261" s="94"/>
-      <c r="G261" s="95"/>
+      <c r="C261" s="97"/>
+      <c r="D261" s="97"/>
+      <c r="E261" s="97"/>
+      <c r="F261" s="97"/>
+      <c r="G261" s="98"/>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="54" t="s">
@@ -10715,23 +10852,23 @@
       <c r="A268" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B268" s="87"/>
-      <c r="C268" s="88"/>
-      <c r="D268" s="88"/>
-      <c r="E268" s="88"/>
-      <c r="F268" s="88"/>
-      <c r="G268" s="89"/>
+      <c r="B268" s="90"/>
+      <c r="C268" s="91"/>
+      <c r="D268" s="91"/>
+      <c r="E268" s="91"/>
+      <c r="F268" s="91"/>
+      <c r="G268" s="92"/>
     </row>
     <row r="269" spans="1:7" customFormat="1">
       <c r="A269" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="B269" s="90" t="s">
+      <c r="B269" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="C269" s="91"/>
-      <c r="D269" s="91"/>
-      <c r="E269" s="92"/>
+      <c r="C269" s="94"/>
+      <c r="D269" s="94"/>
+      <c r="E269" s="95"/>
       <c r="F269" s="51" t="s">
         <v>46</v>
       </c>
@@ -10744,14 +10881,14 @@
       <c r="A270" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B270" s="93" t="s">
+      <c r="B270" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C270" s="94"/>
-      <c r="D270" s="94"/>
-      <c r="E270" s="94"/>
-      <c r="F270" s="94"/>
-      <c r="G270" s="95"/>
+      <c r="C270" s="97"/>
+      <c r="D270" s="97"/>
+      <c r="E270" s="97"/>
+      <c r="F270" s="97"/>
+      <c r="G270" s="98"/>
     </row>
     <row r="271" spans="1:7" customFormat="1">
       <c r="A271" s="54" t="s">
@@ -10850,23 +10987,23 @@
       <c r="A276" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B276" s="87"/>
-      <c r="C276" s="88"/>
-      <c r="D276" s="88"/>
-      <c r="E276" s="88"/>
-      <c r="F276" s="88"/>
-      <c r="G276" s="89"/>
+      <c r="B276" s="90"/>
+      <c r="C276" s="91"/>
+      <c r="D276" s="91"/>
+      <c r="E276" s="91"/>
+      <c r="F276" s="91"/>
+      <c r="G276" s="92"/>
     </row>
     <row r="277" spans="1:7" customFormat="1">
       <c r="A277" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="B277" s="90" t="s">
+      <c r="B277" s="93" t="s">
         <v>277</v>
       </c>
-      <c r="C277" s="91"/>
-      <c r="D277" s="91"/>
-      <c r="E277" s="92"/>
+      <c r="C277" s="94"/>
+      <c r="D277" s="94"/>
+      <c r="E277" s="95"/>
       <c r="F277" s="51" t="s">
         <v>46</v>
       </c>
@@ -10879,14 +11016,14 @@
       <c r="A278" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B278" s="93" t="s">
+      <c r="B278" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C278" s="94"/>
-      <c r="D278" s="94"/>
-      <c r="E278" s="94"/>
-      <c r="F278" s="94"/>
-      <c r="G278" s="95"/>
+      <c r="C278" s="97"/>
+      <c r="D278" s="97"/>
+      <c r="E278" s="97"/>
+      <c r="F278" s="97"/>
+      <c r="G278" s="98"/>
     </row>
     <row r="279" spans="1:7" customFormat="1" ht="45.75" customHeight="1">
       <c r="A279" s="54" t="s">
@@ -11002,23 +11139,23 @@
       <c r="A285" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B285" s="87"/>
-      <c r="C285" s="88"/>
-      <c r="D285" s="88"/>
-      <c r="E285" s="88"/>
-      <c r="F285" s="88"/>
-      <c r="G285" s="89"/>
+      <c r="B285" s="90"/>
+      <c r="C285" s="91"/>
+      <c r="D285" s="91"/>
+      <c r="E285" s="91"/>
+      <c r="F285" s="91"/>
+      <c r="G285" s="92"/>
     </row>
     <row r="286" spans="1:7" customFormat="1">
       <c r="A286" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="B286" s="90" t="s">
+      <c r="B286" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="C286" s="91"/>
-      <c r="D286" s="91"/>
-      <c r="E286" s="92"/>
+      <c r="C286" s="94"/>
+      <c r="D286" s="94"/>
+      <c r="E286" s="95"/>
       <c r="F286" s="51" t="s">
         <v>46</v>
       </c>
@@ -11031,14 +11168,14 @@
       <c r="A287" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B287" s="93" t="s">
+      <c r="B287" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C287" s="94"/>
-      <c r="D287" s="94"/>
-      <c r="E287" s="94"/>
-      <c r="F287" s="94"/>
-      <c r="G287" s="95"/>
+      <c r="C287" s="97"/>
+      <c r="D287" s="97"/>
+      <c r="E287" s="97"/>
+      <c r="F287" s="97"/>
+      <c r="G287" s="98"/>
     </row>
     <row r="288" spans="1:7" customFormat="1">
       <c r="A288" s="54" t="s">
@@ -11137,12 +11274,12 @@
       <c r="A293" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B293" s="87"/>
-      <c r="C293" s="88"/>
-      <c r="D293" s="88"/>
-      <c r="E293" s="88"/>
-      <c r="F293" s="88"/>
-      <c r="G293" s="89"/>
+      <c r="B293" s="90"/>
+      <c r="C293" s="91"/>
+      <c r="D293" s="91"/>
+      <c r="E293" s="91"/>
+      <c r="F293" s="91"/>
+      <c r="G293" s="92"/>
     </row>
     <row r="294" spans="1:7">
       <c r="A294"/>
@@ -17230,7 +17367,7 @@
     <mergeCell ref="B278:G278"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F443:F445 F450:F456 F669:F671 F659:F664 F461:F470 F475:F478 F483:F488 F493:F501 F506:F515 F520:F530 F535:F545 F561:F567 F589:F591 F550:F556 F572:F578 F583:F584 F596:F602 F607:F613 F629:F631 F618:F624 F636:F639 F644:F646 F651:F654 F21:F22 F50:F53 F34:F37 F27:F29 F82:F90 F42:F45 F66:F69 F74:F77 F58:F61 F95:F104 F109:F117 F122:F131 F136:F145 F150:F160 F165:F174 F179:F189 F194:F208 F213:F218 F223:F231 F236:F241 F246:F250 F255:F258 F263:F267 F272:F275 F280:F284 F289:F292">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F443:F445 F450:F456 F669:F671 F659:F664 F461:F470 F475:F478 F483:F488 F493:F501 F506:F515 F520:F530 F535:F545 F561:F567 F589:F591 F550:F556 F572:F578 F583:F584 F596:F602 F607:F613 F629:F631 F618:F624 F636:F639 F644:F646 F651:F654 F21:F22 F50:F53 F34:F37 F27:F29 F82:F90 F42:F45 F66:F69 F74:F77 F58:F61 F95:F104 F109:F117 F122:F131 F136:F145 F150:F160 F165:F174 F179:F189 F194:F208 F213:F218 F223:F231 F236:F241 F246:F250 F255:F258 F263:F267 F272:F275 F280:F284 F289:F292" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TCS_NEWUI_Carousel.xlsx
+++ b/TCS_NEWUI_Carousel.xlsx
@@ -8,42 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB349AD-8008-4981-8FE8-8EA0C3E8B922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3F982-401A-43A3-A698-6ACE100DF2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Index" sheetId="5" r:id="rId1"/>
-    <sheet name="Test Scenarios " sheetId="9" r:id="rId2"/>
-    <sheet name="SMART- Carousel" sheetId="10" r:id="rId3"/>
+    <sheet name="SMART- Carousel" sheetId="10" r:id="rId1"/>
+    <sheet name="Index" sheetId="5" r:id="rId2"/>
+    <sheet name="Test Scenarios " sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="a" localSheetId="1">#REF!</definedName>
     <definedName name="a" localSheetId="0">#REF!</definedName>
     <definedName name="a" localSheetId="2">#REF!</definedName>
-    <definedName name="a" localSheetId="1">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
+    <definedName name="A1048657" localSheetId="1">#REF!</definedName>
     <definedName name="A1048657" localSheetId="0">#REF!</definedName>
     <definedName name="A1048657" localSheetId="2">#REF!</definedName>
-    <definedName name="A1048657" localSheetId="1">#REF!</definedName>
     <definedName name="A1048657">#REF!</definedName>
+    <definedName name="A10486576" localSheetId="1">#REF!</definedName>
     <definedName name="A10486576" localSheetId="0">#REF!</definedName>
     <definedName name="A10486576" localSheetId="2">#REF!</definedName>
-    <definedName name="A10486576" localSheetId="1">#REF!</definedName>
     <definedName name="A10486576">#REF!</definedName>
+    <definedName name="A1107892" localSheetId="1">#REF!</definedName>
     <definedName name="A1107892" localSheetId="0">#REF!</definedName>
     <definedName name="A1107892" localSheetId="2">#REF!</definedName>
-    <definedName name="A1107892" localSheetId="1">#REF!</definedName>
     <definedName name="A1107892">#REF!</definedName>
     <definedName name="abc">#REF!</definedName>
     <definedName name="abc.">#REF!</definedName>
+    <definedName name="j" localSheetId="1">#REF!</definedName>
     <definedName name="j" localSheetId="0">#REF!</definedName>
     <definedName name="j" localSheetId="2">#REF!</definedName>
-    <definedName name="j" localSheetId="1">#REF!</definedName>
     <definedName name="j">#REF!</definedName>
     <definedName name="Step_Result" comment="Pass">#REF!</definedName>
+    <definedName name="test" localSheetId="1">#REF!</definedName>
     <definedName name="test" localSheetId="0">#REF!</definedName>
     <definedName name="test" localSheetId="2">#REF!</definedName>
-    <definedName name="test" localSheetId="1">#REF!</definedName>
     <definedName name="test">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -3035,6 +3035,318 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27595722641494741"/>
+          <c:y val="7.136588701268641E-2"/>
+          <c:w val="0.29672375522792616"/>
+          <c:h val="0.85466509216403874"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-25D4-4E58-AB57-52CC97BAF3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-25D4-4E58-AB57-52CC97BAF3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-25D4-4E58-AB57-52CC97BAF3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-25D4-4E58-AB57-52CC97BAF3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SMART- Carousel'!$F$7:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fail</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blocked</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Executed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SMART- Carousel'!$G$7:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-25D4-4E58-AB57-52CC97BAF3DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="003300"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="003300"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="003300"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72165251246917506"/>
+          <c:y val="3.6083951617898601E-3"/>
+          <c:w val="0.24112408909611374"/>
+          <c:h val="0.95693837006674254"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="003300"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="003300"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="003300"/>
+          </a:solidFill>
+          <a:latin typeface="宋体"/>
+          <a:ea typeface="宋体"/>
+          <a:cs typeface="宋体"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3356,7 +3668,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3626,498 +3938,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.27595722641494741"/>
-          <c:y val="7.136588701268641E-2"/>
-          <c:w val="0.29672375522792616"/>
-          <c:h val="0.85466509216403874"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-25D4-4E58-AB57-52CC97BAF3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-25D4-4E58-AB57-52CC97BAF3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-25D4-4E58-AB57-52CC97BAF3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-25D4-4E58-AB57-52CC97BAF3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SMART- Carousel'!$F$7:$F$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Pass</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fail</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Blocked</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Not Executed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SMART- Carousel'!$G$7:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-25D4-4E58-AB57-52CC97BAF3DE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:softEdge rad="0"/>
-        </a:effectLst>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="003300"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="003300"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="003300"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.72165251246917506"/>
-          <c:y val="3.6083951617898601E-3"/>
-          <c:w val="0.24112408909611374"/>
-          <c:h val="0.95693837006674254"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="003300"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="003300"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="003300"/>
-          </a:solidFill>
-          <a:latin typeface="宋体"/>
-          <a:ea typeface="宋体"/>
-          <a:cs typeface="宋体"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19047</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>16669</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3705225" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.54737</cdr:x>
-      <cdr:y>0.68831</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.8</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1981201" y="2809875"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4343,6 +4164,185 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>16669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3705225" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54737</cdr:x>
+      <cdr:y>0.68831</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1981201" y="2809875"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4673,1101 +4673,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A7" s="84"/>
-      <c r="B7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="88"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="12">
-        <f>'SMART- Carousel'!G7</f>
-        <v>25</v>
-      </c>
-      <c r="C8" s="12">
-        <f>'SMART- Carousel'!G8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <f>'SMART- Carousel'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <f>'SMART- Carousel'!G10</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
-        <f>SUM(B8:E8)</f>
-        <v>26</v>
-      </c>
-      <c r="G8" s="17">
-        <f>(B8+C8+D8)/(F8)</f>
-        <v>0.96153846153846156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="18">
-        <f>SUM(B8:B9)</f>
-        <v>25</v>
-      </c>
-      <c r="C10" s="18">
-        <f>SUM(C8:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="18">
-        <f>SUM(D8:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="18">
-        <f>SUM(E8:E9)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="18">
-        <f>SUM(F8:F9)</f>
-        <v>26</v>
-      </c>
-      <c r="G10" s="14">
-        <f>SUM(G8:G8)</f>
-        <v>0.96153846153846156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickTop="1">
-      <c r="F11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="15">
-        <f>100%-G10</f>
-        <v>3.8461538461538436E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:G7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A8" location="'SMART- Carousel'!A1" display="SMART-Carousel" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G103"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="106.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="69.28515625" style="3" customWidth="1"/>
-    <col min="5" max="256" width="9" style="3"/>
-    <col min="257" max="257" width="71.85546875" style="3" customWidth="1"/>
-    <col min="258" max="258" width="18.5703125" style="3" customWidth="1"/>
-    <col min="259" max="259" width="94.85546875" style="3" customWidth="1"/>
-    <col min="260" max="512" width="9" style="3"/>
-    <col min="513" max="513" width="71.85546875" style="3" customWidth="1"/>
-    <col min="514" max="514" width="18.5703125" style="3" customWidth="1"/>
-    <col min="515" max="515" width="94.85546875" style="3" customWidth="1"/>
-    <col min="516" max="768" width="9" style="3"/>
-    <col min="769" max="769" width="71.85546875" style="3" customWidth="1"/>
-    <col min="770" max="770" width="18.5703125" style="3" customWidth="1"/>
-    <col min="771" max="771" width="94.85546875" style="3" customWidth="1"/>
-    <col min="772" max="1024" width="9" style="3"/>
-    <col min="1025" max="1025" width="71.85546875" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="18.5703125" style="3" customWidth="1"/>
-    <col min="1027" max="1027" width="94.85546875" style="3" customWidth="1"/>
-    <col min="1028" max="1280" width="9" style="3"/>
-    <col min="1281" max="1281" width="71.85546875" style="3" customWidth="1"/>
-    <col min="1282" max="1282" width="18.5703125" style="3" customWidth="1"/>
-    <col min="1283" max="1283" width="94.85546875" style="3" customWidth="1"/>
-    <col min="1284" max="1536" width="9" style="3"/>
-    <col min="1537" max="1537" width="71.85546875" style="3" customWidth="1"/>
-    <col min="1538" max="1538" width="18.5703125" style="3" customWidth="1"/>
-    <col min="1539" max="1539" width="94.85546875" style="3" customWidth="1"/>
-    <col min="1540" max="1792" width="9" style="3"/>
-    <col min="1793" max="1793" width="71.85546875" style="3" customWidth="1"/>
-    <col min="1794" max="1794" width="18.5703125" style="3" customWidth="1"/>
-    <col min="1795" max="1795" width="94.85546875" style="3" customWidth="1"/>
-    <col min="1796" max="2048" width="9" style="3"/>
-    <col min="2049" max="2049" width="71.85546875" style="3" customWidth="1"/>
-    <col min="2050" max="2050" width="18.5703125" style="3" customWidth="1"/>
-    <col min="2051" max="2051" width="94.85546875" style="3" customWidth="1"/>
-    <col min="2052" max="2304" width="9" style="3"/>
-    <col min="2305" max="2305" width="71.85546875" style="3" customWidth="1"/>
-    <col min="2306" max="2306" width="18.5703125" style="3" customWidth="1"/>
-    <col min="2307" max="2307" width="94.85546875" style="3" customWidth="1"/>
-    <col min="2308" max="2560" width="9" style="3"/>
-    <col min="2561" max="2561" width="71.85546875" style="3" customWidth="1"/>
-    <col min="2562" max="2562" width="18.5703125" style="3" customWidth="1"/>
-    <col min="2563" max="2563" width="94.85546875" style="3" customWidth="1"/>
-    <col min="2564" max="2816" width="9" style="3"/>
-    <col min="2817" max="2817" width="71.85546875" style="3" customWidth="1"/>
-    <col min="2818" max="2818" width="18.5703125" style="3" customWidth="1"/>
-    <col min="2819" max="2819" width="94.85546875" style="3" customWidth="1"/>
-    <col min="2820" max="3072" width="9" style="3"/>
-    <col min="3073" max="3073" width="71.85546875" style="3" customWidth="1"/>
-    <col min="3074" max="3074" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3075" max="3075" width="94.85546875" style="3" customWidth="1"/>
-    <col min="3076" max="3328" width="9" style="3"/>
-    <col min="3329" max="3329" width="71.85546875" style="3" customWidth="1"/>
-    <col min="3330" max="3330" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3331" max="3331" width="94.85546875" style="3" customWidth="1"/>
-    <col min="3332" max="3584" width="9" style="3"/>
-    <col min="3585" max="3585" width="71.85546875" style="3" customWidth="1"/>
-    <col min="3586" max="3586" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3587" max="3587" width="94.85546875" style="3" customWidth="1"/>
-    <col min="3588" max="3840" width="9" style="3"/>
-    <col min="3841" max="3841" width="71.85546875" style="3" customWidth="1"/>
-    <col min="3842" max="3842" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3843" max="3843" width="94.85546875" style="3" customWidth="1"/>
-    <col min="3844" max="4096" width="9" style="3"/>
-    <col min="4097" max="4097" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4098" max="4098" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4099" max="4099" width="94.85546875" style="3" customWidth="1"/>
-    <col min="4100" max="4352" width="9" style="3"/>
-    <col min="4353" max="4353" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4354" max="4354" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4355" max="4355" width="94.85546875" style="3" customWidth="1"/>
-    <col min="4356" max="4608" width="9" style="3"/>
-    <col min="4609" max="4609" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4610" max="4610" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4611" max="4611" width="94.85546875" style="3" customWidth="1"/>
-    <col min="4612" max="4864" width="9" style="3"/>
-    <col min="4865" max="4865" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4866" max="4866" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4867" max="4867" width="94.85546875" style="3" customWidth="1"/>
-    <col min="4868" max="5120" width="9" style="3"/>
-    <col min="5121" max="5121" width="71.85546875" style="3" customWidth="1"/>
-    <col min="5122" max="5122" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5123" max="5123" width="94.85546875" style="3" customWidth="1"/>
-    <col min="5124" max="5376" width="9" style="3"/>
-    <col min="5377" max="5377" width="71.85546875" style="3" customWidth="1"/>
-    <col min="5378" max="5378" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5379" max="5379" width="94.85546875" style="3" customWidth="1"/>
-    <col min="5380" max="5632" width="9" style="3"/>
-    <col min="5633" max="5633" width="71.85546875" style="3" customWidth="1"/>
-    <col min="5634" max="5634" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5635" max="5635" width="94.85546875" style="3" customWidth="1"/>
-    <col min="5636" max="5888" width="9" style="3"/>
-    <col min="5889" max="5889" width="71.85546875" style="3" customWidth="1"/>
-    <col min="5890" max="5890" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5891" max="5891" width="94.85546875" style="3" customWidth="1"/>
-    <col min="5892" max="6144" width="9" style="3"/>
-    <col min="6145" max="6145" width="71.85546875" style="3" customWidth="1"/>
-    <col min="6146" max="6146" width="18.5703125" style="3" customWidth="1"/>
-    <col min="6147" max="6147" width="94.85546875" style="3" customWidth="1"/>
-    <col min="6148" max="6400" width="9" style="3"/>
-    <col min="6401" max="6401" width="71.85546875" style="3" customWidth="1"/>
-    <col min="6402" max="6402" width="18.5703125" style="3" customWidth="1"/>
-    <col min="6403" max="6403" width="94.85546875" style="3" customWidth="1"/>
-    <col min="6404" max="6656" width="9" style="3"/>
-    <col min="6657" max="6657" width="71.85546875" style="3" customWidth="1"/>
-    <col min="6658" max="6658" width="18.5703125" style="3" customWidth="1"/>
-    <col min="6659" max="6659" width="94.85546875" style="3" customWidth="1"/>
-    <col min="6660" max="6912" width="9" style="3"/>
-    <col min="6913" max="6913" width="71.85546875" style="3" customWidth="1"/>
-    <col min="6914" max="6914" width="18.5703125" style="3" customWidth="1"/>
-    <col min="6915" max="6915" width="94.85546875" style="3" customWidth="1"/>
-    <col min="6916" max="7168" width="9" style="3"/>
-    <col min="7169" max="7169" width="71.85546875" style="3" customWidth="1"/>
-    <col min="7170" max="7170" width="18.5703125" style="3" customWidth="1"/>
-    <col min="7171" max="7171" width="94.85546875" style="3" customWidth="1"/>
-    <col min="7172" max="7424" width="9" style="3"/>
-    <col min="7425" max="7425" width="71.85546875" style="3" customWidth="1"/>
-    <col min="7426" max="7426" width="18.5703125" style="3" customWidth="1"/>
-    <col min="7427" max="7427" width="94.85546875" style="3" customWidth="1"/>
-    <col min="7428" max="7680" width="9" style="3"/>
-    <col min="7681" max="7681" width="71.85546875" style="3" customWidth="1"/>
-    <col min="7682" max="7682" width="18.5703125" style="3" customWidth="1"/>
-    <col min="7683" max="7683" width="94.85546875" style="3" customWidth="1"/>
-    <col min="7684" max="7936" width="9" style="3"/>
-    <col min="7937" max="7937" width="71.85546875" style="3" customWidth="1"/>
-    <col min="7938" max="7938" width="18.5703125" style="3" customWidth="1"/>
-    <col min="7939" max="7939" width="94.85546875" style="3" customWidth="1"/>
-    <col min="7940" max="8192" width="9" style="3"/>
-    <col min="8193" max="8193" width="71.85546875" style="3" customWidth="1"/>
-    <col min="8194" max="8194" width="18.5703125" style="3" customWidth="1"/>
-    <col min="8195" max="8195" width="94.85546875" style="3" customWidth="1"/>
-    <col min="8196" max="8448" width="9" style="3"/>
-    <col min="8449" max="8449" width="71.85546875" style="3" customWidth="1"/>
-    <col min="8450" max="8450" width="18.5703125" style="3" customWidth="1"/>
-    <col min="8451" max="8451" width="94.85546875" style="3" customWidth="1"/>
-    <col min="8452" max="8704" width="9" style="3"/>
-    <col min="8705" max="8705" width="71.85546875" style="3" customWidth="1"/>
-    <col min="8706" max="8706" width="18.5703125" style="3" customWidth="1"/>
-    <col min="8707" max="8707" width="94.85546875" style="3" customWidth="1"/>
-    <col min="8708" max="8960" width="9" style="3"/>
-    <col min="8961" max="8961" width="71.85546875" style="3" customWidth="1"/>
-    <col min="8962" max="8962" width="18.5703125" style="3" customWidth="1"/>
-    <col min="8963" max="8963" width="94.85546875" style="3" customWidth="1"/>
-    <col min="8964" max="9216" width="9" style="3"/>
-    <col min="9217" max="9217" width="71.85546875" style="3" customWidth="1"/>
-    <col min="9218" max="9218" width="18.5703125" style="3" customWidth="1"/>
-    <col min="9219" max="9219" width="94.85546875" style="3" customWidth="1"/>
-    <col min="9220" max="9472" width="9" style="3"/>
-    <col min="9473" max="9473" width="71.85546875" style="3" customWidth="1"/>
-    <col min="9474" max="9474" width="18.5703125" style="3" customWidth="1"/>
-    <col min="9475" max="9475" width="94.85546875" style="3" customWidth="1"/>
-    <col min="9476" max="9728" width="9" style="3"/>
-    <col min="9729" max="9729" width="71.85546875" style="3" customWidth="1"/>
-    <col min="9730" max="9730" width="18.5703125" style="3" customWidth="1"/>
-    <col min="9731" max="9731" width="94.85546875" style="3" customWidth="1"/>
-    <col min="9732" max="9984" width="9" style="3"/>
-    <col min="9985" max="9985" width="71.85546875" style="3" customWidth="1"/>
-    <col min="9986" max="9986" width="18.5703125" style="3" customWidth="1"/>
-    <col min="9987" max="9987" width="94.85546875" style="3" customWidth="1"/>
-    <col min="9988" max="10240" width="9" style="3"/>
-    <col min="10241" max="10241" width="71.85546875" style="3" customWidth="1"/>
-    <col min="10242" max="10242" width="18.5703125" style="3" customWidth="1"/>
-    <col min="10243" max="10243" width="94.85546875" style="3" customWidth="1"/>
-    <col min="10244" max="10496" width="9" style="3"/>
-    <col min="10497" max="10497" width="71.85546875" style="3" customWidth="1"/>
-    <col min="10498" max="10498" width="18.5703125" style="3" customWidth="1"/>
-    <col min="10499" max="10499" width="94.85546875" style="3" customWidth="1"/>
-    <col min="10500" max="10752" width="9" style="3"/>
-    <col min="10753" max="10753" width="71.85546875" style="3" customWidth="1"/>
-    <col min="10754" max="10754" width="18.5703125" style="3" customWidth="1"/>
-    <col min="10755" max="10755" width="94.85546875" style="3" customWidth="1"/>
-    <col min="10756" max="11008" width="9" style="3"/>
-    <col min="11009" max="11009" width="71.85546875" style="3" customWidth="1"/>
-    <col min="11010" max="11010" width="18.5703125" style="3" customWidth="1"/>
-    <col min="11011" max="11011" width="94.85546875" style="3" customWidth="1"/>
-    <col min="11012" max="11264" width="9" style="3"/>
-    <col min="11265" max="11265" width="71.85546875" style="3" customWidth="1"/>
-    <col min="11266" max="11266" width="18.5703125" style="3" customWidth="1"/>
-    <col min="11267" max="11267" width="94.85546875" style="3" customWidth="1"/>
-    <col min="11268" max="11520" width="9" style="3"/>
-    <col min="11521" max="11521" width="71.85546875" style="3" customWidth="1"/>
-    <col min="11522" max="11522" width="18.5703125" style="3" customWidth="1"/>
-    <col min="11523" max="11523" width="94.85546875" style="3" customWidth="1"/>
-    <col min="11524" max="11776" width="9" style="3"/>
-    <col min="11777" max="11777" width="71.85546875" style="3" customWidth="1"/>
-    <col min="11778" max="11778" width="18.5703125" style="3" customWidth="1"/>
-    <col min="11779" max="11779" width="94.85546875" style="3" customWidth="1"/>
-    <col min="11780" max="12032" width="9" style="3"/>
-    <col min="12033" max="12033" width="71.85546875" style="3" customWidth="1"/>
-    <col min="12034" max="12034" width="18.5703125" style="3" customWidth="1"/>
-    <col min="12035" max="12035" width="94.85546875" style="3" customWidth="1"/>
-    <col min="12036" max="12288" width="9" style="3"/>
-    <col min="12289" max="12289" width="71.85546875" style="3" customWidth="1"/>
-    <col min="12290" max="12290" width="18.5703125" style="3" customWidth="1"/>
-    <col min="12291" max="12291" width="94.85546875" style="3" customWidth="1"/>
-    <col min="12292" max="12544" width="9" style="3"/>
-    <col min="12545" max="12545" width="71.85546875" style="3" customWidth="1"/>
-    <col min="12546" max="12546" width="18.5703125" style="3" customWidth="1"/>
-    <col min="12547" max="12547" width="94.85546875" style="3" customWidth="1"/>
-    <col min="12548" max="12800" width="9" style="3"/>
-    <col min="12801" max="12801" width="71.85546875" style="3" customWidth="1"/>
-    <col min="12802" max="12802" width="18.5703125" style="3" customWidth="1"/>
-    <col min="12803" max="12803" width="94.85546875" style="3" customWidth="1"/>
-    <col min="12804" max="13056" width="9" style="3"/>
-    <col min="13057" max="13057" width="71.85546875" style="3" customWidth="1"/>
-    <col min="13058" max="13058" width="18.5703125" style="3" customWidth="1"/>
-    <col min="13059" max="13059" width="94.85546875" style="3" customWidth="1"/>
-    <col min="13060" max="13312" width="9" style="3"/>
-    <col min="13313" max="13313" width="71.85546875" style="3" customWidth="1"/>
-    <col min="13314" max="13314" width="18.5703125" style="3" customWidth="1"/>
-    <col min="13315" max="13315" width="94.85546875" style="3" customWidth="1"/>
-    <col min="13316" max="13568" width="9" style="3"/>
-    <col min="13569" max="13569" width="71.85546875" style="3" customWidth="1"/>
-    <col min="13570" max="13570" width="18.5703125" style="3" customWidth="1"/>
-    <col min="13571" max="13571" width="94.85546875" style="3" customWidth="1"/>
-    <col min="13572" max="13824" width="9" style="3"/>
-    <col min="13825" max="13825" width="71.85546875" style="3" customWidth="1"/>
-    <col min="13826" max="13826" width="18.5703125" style="3" customWidth="1"/>
-    <col min="13827" max="13827" width="94.85546875" style="3" customWidth="1"/>
-    <col min="13828" max="14080" width="9" style="3"/>
-    <col min="14081" max="14081" width="71.85546875" style="3" customWidth="1"/>
-    <col min="14082" max="14082" width="18.5703125" style="3" customWidth="1"/>
-    <col min="14083" max="14083" width="94.85546875" style="3" customWidth="1"/>
-    <col min="14084" max="14336" width="9" style="3"/>
-    <col min="14337" max="14337" width="71.85546875" style="3" customWidth="1"/>
-    <col min="14338" max="14338" width="18.5703125" style="3" customWidth="1"/>
-    <col min="14339" max="14339" width="94.85546875" style="3" customWidth="1"/>
-    <col min="14340" max="14592" width="9" style="3"/>
-    <col min="14593" max="14593" width="71.85546875" style="3" customWidth="1"/>
-    <col min="14594" max="14594" width="18.5703125" style="3" customWidth="1"/>
-    <col min="14595" max="14595" width="94.85546875" style="3" customWidth="1"/>
-    <col min="14596" max="14848" width="9" style="3"/>
-    <col min="14849" max="14849" width="71.85546875" style="3" customWidth="1"/>
-    <col min="14850" max="14850" width="18.5703125" style="3" customWidth="1"/>
-    <col min="14851" max="14851" width="94.85546875" style="3" customWidth="1"/>
-    <col min="14852" max="15104" width="9" style="3"/>
-    <col min="15105" max="15105" width="71.85546875" style="3" customWidth="1"/>
-    <col min="15106" max="15106" width="18.5703125" style="3" customWidth="1"/>
-    <col min="15107" max="15107" width="94.85546875" style="3" customWidth="1"/>
-    <col min="15108" max="15360" width="9" style="3"/>
-    <col min="15361" max="15361" width="71.85546875" style="3" customWidth="1"/>
-    <col min="15362" max="15362" width="18.5703125" style="3" customWidth="1"/>
-    <col min="15363" max="15363" width="94.85546875" style="3" customWidth="1"/>
-    <col min="15364" max="15616" width="9" style="3"/>
-    <col min="15617" max="15617" width="71.85546875" style="3" customWidth="1"/>
-    <col min="15618" max="15618" width="18.5703125" style="3" customWidth="1"/>
-    <col min="15619" max="15619" width="94.85546875" style="3" customWidth="1"/>
-    <col min="15620" max="15872" width="9" style="3"/>
-    <col min="15873" max="15873" width="71.85546875" style="3" customWidth="1"/>
-    <col min="15874" max="15874" width="18.5703125" style="3" customWidth="1"/>
-    <col min="15875" max="15875" width="94.85546875" style="3" customWidth="1"/>
-    <col min="15876" max="16128" width="9" style="3"/>
-    <col min="16129" max="16129" width="71.85546875" style="3" customWidth="1"/>
-    <col min="16130" max="16130" width="18.5703125" style="3" customWidth="1"/>
-    <col min="16131" max="16131" width="94.85546875" style="3" customWidth="1"/>
-    <col min="16132" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A2" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="89"/>
-      <c r="B3" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" s="20" customFormat="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" s="22" customFormat="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="89"/>
-      <c r="B6" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="89"/>
-      <c r="B7" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="89"/>
-      <c r="B8" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="89"/>
-      <c r="B9" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="89"/>
-      <c r="B10" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="89"/>
-      <c r="B11" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="89"/>
-      <c r="B12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="89"/>
-      <c r="B13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="89"/>
-      <c r="B14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="89"/>
-      <c r="B15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="89"/>
-      <c r="B16" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="89"/>
-      <c r="B17" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="89"/>
-      <c r="B18" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="89"/>
-      <c r="B19" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="89"/>
-      <c r="B20" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="89"/>
-      <c r="B21" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="89"/>
-      <c r="B22" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="89"/>
-      <c r="B23" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="5"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="89"/>
-      <c r="B24" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="89"/>
-      <c r="B25" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>295</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="89"/>
-      <c r="B26" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="5"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="89"/>
-      <c r="B27" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="89"/>
-      <c r="B28" s="4"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="89"/>
-      <c r="B29" s="4"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="89"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="30">
-      <c r="A31" s="89"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="89"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="89"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="89"/>
-      <c r="B34" s="4"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="89"/>
-      <c r="B35" s="4"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="89"/>
-      <c r="B36" s="4"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="89"/>
-      <c r="B37" s="4"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="89"/>
-      <c r="B38" s="4"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="89"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="89"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="89"/>
-      <c r="B41" s="4"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="89"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="89"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="89"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="89"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="7"/>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="7"/>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="7"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="7"/>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="7"/>
-      <c r="B66" s="4"/>
-      <c r="D66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="7"/>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="7"/>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="7"/>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="7"/>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="7"/>
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="7"/>
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="7"/>
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="7"/>
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="7"/>
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="7"/>
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="7"/>
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="7"/>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="7"/>
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="7"/>
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="4"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="4"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A45"/>
-  </mergeCells>
-  <phoneticPr fontId="45" type="noConversion"/>
-  <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H960"/>
   <sheetViews>
-    <sheetView topLeftCell="A269" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A269" sqref="A269"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -17283,63 +16193,15 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:G244"/>
-    <mergeCell ref="B251:G251"/>
-    <mergeCell ref="B252:E252"/>
-    <mergeCell ref="B253:G253"/>
-    <mergeCell ref="B221:G221"/>
-    <mergeCell ref="B232:G232"/>
-    <mergeCell ref="B233:E233"/>
-    <mergeCell ref="B234:G234"/>
-    <mergeCell ref="B242:G242"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:G211"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B191:E191"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B285:G285"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:G287"/>
+    <mergeCell ref="B293:G293"/>
+    <mergeCell ref="B269:E269"/>
+    <mergeCell ref="B270:G270"/>
+    <mergeCell ref="B276:G276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B278:G278"/>
     <mergeCell ref="B260:E260"/>
     <mergeCell ref="B261:G261"/>
     <mergeCell ref="B268:G268"/>
@@ -17356,15 +16218,63 @@
     <mergeCell ref="B118:G118"/>
     <mergeCell ref="B119:E119"/>
     <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B285:G285"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:G287"/>
-    <mergeCell ref="B293:G293"/>
-    <mergeCell ref="B269:E269"/>
-    <mergeCell ref="B270:G270"/>
-    <mergeCell ref="B276:G276"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B278:G278"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:G211"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:G221"/>
+    <mergeCell ref="B232:G232"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B234:G234"/>
+    <mergeCell ref="B242:G242"/>
+    <mergeCell ref="B259:G259"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:G244"/>
+    <mergeCell ref="B251:G251"/>
+    <mergeCell ref="B252:E252"/>
+    <mergeCell ref="B253:G253"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F443:F445 F450:F456 F669:F671 F659:F664 F461:F470 F475:F478 F483:F488 F493:F501 F506:F515 F520:F530 F535:F545 F561:F567 F589:F591 F550:F556 F572:F578 F583:F584 F596:F602 F607:F613 F629:F631 F618:F624 F636:F639 F644:F646 F651:F654 F21:F22 F50:F53 F34:F37 F27:F29 F82:F90 F42:F45 F66:F69 F74:F77 F58:F61 F95:F104 F109:F117 F122:F131 F136:F145 F150:F160 F165:F174 F179:F189 F194:F208 F213:F218 F223:F231 F236:F241 F246:F250 F255:F258 F263:F267 F272:F275 F280:F284 F289:F292" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -17379,4 +16289,1094 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
+      <c r="A5" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1">
+      <c r="A6" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A7" s="84"/>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="88"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="12">
+        <f>'SMART- Carousel'!G7</f>
+        <v>25</v>
+      </c>
+      <c r="C8" s="12">
+        <f>'SMART- Carousel'!G8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <f>'SMART- Carousel'!G9</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <f>'SMART- Carousel'!G10</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <f>SUM(B8:E8)</f>
+        <v>26</v>
+      </c>
+      <c r="G8" s="17">
+        <f>(B8+C8+D8)/(F8)</f>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18">
+        <f>SUM(B8:B9)</f>
+        <v>25</v>
+      </c>
+      <c r="C10" s="18">
+        <f>SUM(C8:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <f>SUM(D8:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <f>SUM(E8:E9)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <f>SUM(F8:F9)</f>
+        <v>26</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM(G8:G8)</f>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickTop="1">
+      <c r="F11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="15">
+        <f>100%-G10</f>
+        <v>3.8461538461538436E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A8" location="'SMART- Carousel'!A1" display="SMART-Carousel" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G103"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="106.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="69.28515625" style="3" customWidth="1"/>
+    <col min="5" max="256" width="9" style="3"/>
+    <col min="257" max="257" width="71.85546875" style="3" customWidth="1"/>
+    <col min="258" max="258" width="18.5703125" style="3" customWidth="1"/>
+    <col min="259" max="259" width="94.85546875" style="3" customWidth="1"/>
+    <col min="260" max="512" width="9" style="3"/>
+    <col min="513" max="513" width="71.85546875" style="3" customWidth="1"/>
+    <col min="514" max="514" width="18.5703125" style="3" customWidth="1"/>
+    <col min="515" max="515" width="94.85546875" style="3" customWidth="1"/>
+    <col min="516" max="768" width="9" style="3"/>
+    <col min="769" max="769" width="71.85546875" style="3" customWidth="1"/>
+    <col min="770" max="770" width="18.5703125" style="3" customWidth="1"/>
+    <col min="771" max="771" width="94.85546875" style="3" customWidth="1"/>
+    <col min="772" max="1024" width="9" style="3"/>
+    <col min="1025" max="1025" width="71.85546875" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="18.5703125" style="3" customWidth="1"/>
+    <col min="1027" max="1027" width="94.85546875" style="3" customWidth="1"/>
+    <col min="1028" max="1280" width="9" style="3"/>
+    <col min="1281" max="1281" width="71.85546875" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="18.5703125" style="3" customWidth="1"/>
+    <col min="1283" max="1283" width="94.85546875" style="3" customWidth="1"/>
+    <col min="1284" max="1536" width="9" style="3"/>
+    <col min="1537" max="1537" width="71.85546875" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="18.5703125" style="3" customWidth="1"/>
+    <col min="1539" max="1539" width="94.85546875" style="3" customWidth="1"/>
+    <col min="1540" max="1792" width="9" style="3"/>
+    <col min="1793" max="1793" width="71.85546875" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="18.5703125" style="3" customWidth="1"/>
+    <col min="1795" max="1795" width="94.85546875" style="3" customWidth="1"/>
+    <col min="1796" max="2048" width="9" style="3"/>
+    <col min="2049" max="2049" width="71.85546875" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2051" max="2051" width="94.85546875" style="3" customWidth="1"/>
+    <col min="2052" max="2304" width="9" style="3"/>
+    <col min="2305" max="2305" width="71.85546875" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2307" max="2307" width="94.85546875" style="3" customWidth="1"/>
+    <col min="2308" max="2560" width="9" style="3"/>
+    <col min="2561" max="2561" width="71.85546875" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2563" max="2563" width="94.85546875" style="3" customWidth="1"/>
+    <col min="2564" max="2816" width="9" style="3"/>
+    <col min="2817" max="2817" width="71.85546875" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2819" max="2819" width="94.85546875" style="3" customWidth="1"/>
+    <col min="2820" max="3072" width="9" style="3"/>
+    <col min="3073" max="3073" width="71.85546875" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3075" max="3075" width="94.85546875" style="3" customWidth="1"/>
+    <col min="3076" max="3328" width="9" style="3"/>
+    <col min="3329" max="3329" width="71.85546875" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3331" max="3331" width="94.85546875" style="3" customWidth="1"/>
+    <col min="3332" max="3584" width="9" style="3"/>
+    <col min="3585" max="3585" width="71.85546875" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3587" max="3587" width="94.85546875" style="3" customWidth="1"/>
+    <col min="3588" max="3840" width="9" style="3"/>
+    <col min="3841" max="3841" width="71.85546875" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3843" max="3843" width="94.85546875" style="3" customWidth="1"/>
+    <col min="3844" max="4096" width="9" style="3"/>
+    <col min="4097" max="4097" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="18.5703125" style="3" customWidth="1"/>
+    <col min="4099" max="4099" width="94.85546875" style="3" customWidth="1"/>
+    <col min="4100" max="4352" width="9" style="3"/>
+    <col min="4353" max="4353" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="18.5703125" style="3" customWidth="1"/>
+    <col min="4355" max="4355" width="94.85546875" style="3" customWidth="1"/>
+    <col min="4356" max="4608" width="9" style="3"/>
+    <col min="4609" max="4609" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="18.5703125" style="3" customWidth="1"/>
+    <col min="4611" max="4611" width="94.85546875" style="3" customWidth="1"/>
+    <col min="4612" max="4864" width="9" style="3"/>
+    <col min="4865" max="4865" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="18.5703125" style="3" customWidth="1"/>
+    <col min="4867" max="4867" width="94.85546875" style="3" customWidth="1"/>
+    <col min="4868" max="5120" width="9" style="3"/>
+    <col min="5121" max="5121" width="71.85546875" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5123" max="5123" width="94.85546875" style="3" customWidth="1"/>
+    <col min="5124" max="5376" width="9" style="3"/>
+    <col min="5377" max="5377" width="71.85546875" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5379" max="5379" width="94.85546875" style="3" customWidth="1"/>
+    <col min="5380" max="5632" width="9" style="3"/>
+    <col min="5633" max="5633" width="71.85546875" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5635" max="5635" width="94.85546875" style="3" customWidth="1"/>
+    <col min="5636" max="5888" width="9" style="3"/>
+    <col min="5889" max="5889" width="71.85546875" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5891" max="5891" width="94.85546875" style="3" customWidth="1"/>
+    <col min="5892" max="6144" width="9" style="3"/>
+    <col min="6145" max="6145" width="71.85546875" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6147" max="6147" width="94.85546875" style="3" customWidth="1"/>
+    <col min="6148" max="6400" width="9" style="3"/>
+    <col min="6401" max="6401" width="71.85546875" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6403" max="6403" width="94.85546875" style="3" customWidth="1"/>
+    <col min="6404" max="6656" width="9" style="3"/>
+    <col min="6657" max="6657" width="71.85546875" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6659" max="6659" width="94.85546875" style="3" customWidth="1"/>
+    <col min="6660" max="6912" width="9" style="3"/>
+    <col min="6913" max="6913" width="71.85546875" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6915" max="6915" width="94.85546875" style="3" customWidth="1"/>
+    <col min="6916" max="7168" width="9" style="3"/>
+    <col min="7169" max="7169" width="71.85546875" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="18.5703125" style="3" customWidth="1"/>
+    <col min="7171" max="7171" width="94.85546875" style="3" customWidth="1"/>
+    <col min="7172" max="7424" width="9" style="3"/>
+    <col min="7425" max="7425" width="71.85546875" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="18.5703125" style="3" customWidth="1"/>
+    <col min="7427" max="7427" width="94.85546875" style="3" customWidth="1"/>
+    <col min="7428" max="7680" width="9" style="3"/>
+    <col min="7681" max="7681" width="71.85546875" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="18.5703125" style="3" customWidth="1"/>
+    <col min="7683" max="7683" width="94.85546875" style="3" customWidth="1"/>
+    <col min="7684" max="7936" width="9" style="3"/>
+    <col min="7937" max="7937" width="71.85546875" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="18.5703125" style="3" customWidth="1"/>
+    <col min="7939" max="7939" width="94.85546875" style="3" customWidth="1"/>
+    <col min="7940" max="8192" width="9" style="3"/>
+    <col min="8193" max="8193" width="71.85546875" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8195" max="8195" width="94.85546875" style="3" customWidth="1"/>
+    <col min="8196" max="8448" width="9" style="3"/>
+    <col min="8449" max="8449" width="71.85546875" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8451" max="8451" width="94.85546875" style="3" customWidth="1"/>
+    <col min="8452" max="8704" width="9" style="3"/>
+    <col min="8705" max="8705" width="71.85546875" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8707" max="8707" width="94.85546875" style="3" customWidth="1"/>
+    <col min="8708" max="8960" width="9" style="3"/>
+    <col min="8961" max="8961" width="71.85546875" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8963" max="8963" width="94.85546875" style="3" customWidth="1"/>
+    <col min="8964" max="9216" width="9" style="3"/>
+    <col min="9217" max="9217" width="71.85546875" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="18.5703125" style="3" customWidth="1"/>
+    <col min="9219" max="9219" width="94.85546875" style="3" customWidth="1"/>
+    <col min="9220" max="9472" width="9" style="3"/>
+    <col min="9473" max="9473" width="71.85546875" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="18.5703125" style="3" customWidth="1"/>
+    <col min="9475" max="9475" width="94.85546875" style="3" customWidth="1"/>
+    <col min="9476" max="9728" width="9" style="3"/>
+    <col min="9729" max="9729" width="71.85546875" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="18.5703125" style="3" customWidth="1"/>
+    <col min="9731" max="9731" width="94.85546875" style="3" customWidth="1"/>
+    <col min="9732" max="9984" width="9" style="3"/>
+    <col min="9985" max="9985" width="71.85546875" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="18.5703125" style="3" customWidth="1"/>
+    <col min="9987" max="9987" width="94.85546875" style="3" customWidth="1"/>
+    <col min="9988" max="10240" width="9" style="3"/>
+    <col min="10241" max="10241" width="71.85546875" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10243" max="10243" width="94.85546875" style="3" customWidth="1"/>
+    <col min="10244" max="10496" width="9" style="3"/>
+    <col min="10497" max="10497" width="71.85546875" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10499" max="10499" width="94.85546875" style="3" customWidth="1"/>
+    <col min="10500" max="10752" width="9" style="3"/>
+    <col min="10753" max="10753" width="71.85546875" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10755" max="10755" width="94.85546875" style="3" customWidth="1"/>
+    <col min="10756" max="11008" width="9" style="3"/>
+    <col min="11009" max="11009" width="71.85546875" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="18.5703125" style="3" customWidth="1"/>
+    <col min="11011" max="11011" width="94.85546875" style="3" customWidth="1"/>
+    <col min="11012" max="11264" width="9" style="3"/>
+    <col min="11265" max="11265" width="71.85546875" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="18.5703125" style="3" customWidth="1"/>
+    <col min="11267" max="11267" width="94.85546875" style="3" customWidth="1"/>
+    <col min="11268" max="11520" width="9" style="3"/>
+    <col min="11521" max="11521" width="71.85546875" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="18.5703125" style="3" customWidth="1"/>
+    <col min="11523" max="11523" width="94.85546875" style="3" customWidth="1"/>
+    <col min="11524" max="11776" width="9" style="3"/>
+    <col min="11777" max="11777" width="71.85546875" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="18.5703125" style="3" customWidth="1"/>
+    <col min="11779" max="11779" width="94.85546875" style="3" customWidth="1"/>
+    <col min="11780" max="12032" width="9" style="3"/>
+    <col min="12033" max="12033" width="71.85546875" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="18.5703125" style="3" customWidth="1"/>
+    <col min="12035" max="12035" width="94.85546875" style="3" customWidth="1"/>
+    <col min="12036" max="12288" width="9" style="3"/>
+    <col min="12289" max="12289" width="71.85546875" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="18.5703125" style="3" customWidth="1"/>
+    <col min="12291" max="12291" width="94.85546875" style="3" customWidth="1"/>
+    <col min="12292" max="12544" width="9" style="3"/>
+    <col min="12545" max="12545" width="71.85546875" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="18.5703125" style="3" customWidth="1"/>
+    <col min="12547" max="12547" width="94.85546875" style="3" customWidth="1"/>
+    <col min="12548" max="12800" width="9" style="3"/>
+    <col min="12801" max="12801" width="71.85546875" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="18.5703125" style="3" customWidth="1"/>
+    <col min="12803" max="12803" width="94.85546875" style="3" customWidth="1"/>
+    <col min="12804" max="13056" width="9" style="3"/>
+    <col min="13057" max="13057" width="71.85546875" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="18.5703125" style="3" customWidth="1"/>
+    <col min="13059" max="13059" width="94.85546875" style="3" customWidth="1"/>
+    <col min="13060" max="13312" width="9" style="3"/>
+    <col min="13313" max="13313" width="71.85546875" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="18.5703125" style="3" customWidth="1"/>
+    <col min="13315" max="13315" width="94.85546875" style="3" customWidth="1"/>
+    <col min="13316" max="13568" width="9" style="3"/>
+    <col min="13569" max="13569" width="71.85546875" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="18.5703125" style="3" customWidth="1"/>
+    <col min="13571" max="13571" width="94.85546875" style="3" customWidth="1"/>
+    <col min="13572" max="13824" width="9" style="3"/>
+    <col min="13825" max="13825" width="71.85546875" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="18.5703125" style="3" customWidth="1"/>
+    <col min="13827" max="13827" width="94.85546875" style="3" customWidth="1"/>
+    <col min="13828" max="14080" width="9" style="3"/>
+    <col min="14081" max="14081" width="71.85546875" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="18.5703125" style="3" customWidth="1"/>
+    <col min="14083" max="14083" width="94.85546875" style="3" customWidth="1"/>
+    <col min="14084" max="14336" width="9" style="3"/>
+    <col min="14337" max="14337" width="71.85546875" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="18.5703125" style="3" customWidth="1"/>
+    <col min="14339" max="14339" width="94.85546875" style="3" customWidth="1"/>
+    <col min="14340" max="14592" width="9" style="3"/>
+    <col min="14593" max="14593" width="71.85546875" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="18.5703125" style="3" customWidth="1"/>
+    <col min="14595" max="14595" width="94.85546875" style="3" customWidth="1"/>
+    <col min="14596" max="14848" width="9" style="3"/>
+    <col min="14849" max="14849" width="71.85546875" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="18.5703125" style="3" customWidth="1"/>
+    <col min="14851" max="14851" width="94.85546875" style="3" customWidth="1"/>
+    <col min="14852" max="15104" width="9" style="3"/>
+    <col min="15105" max="15105" width="71.85546875" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="18.5703125" style="3" customWidth="1"/>
+    <col min="15107" max="15107" width="94.85546875" style="3" customWidth="1"/>
+    <col min="15108" max="15360" width="9" style="3"/>
+    <col min="15361" max="15361" width="71.85546875" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="18.5703125" style="3" customWidth="1"/>
+    <col min="15363" max="15363" width="94.85546875" style="3" customWidth="1"/>
+    <col min="15364" max="15616" width="9" style="3"/>
+    <col min="15617" max="15617" width="71.85546875" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="18.5703125" style="3" customWidth="1"/>
+    <col min="15619" max="15619" width="94.85546875" style="3" customWidth="1"/>
+    <col min="15620" max="15872" width="9" style="3"/>
+    <col min="15873" max="15873" width="71.85546875" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="18.5703125" style="3" customWidth="1"/>
+    <col min="15875" max="15875" width="94.85546875" style="3" customWidth="1"/>
+    <col min="15876" max="16128" width="9" style="3"/>
+    <col min="16129" max="16129" width="71.85546875" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="18.5703125" style="3" customWidth="1"/>
+    <col min="16131" max="16131" width="94.85546875" style="3" customWidth="1"/>
+    <col min="16132" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A2" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="89"/>
+      <c r="B3" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" s="20" customFormat="1">
+      <c r="A4" s="89"/>
+      <c r="B4" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" s="22" customFormat="1">
+      <c r="A5" s="89"/>
+      <c r="B5" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="89"/>
+      <c r="B6" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="89"/>
+      <c r="B7" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="89"/>
+      <c r="B8" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="89"/>
+      <c r="B9" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="89"/>
+      <c r="B10" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="89"/>
+      <c r="B11" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="89"/>
+      <c r="B12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="89"/>
+      <c r="B13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="89"/>
+      <c r="B14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="89"/>
+      <c r="B15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="89"/>
+      <c r="B16" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="89"/>
+      <c r="B17" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="89"/>
+      <c r="B18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="89"/>
+      <c r="B19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="89"/>
+      <c r="B20" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="89"/>
+      <c r="B21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="89"/>
+      <c r="B22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="89"/>
+      <c r="B23" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="75"/>
+      <c r="E23" s="5"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="89"/>
+      <c r="B24" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="89"/>
+      <c r="B25" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="89"/>
+      <c r="B26" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="5"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="89"/>
+      <c r="B27" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="89"/>
+      <c r="B28" s="4"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="89"/>
+      <c r="B29" s="4"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="89"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="89"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="89"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="89"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="89"/>
+      <c r="B34" s="4"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="89"/>
+      <c r="B35" s="4"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="89"/>
+      <c r="B36" s="4"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="89"/>
+      <c r="B37" s="4"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="89"/>
+      <c r="B38" s="4"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="89"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="89"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="89"/>
+      <c r="B41" s="4"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="89"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="89"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="89"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="89"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="7"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7"/>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7"/>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="7"/>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="7"/>
+      <c r="B66" s="4"/>
+      <c r="D66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="7"/>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="7"/>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="7"/>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="7"/>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="7"/>
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="7"/>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="7"/>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="7"/>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="7"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="7"/>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="7"/>
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="7"/>
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="7"/>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="7"/>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="7"/>
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="7"/>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="7"/>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="7"/>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="7"/>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="7"/>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="7"/>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="7"/>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="7"/>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="7"/>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="7"/>
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="7"/>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="7"/>
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A45"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/TCS_NEWUI_Carousel.xlsx
+++ b/TCS_NEWUI_Carousel.xlsx
@@ -1,65 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3F982-401A-43A3-A698-6ACE100DF2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E3A427-60D3-4755-8301-3C6E40E46E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SMART- Carousel" sheetId="10" r:id="rId1"/>
-    <sheet name="Index" sheetId="5" r:id="rId2"/>
-    <sheet name="Test Scenarios " sheetId="9" r:id="rId3"/>
+    <sheet name="Index" sheetId="5" r:id="rId1"/>
+    <sheet name="Test Scenarios " sheetId="9" r:id="rId2"/>
+    <sheet name="SMART- Carousel" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="a" localSheetId="1">#REF!</definedName>
     <definedName name="a" localSheetId="0">#REF!</definedName>
     <definedName name="a" localSheetId="2">#REF!</definedName>
+    <definedName name="a" localSheetId="1">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
-    <definedName name="A1048657" localSheetId="1">#REF!</definedName>
     <definedName name="A1048657" localSheetId="0">#REF!</definedName>
     <definedName name="A1048657" localSheetId="2">#REF!</definedName>
+    <definedName name="A1048657" localSheetId="1">#REF!</definedName>
     <definedName name="A1048657">#REF!</definedName>
-    <definedName name="A10486576" localSheetId="1">#REF!</definedName>
     <definedName name="A10486576" localSheetId="0">#REF!</definedName>
     <definedName name="A10486576" localSheetId="2">#REF!</definedName>
+    <definedName name="A10486576" localSheetId="1">#REF!</definedName>
     <definedName name="A10486576">#REF!</definedName>
-    <definedName name="A1107892" localSheetId="1">#REF!</definedName>
     <definedName name="A1107892" localSheetId="0">#REF!</definedName>
     <definedName name="A1107892" localSheetId="2">#REF!</definedName>
+    <definedName name="A1107892" localSheetId="1">#REF!</definedName>
     <definedName name="A1107892">#REF!</definedName>
     <definedName name="abc">#REF!</definedName>
     <definedName name="abc.">#REF!</definedName>
-    <definedName name="j" localSheetId="1">#REF!</definedName>
     <definedName name="j" localSheetId="0">#REF!</definedName>
     <definedName name="j" localSheetId="2">#REF!</definedName>
+    <definedName name="j" localSheetId="1">#REF!</definedName>
     <definedName name="j">#REF!</definedName>
     <definedName name="Step_Result" comment="Pass">#REF!</definedName>
-    <definedName name="test" localSheetId="1">#REF!</definedName>
     <definedName name="test" localSheetId="0">#REF!</definedName>
     <definedName name="test" localSheetId="2">#REF!</definedName>
+    <definedName name="test" localSheetId="1">#REF!</definedName>
     <definedName name="test">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="298">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -1010,6 +1002,9 @@
   </si>
   <si>
     <t>Ticket No</t>
+  </si>
+  <si>
+    <t>Sumit Rana</t>
   </si>
 </sst>
 </file>
@@ -3035,318 +3030,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.27595722641494741"/>
-          <c:y val="7.136588701268641E-2"/>
-          <c:w val="0.29672375522792616"/>
-          <c:h val="0.85466509216403874"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-25D4-4E58-AB57-52CC97BAF3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-25D4-4E58-AB57-52CC97BAF3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-25D4-4E58-AB57-52CC97BAF3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-25D4-4E58-AB57-52CC97BAF3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'SMART- Carousel'!$F$7:$F$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Pass</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fail</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Blocked</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Not Executed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'SMART- Carousel'!$G$7:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-25D4-4E58-AB57-52CC97BAF3DE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:softEdge rad="0"/>
-        </a:effectLst>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="003300"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="003300"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="003300"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.72165251246917506"/>
-          <c:y val="3.6083951617898601E-3"/>
-          <c:w val="0.24112408909611374"/>
-          <c:h val="0.95693837006674254"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="003300"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="003300"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="003300"/>
-          </a:solidFill>
-          <a:latin typeface="宋体"/>
-          <a:ea typeface="宋体"/>
-          <a:cs typeface="宋体"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3668,7 +3351,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3938,7 +3621,498 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27595722641494741"/>
+          <c:y val="7.136588701268641E-2"/>
+          <c:w val="0.29672375522792616"/>
+          <c:h val="0.85466509216403874"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-25D4-4E58-AB57-52CC97BAF3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-25D4-4E58-AB57-52CC97BAF3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-25D4-4E58-AB57-52CC97BAF3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-25D4-4E58-AB57-52CC97BAF3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SMART- Carousel'!$F$7:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fail</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blocked</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Executed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SMART- Carousel'!$G$7:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-25D4-4E58-AB57-52CC97BAF3DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="003300"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="003300"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="003300"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72165251246917506"/>
+          <c:y val="3.6083951617898601E-3"/>
+          <c:w val="0.24112408909611374"/>
+          <c:h val="0.95693837006674254"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="003300"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="003300"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="003300"/>
+          </a:solidFill>
+          <a:latin typeface="宋体"/>
+          <a:ea typeface="宋体"/>
+          <a:cs typeface="宋体"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>16669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3705225" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54737</cdr:x>
+      <cdr:y>0.68831</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1981201" y="2809875"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4164,185 +4338,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19047</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>16669</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3705225" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.54737</cdr:x>
-      <cdr:y>0.68831</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.8</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1981201" y="2809875"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4673,11 +4668,1101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
+      <c r="A5" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1">
+      <c r="A6" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A7" s="84"/>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="88"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="12">
+        <f>'SMART- Carousel'!G7</f>
+        <v>25</v>
+      </c>
+      <c r="C8" s="12">
+        <f>'SMART- Carousel'!G8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <f>'SMART- Carousel'!G9</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <f>'SMART- Carousel'!G10</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <f>SUM(B8:E8)</f>
+        <v>26</v>
+      </c>
+      <c r="G8" s="17">
+        <f>(B8+C8+D8)/(F8)</f>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18">
+        <f>SUM(B8:B9)</f>
+        <v>25</v>
+      </c>
+      <c r="C10" s="18">
+        <f>SUM(C8:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <f>SUM(D8:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <f>SUM(E8:E9)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <f>SUM(F8:F9)</f>
+        <v>26</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM(G8:G8)</f>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickTop="1">
+      <c r="F11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="15">
+        <f>100%-G10</f>
+        <v>3.8461538461538436E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A8" location="'SMART- Carousel'!A1" display="SMART-Carousel" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G103"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="106.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="69.28515625" style="3" customWidth="1"/>
+    <col min="5" max="256" width="9" style="3"/>
+    <col min="257" max="257" width="71.85546875" style="3" customWidth="1"/>
+    <col min="258" max="258" width="18.5703125" style="3" customWidth="1"/>
+    <col min="259" max="259" width="94.85546875" style="3" customWidth="1"/>
+    <col min="260" max="512" width="9" style="3"/>
+    <col min="513" max="513" width="71.85546875" style="3" customWidth="1"/>
+    <col min="514" max="514" width="18.5703125" style="3" customWidth="1"/>
+    <col min="515" max="515" width="94.85546875" style="3" customWidth="1"/>
+    <col min="516" max="768" width="9" style="3"/>
+    <col min="769" max="769" width="71.85546875" style="3" customWidth="1"/>
+    <col min="770" max="770" width="18.5703125" style="3" customWidth="1"/>
+    <col min="771" max="771" width="94.85546875" style="3" customWidth="1"/>
+    <col min="772" max="1024" width="9" style="3"/>
+    <col min="1025" max="1025" width="71.85546875" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="18.5703125" style="3" customWidth="1"/>
+    <col min="1027" max="1027" width="94.85546875" style="3" customWidth="1"/>
+    <col min="1028" max="1280" width="9" style="3"/>
+    <col min="1281" max="1281" width="71.85546875" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="18.5703125" style="3" customWidth="1"/>
+    <col min="1283" max="1283" width="94.85546875" style="3" customWidth="1"/>
+    <col min="1284" max="1536" width="9" style="3"/>
+    <col min="1537" max="1537" width="71.85546875" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="18.5703125" style="3" customWidth="1"/>
+    <col min="1539" max="1539" width="94.85546875" style="3" customWidth="1"/>
+    <col min="1540" max="1792" width="9" style="3"/>
+    <col min="1793" max="1793" width="71.85546875" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="18.5703125" style="3" customWidth="1"/>
+    <col min="1795" max="1795" width="94.85546875" style="3" customWidth="1"/>
+    <col min="1796" max="2048" width="9" style="3"/>
+    <col min="2049" max="2049" width="71.85546875" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2051" max="2051" width="94.85546875" style="3" customWidth="1"/>
+    <col min="2052" max="2304" width="9" style="3"/>
+    <col min="2305" max="2305" width="71.85546875" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2307" max="2307" width="94.85546875" style="3" customWidth="1"/>
+    <col min="2308" max="2560" width="9" style="3"/>
+    <col min="2561" max="2561" width="71.85546875" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2563" max="2563" width="94.85546875" style="3" customWidth="1"/>
+    <col min="2564" max="2816" width="9" style="3"/>
+    <col min="2817" max="2817" width="71.85546875" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2819" max="2819" width="94.85546875" style="3" customWidth="1"/>
+    <col min="2820" max="3072" width="9" style="3"/>
+    <col min="3073" max="3073" width="71.85546875" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3075" max="3075" width="94.85546875" style="3" customWidth="1"/>
+    <col min="3076" max="3328" width="9" style="3"/>
+    <col min="3329" max="3329" width="71.85546875" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3331" max="3331" width="94.85546875" style="3" customWidth="1"/>
+    <col min="3332" max="3584" width="9" style="3"/>
+    <col min="3585" max="3585" width="71.85546875" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3587" max="3587" width="94.85546875" style="3" customWidth="1"/>
+    <col min="3588" max="3840" width="9" style="3"/>
+    <col min="3841" max="3841" width="71.85546875" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="18.5703125" style="3" customWidth="1"/>
+    <col min="3843" max="3843" width="94.85546875" style="3" customWidth="1"/>
+    <col min="3844" max="4096" width="9" style="3"/>
+    <col min="4097" max="4097" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="18.5703125" style="3" customWidth="1"/>
+    <col min="4099" max="4099" width="94.85546875" style="3" customWidth="1"/>
+    <col min="4100" max="4352" width="9" style="3"/>
+    <col min="4353" max="4353" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="18.5703125" style="3" customWidth="1"/>
+    <col min="4355" max="4355" width="94.85546875" style="3" customWidth="1"/>
+    <col min="4356" max="4608" width="9" style="3"/>
+    <col min="4609" max="4609" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="18.5703125" style="3" customWidth="1"/>
+    <col min="4611" max="4611" width="94.85546875" style="3" customWidth="1"/>
+    <col min="4612" max="4864" width="9" style="3"/>
+    <col min="4865" max="4865" width="71.85546875" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="18.5703125" style="3" customWidth="1"/>
+    <col min="4867" max="4867" width="94.85546875" style="3" customWidth="1"/>
+    <col min="4868" max="5120" width="9" style="3"/>
+    <col min="5121" max="5121" width="71.85546875" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5123" max="5123" width="94.85546875" style="3" customWidth="1"/>
+    <col min="5124" max="5376" width="9" style="3"/>
+    <col min="5377" max="5377" width="71.85546875" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5379" max="5379" width="94.85546875" style="3" customWidth="1"/>
+    <col min="5380" max="5632" width="9" style="3"/>
+    <col min="5633" max="5633" width="71.85546875" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5635" max="5635" width="94.85546875" style="3" customWidth="1"/>
+    <col min="5636" max="5888" width="9" style="3"/>
+    <col min="5889" max="5889" width="71.85546875" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5891" max="5891" width="94.85546875" style="3" customWidth="1"/>
+    <col min="5892" max="6144" width="9" style="3"/>
+    <col min="6145" max="6145" width="71.85546875" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6147" max="6147" width="94.85546875" style="3" customWidth="1"/>
+    <col min="6148" max="6400" width="9" style="3"/>
+    <col min="6401" max="6401" width="71.85546875" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6403" max="6403" width="94.85546875" style="3" customWidth="1"/>
+    <col min="6404" max="6656" width="9" style="3"/>
+    <col min="6657" max="6657" width="71.85546875" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6659" max="6659" width="94.85546875" style="3" customWidth="1"/>
+    <col min="6660" max="6912" width="9" style="3"/>
+    <col min="6913" max="6913" width="71.85546875" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6915" max="6915" width="94.85546875" style="3" customWidth="1"/>
+    <col min="6916" max="7168" width="9" style="3"/>
+    <col min="7169" max="7169" width="71.85546875" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="18.5703125" style="3" customWidth="1"/>
+    <col min="7171" max="7171" width="94.85546875" style="3" customWidth="1"/>
+    <col min="7172" max="7424" width="9" style="3"/>
+    <col min="7425" max="7425" width="71.85546875" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="18.5703125" style="3" customWidth="1"/>
+    <col min="7427" max="7427" width="94.85546875" style="3" customWidth="1"/>
+    <col min="7428" max="7680" width="9" style="3"/>
+    <col min="7681" max="7681" width="71.85546875" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="18.5703125" style="3" customWidth="1"/>
+    <col min="7683" max="7683" width="94.85546875" style="3" customWidth="1"/>
+    <col min="7684" max="7936" width="9" style="3"/>
+    <col min="7937" max="7937" width="71.85546875" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="18.5703125" style="3" customWidth="1"/>
+    <col min="7939" max="7939" width="94.85546875" style="3" customWidth="1"/>
+    <col min="7940" max="8192" width="9" style="3"/>
+    <col min="8193" max="8193" width="71.85546875" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8195" max="8195" width="94.85546875" style="3" customWidth="1"/>
+    <col min="8196" max="8448" width="9" style="3"/>
+    <col min="8449" max="8449" width="71.85546875" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8451" max="8451" width="94.85546875" style="3" customWidth="1"/>
+    <col min="8452" max="8704" width="9" style="3"/>
+    <col min="8705" max="8705" width="71.85546875" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8707" max="8707" width="94.85546875" style="3" customWidth="1"/>
+    <col min="8708" max="8960" width="9" style="3"/>
+    <col min="8961" max="8961" width="71.85546875" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8963" max="8963" width="94.85546875" style="3" customWidth="1"/>
+    <col min="8964" max="9216" width="9" style="3"/>
+    <col min="9217" max="9217" width="71.85546875" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="18.5703125" style="3" customWidth="1"/>
+    <col min="9219" max="9219" width="94.85546875" style="3" customWidth="1"/>
+    <col min="9220" max="9472" width="9" style="3"/>
+    <col min="9473" max="9473" width="71.85546875" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="18.5703125" style="3" customWidth="1"/>
+    <col min="9475" max="9475" width="94.85546875" style="3" customWidth="1"/>
+    <col min="9476" max="9728" width="9" style="3"/>
+    <col min="9729" max="9729" width="71.85546875" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="18.5703125" style="3" customWidth="1"/>
+    <col min="9731" max="9731" width="94.85546875" style="3" customWidth="1"/>
+    <col min="9732" max="9984" width="9" style="3"/>
+    <col min="9985" max="9985" width="71.85546875" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="18.5703125" style="3" customWidth="1"/>
+    <col min="9987" max="9987" width="94.85546875" style="3" customWidth="1"/>
+    <col min="9988" max="10240" width="9" style="3"/>
+    <col min="10241" max="10241" width="71.85546875" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10243" max="10243" width="94.85546875" style="3" customWidth="1"/>
+    <col min="10244" max="10496" width="9" style="3"/>
+    <col min="10497" max="10497" width="71.85546875" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10499" max="10499" width="94.85546875" style="3" customWidth="1"/>
+    <col min="10500" max="10752" width="9" style="3"/>
+    <col min="10753" max="10753" width="71.85546875" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10755" max="10755" width="94.85546875" style="3" customWidth="1"/>
+    <col min="10756" max="11008" width="9" style="3"/>
+    <col min="11009" max="11009" width="71.85546875" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="18.5703125" style="3" customWidth="1"/>
+    <col min="11011" max="11011" width="94.85546875" style="3" customWidth="1"/>
+    <col min="11012" max="11264" width="9" style="3"/>
+    <col min="11265" max="11265" width="71.85546875" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="18.5703125" style="3" customWidth="1"/>
+    <col min="11267" max="11267" width="94.85546875" style="3" customWidth="1"/>
+    <col min="11268" max="11520" width="9" style="3"/>
+    <col min="11521" max="11521" width="71.85546875" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="18.5703125" style="3" customWidth="1"/>
+    <col min="11523" max="11523" width="94.85546875" style="3" customWidth="1"/>
+    <col min="11524" max="11776" width="9" style="3"/>
+    <col min="11777" max="11777" width="71.85546875" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="18.5703125" style="3" customWidth="1"/>
+    <col min="11779" max="11779" width="94.85546875" style="3" customWidth="1"/>
+    <col min="11780" max="12032" width="9" style="3"/>
+    <col min="12033" max="12033" width="71.85546875" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="18.5703125" style="3" customWidth="1"/>
+    <col min="12035" max="12035" width="94.85546875" style="3" customWidth="1"/>
+    <col min="12036" max="12288" width="9" style="3"/>
+    <col min="12289" max="12289" width="71.85546875" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="18.5703125" style="3" customWidth="1"/>
+    <col min="12291" max="12291" width="94.85546875" style="3" customWidth="1"/>
+    <col min="12292" max="12544" width="9" style="3"/>
+    <col min="12545" max="12545" width="71.85546875" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="18.5703125" style="3" customWidth="1"/>
+    <col min="12547" max="12547" width="94.85546875" style="3" customWidth="1"/>
+    <col min="12548" max="12800" width="9" style="3"/>
+    <col min="12801" max="12801" width="71.85546875" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="18.5703125" style="3" customWidth="1"/>
+    <col min="12803" max="12803" width="94.85546875" style="3" customWidth="1"/>
+    <col min="12804" max="13056" width="9" style="3"/>
+    <col min="13057" max="13057" width="71.85546875" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="18.5703125" style="3" customWidth="1"/>
+    <col min="13059" max="13059" width="94.85546875" style="3" customWidth="1"/>
+    <col min="13060" max="13312" width="9" style="3"/>
+    <col min="13313" max="13313" width="71.85546875" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="18.5703125" style="3" customWidth="1"/>
+    <col min="13315" max="13315" width="94.85546875" style="3" customWidth="1"/>
+    <col min="13316" max="13568" width="9" style="3"/>
+    <col min="13569" max="13569" width="71.85546875" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="18.5703125" style="3" customWidth="1"/>
+    <col min="13571" max="13571" width="94.85546875" style="3" customWidth="1"/>
+    <col min="13572" max="13824" width="9" style="3"/>
+    <col min="13825" max="13825" width="71.85546875" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="18.5703125" style="3" customWidth="1"/>
+    <col min="13827" max="13827" width="94.85546875" style="3" customWidth="1"/>
+    <col min="13828" max="14080" width="9" style="3"/>
+    <col min="14081" max="14081" width="71.85546875" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="18.5703125" style="3" customWidth="1"/>
+    <col min="14083" max="14083" width="94.85546875" style="3" customWidth="1"/>
+    <col min="14084" max="14336" width="9" style="3"/>
+    <col min="14337" max="14337" width="71.85546875" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="18.5703125" style="3" customWidth="1"/>
+    <col min="14339" max="14339" width="94.85546875" style="3" customWidth="1"/>
+    <col min="14340" max="14592" width="9" style="3"/>
+    <col min="14593" max="14593" width="71.85546875" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="18.5703125" style="3" customWidth="1"/>
+    <col min="14595" max="14595" width="94.85546875" style="3" customWidth="1"/>
+    <col min="14596" max="14848" width="9" style="3"/>
+    <col min="14849" max="14849" width="71.85546875" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="18.5703125" style="3" customWidth="1"/>
+    <col min="14851" max="14851" width="94.85546875" style="3" customWidth="1"/>
+    <col min="14852" max="15104" width="9" style="3"/>
+    <col min="15105" max="15105" width="71.85546875" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="18.5703125" style="3" customWidth="1"/>
+    <col min="15107" max="15107" width="94.85546875" style="3" customWidth="1"/>
+    <col min="15108" max="15360" width="9" style="3"/>
+    <col min="15361" max="15361" width="71.85546875" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="18.5703125" style="3" customWidth="1"/>
+    <col min="15363" max="15363" width="94.85546875" style="3" customWidth="1"/>
+    <col min="15364" max="15616" width="9" style="3"/>
+    <col min="15617" max="15617" width="71.85546875" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="18.5703125" style="3" customWidth="1"/>
+    <col min="15619" max="15619" width="94.85546875" style="3" customWidth="1"/>
+    <col min="15620" max="15872" width="9" style="3"/>
+    <col min="15873" max="15873" width="71.85546875" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="18.5703125" style="3" customWidth="1"/>
+    <col min="15875" max="15875" width="94.85546875" style="3" customWidth="1"/>
+    <col min="15876" max="16128" width="9" style="3"/>
+    <col min="16129" max="16129" width="71.85546875" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="18.5703125" style="3" customWidth="1"/>
+    <col min="16131" max="16131" width="94.85546875" style="3" customWidth="1"/>
+    <col min="16132" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A2" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="89"/>
+      <c r="B3" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" s="20" customFormat="1">
+      <c r="A4" s="89"/>
+      <c r="B4" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" s="22" customFormat="1">
+      <c r="A5" s="89"/>
+      <c r="B5" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="89"/>
+      <c r="B6" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="89"/>
+      <c r="B7" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="89"/>
+      <c r="B8" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="89"/>
+      <c r="B9" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="89"/>
+      <c r="B10" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="89"/>
+      <c r="B11" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="89"/>
+      <c r="B12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="89"/>
+      <c r="B13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="89"/>
+      <c r="B14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="89"/>
+      <c r="B15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="89"/>
+      <c r="B16" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="89"/>
+      <c r="B17" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="89"/>
+      <c r="B18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="89"/>
+      <c r="B19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="89"/>
+      <c r="B20" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="89"/>
+      <c r="B21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="89"/>
+      <c r="B22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="89"/>
+      <c r="B23" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="75"/>
+      <c r="E23" s="5"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="89"/>
+      <c r="B24" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="89"/>
+      <c r="B25" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="89"/>
+      <c r="B26" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="5"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="89"/>
+      <c r="B27" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="89"/>
+      <c r="B28" s="4"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="89"/>
+      <c r="B29" s="4"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="89"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="89"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="89"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="89"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="89"/>
+      <c r="B34" s="4"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="89"/>
+      <c r="B35" s="4"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="89"/>
+      <c r="B36" s="4"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="89"/>
+      <c r="B37" s="4"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="89"/>
+      <c r="B38" s="4"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="89"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="89"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="89"/>
+      <c r="B41" s="4"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="89"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="89"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="89"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="89"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="7"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7"/>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7"/>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="7"/>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="7"/>
+      <c r="B66" s="4"/>
+      <c r="D66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="7"/>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="7"/>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="7"/>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="7"/>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="7"/>
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="7"/>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="7"/>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="7"/>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="7"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="7"/>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="7"/>
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="7"/>
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="7"/>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="7"/>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="7"/>
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="7"/>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="7"/>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="7"/>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="7"/>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="7"/>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="7"/>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="7"/>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="7"/>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="7"/>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="7"/>
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="7"/>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="7"/>
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A45"/>
+  </mergeCells>
+  <phoneticPr fontId="45" type="noConversion"/>
+  <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C273" sqref="C273"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5376,7 +6461,9 @@
       <c r="F4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="32" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="A5" s="26"/>
@@ -16289,1094 +17376,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A7" s="84"/>
-      <c r="B7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="88"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="12">
-        <f>'SMART- Carousel'!G7</f>
-        <v>25</v>
-      </c>
-      <c r="C8" s="12">
-        <f>'SMART- Carousel'!G8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <f>'SMART- Carousel'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <f>'SMART- Carousel'!G10</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
-        <f>SUM(B8:E8)</f>
-        <v>26</v>
-      </c>
-      <c r="G8" s="17">
-        <f>(B8+C8+D8)/(F8)</f>
-        <v>0.96153846153846156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="18">
-        <f>SUM(B8:B9)</f>
-        <v>25</v>
-      </c>
-      <c r="C10" s="18">
-        <f>SUM(C8:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="18">
-        <f>SUM(D8:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="18">
-        <f>SUM(E8:E9)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="18">
-        <f>SUM(F8:F9)</f>
-        <v>26</v>
-      </c>
-      <c r="G10" s="14">
-        <f>SUM(G8:G8)</f>
-        <v>0.96153846153846156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickTop="1">
-      <c r="F11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="15">
-        <f>100%-G10</f>
-        <v>3.8461538461538436E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:G7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A8" location="'SMART- Carousel'!A1" display="SMART-Carousel" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G103"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="106.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="69.28515625" style="3" customWidth="1"/>
-    <col min="5" max="256" width="9" style="3"/>
-    <col min="257" max="257" width="71.85546875" style="3" customWidth="1"/>
-    <col min="258" max="258" width="18.5703125" style="3" customWidth="1"/>
-    <col min="259" max="259" width="94.85546875" style="3" customWidth="1"/>
-    <col min="260" max="512" width="9" style="3"/>
-    <col min="513" max="513" width="71.85546875" style="3" customWidth="1"/>
-    <col min="514" max="514" width="18.5703125" style="3" customWidth="1"/>
-    <col min="515" max="515" width="94.85546875" style="3" customWidth="1"/>
-    <col min="516" max="768" width="9" style="3"/>
-    <col min="769" max="769" width="71.85546875" style="3" customWidth="1"/>
-    <col min="770" max="770" width="18.5703125" style="3" customWidth="1"/>
-    <col min="771" max="771" width="94.85546875" style="3" customWidth="1"/>
-    <col min="772" max="1024" width="9" style="3"/>
-    <col min="1025" max="1025" width="71.85546875" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="18.5703125" style="3" customWidth="1"/>
-    <col min="1027" max="1027" width="94.85546875" style="3" customWidth="1"/>
-    <col min="1028" max="1280" width="9" style="3"/>
-    <col min="1281" max="1281" width="71.85546875" style="3" customWidth="1"/>
-    <col min="1282" max="1282" width="18.5703125" style="3" customWidth="1"/>
-    <col min="1283" max="1283" width="94.85546875" style="3" customWidth="1"/>
-    <col min="1284" max="1536" width="9" style="3"/>
-    <col min="1537" max="1537" width="71.85546875" style="3" customWidth="1"/>
-    <col min="1538" max="1538" width="18.5703125" style="3" customWidth="1"/>
-    <col min="1539" max="1539" width="94.85546875" style="3" customWidth="1"/>
-    <col min="1540" max="1792" width="9" style="3"/>
-    <col min="1793" max="1793" width="71.85546875" style="3" customWidth="1"/>
-    <col min="1794" max="1794" width="18.5703125" style="3" customWidth="1"/>
-    <col min="1795" max="1795" width="94.85546875" style="3" customWidth="1"/>
-    <col min="1796" max="2048" width="9" style="3"/>
-    <col min="2049" max="2049" width="71.85546875" style="3" customWidth="1"/>
-    <col min="2050" max="2050" width="18.5703125" style="3" customWidth="1"/>
-    <col min="2051" max="2051" width="94.85546875" style="3" customWidth="1"/>
-    <col min="2052" max="2304" width="9" style="3"/>
-    <col min="2305" max="2305" width="71.85546875" style="3" customWidth="1"/>
-    <col min="2306" max="2306" width="18.5703125" style="3" customWidth="1"/>
-    <col min="2307" max="2307" width="94.85546875" style="3" customWidth="1"/>
-    <col min="2308" max="2560" width="9" style="3"/>
-    <col min="2561" max="2561" width="71.85546875" style="3" customWidth="1"/>
-    <col min="2562" max="2562" width="18.5703125" style="3" customWidth="1"/>
-    <col min="2563" max="2563" width="94.85546875" style="3" customWidth="1"/>
-    <col min="2564" max="2816" width="9" style="3"/>
-    <col min="2817" max="2817" width="71.85546875" style="3" customWidth="1"/>
-    <col min="2818" max="2818" width="18.5703125" style="3" customWidth="1"/>
-    <col min="2819" max="2819" width="94.85546875" style="3" customWidth="1"/>
-    <col min="2820" max="3072" width="9" style="3"/>
-    <col min="3073" max="3073" width="71.85546875" style="3" customWidth="1"/>
-    <col min="3074" max="3074" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3075" max="3075" width="94.85546875" style="3" customWidth="1"/>
-    <col min="3076" max="3328" width="9" style="3"/>
-    <col min="3329" max="3329" width="71.85546875" style="3" customWidth="1"/>
-    <col min="3330" max="3330" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3331" max="3331" width="94.85546875" style="3" customWidth="1"/>
-    <col min="3332" max="3584" width="9" style="3"/>
-    <col min="3585" max="3585" width="71.85546875" style="3" customWidth="1"/>
-    <col min="3586" max="3586" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3587" max="3587" width="94.85546875" style="3" customWidth="1"/>
-    <col min="3588" max="3840" width="9" style="3"/>
-    <col min="3841" max="3841" width="71.85546875" style="3" customWidth="1"/>
-    <col min="3842" max="3842" width="18.5703125" style="3" customWidth="1"/>
-    <col min="3843" max="3843" width="94.85546875" style="3" customWidth="1"/>
-    <col min="3844" max="4096" width="9" style="3"/>
-    <col min="4097" max="4097" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4098" max="4098" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4099" max="4099" width="94.85546875" style="3" customWidth="1"/>
-    <col min="4100" max="4352" width="9" style="3"/>
-    <col min="4353" max="4353" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4354" max="4354" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4355" max="4355" width="94.85546875" style="3" customWidth="1"/>
-    <col min="4356" max="4608" width="9" style="3"/>
-    <col min="4609" max="4609" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4610" max="4610" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4611" max="4611" width="94.85546875" style="3" customWidth="1"/>
-    <col min="4612" max="4864" width="9" style="3"/>
-    <col min="4865" max="4865" width="71.85546875" style="3" customWidth="1"/>
-    <col min="4866" max="4866" width="18.5703125" style="3" customWidth="1"/>
-    <col min="4867" max="4867" width="94.85546875" style="3" customWidth="1"/>
-    <col min="4868" max="5120" width="9" style="3"/>
-    <col min="5121" max="5121" width="71.85546875" style="3" customWidth="1"/>
-    <col min="5122" max="5122" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5123" max="5123" width="94.85546875" style="3" customWidth="1"/>
-    <col min="5124" max="5376" width="9" style="3"/>
-    <col min="5377" max="5377" width="71.85546875" style="3" customWidth="1"/>
-    <col min="5378" max="5378" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5379" max="5379" width="94.85546875" style="3" customWidth="1"/>
-    <col min="5380" max="5632" width="9" style="3"/>
-    <col min="5633" max="5633" width="71.85546875" style="3" customWidth="1"/>
-    <col min="5634" max="5634" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5635" max="5635" width="94.85546875" style="3" customWidth="1"/>
-    <col min="5636" max="5888" width="9" style="3"/>
-    <col min="5889" max="5889" width="71.85546875" style="3" customWidth="1"/>
-    <col min="5890" max="5890" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5891" max="5891" width="94.85546875" style="3" customWidth="1"/>
-    <col min="5892" max="6144" width="9" style="3"/>
-    <col min="6145" max="6145" width="71.85546875" style="3" customWidth="1"/>
-    <col min="6146" max="6146" width="18.5703125" style="3" customWidth="1"/>
-    <col min="6147" max="6147" width="94.85546875" style="3" customWidth="1"/>
-    <col min="6148" max="6400" width="9" style="3"/>
-    <col min="6401" max="6401" width="71.85546875" style="3" customWidth="1"/>
-    <col min="6402" max="6402" width="18.5703125" style="3" customWidth="1"/>
-    <col min="6403" max="6403" width="94.85546875" style="3" customWidth="1"/>
-    <col min="6404" max="6656" width="9" style="3"/>
-    <col min="6657" max="6657" width="71.85546875" style="3" customWidth="1"/>
-    <col min="6658" max="6658" width="18.5703125" style="3" customWidth="1"/>
-    <col min="6659" max="6659" width="94.85546875" style="3" customWidth="1"/>
-    <col min="6660" max="6912" width="9" style="3"/>
-    <col min="6913" max="6913" width="71.85546875" style="3" customWidth="1"/>
-    <col min="6914" max="6914" width="18.5703125" style="3" customWidth="1"/>
-    <col min="6915" max="6915" width="94.85546875" style="3" customWidth="1"/>
-    <col min="6916" max="7168" width="9" style="3"/>
-    <col min="7169" max="7169" width="71.85546875" style="3" customWidth="1"/>
-    <col min="7170" max="7170" width="18.5703125" style="3" customWidth="1"/>
-    <col min="7171" max="7171" width="94.85546875" style="3" customWidth="1"/>
-    <col min="7172" max="7424" width="9" style="3"/>
-    <col min="7425" max="7425" width="71.85546875" style="3" customWidth="1"/>
-    <col min="7426" max="7426" width="18.5703125" style="3" customWidth="1"/>
-    <col min="7427" max="7427" width="94.85546875" style="3" customWidth="1"/>
-    <col min="7428" max="7680" width="9" style="3"/>
-    <col min="7681" max="7681" width="71.85546875" style="3" customWidth="1"/>
-    <col min="7682" max="7682" width="18.5703125" style="3" customWidth="1"/>
-    <col min="7683" max="7683" width="94.85546875" style="3" customWidth="1"/>
-    <col min="7684" max="7936" width="9" style="3"/>
-    <col min="7937" max="7937" width="71.85546875" style="3" customWidth="1"/>
-    <col min="7938" max="7938" width="18.5703125" style="3" customWidth="1"/>
-    <col min="7939" max="7939" width="94.85546875" style="3" customWidth="1"/>
-    <col min="7940" max="8192" width="9" style="3"/>
-    <col min="8193" max="8193" width="71.85546875" style="3" customWidth="1"/>
-    <col min="8194" max="8194" width="18.5703125" style="3" customWidth="1"/>
-    <col min="8195" max="8195" width="94.85546875" style="3" customWidth="1"/>
-    <col min="8196" max="8448" width="9" style="3"/>
-    <col min="8449" max="8449" width="71.85546875" style="3" customWidth="1"/>
-    <col min="8450" max="8450" width="18.5703125" style="3" customWidth="1"/>
-    <col min="8451" max="8451" width="94.85546875" style="3" customWidth="1"/>
-    <col min="8452" max="8704" width="9" style="3"/>
-    <col min="8705" max="8705" width="71.85546875" style="3" customWidth="1"/>
-    <col min="8706" max="8706" width="18.5703125" style="3" customWidth="1"/>
-    <col min="8707" max="8707" width="94.85546875" style="3" customWidth="1"/>
-    <col min="8708" max="8960" width="9" style="3"/>
-    <col min="8961" max="8961" width="71.85546875" style="3" customWidth="1"/>
-    <col min="8962" max="8962" width="18.5703125" style="3" customWidth="1"/>
-    <col min="8963" max="8963" width="94.85546875" style="3" customWidth="1"/>
-    <col min="8964" max="9216" width="9" style="3"/>
-    <col min="9217" max="9217" width="71.85546875" style="3" customWidth="1"/>
-    <col min="9218" max="9218" width="18.5703125" style="3" customWidth="1"/>
-    <col min="9219" max="9219" width="94.85546875" style="3" customWidth="1"/>
-    <col min="9220" max="9472" width="9" style="3"/>
-    <col min="9473" max="9473" width="71.85546875" style="3" customWidth="1"/>
-    <col min="9474" max="9474" width="18.5703125" style="3" customWidth="1"/>
-    <col min="9475" max="9475" width="94.85546875" style="3" customWidth="1"/>
-    <col min="9476" max="9728" width="9" style="3"/>
-    <col min="9729" max="9729" width="71.85546875" style="3" customWidth="1"/>
-    <col min="9730" max="9730" width="18.5703125" style="3" customWidth="1"/>
-    <col min="9731" max="9731" width="94.85546875" style="3" customWidth="1"/>
-    <col min="9732" max="9984" width="9" style="3"/>
-    <col min="9985" max="9985" width="71.85546875" style="3" customWidth="1"/>
-    <col min="9986" max="9986" width="18.5703125" style="3" customWidth="1"/>
-    <col min="9987" max="9987" width="94.85546875" style="3" customWidth="1"/>
-    <col min="9988" max="10240" width="9" style="3"/>
-    <col min="10241" max="10241" width="71.85546875" style="3" customWidth="1"/>
-    <col min="10242" max="10242" width="18.5703125" style="3" customWidth="1"/>
-    <col min="10243" max="10243" width="94.85546875" style="3" customWidth="1"/>
-    <col min="10244" max="10496" width="9" style="3"/>
-    <col min="10497" max="10497" width="71.85546875" style="3" customWidth="1"/>
-    <col min="10498" max="10498" width="18.5703125" style="3" customWidth="1"/>
-    <col min="10499" max="10499" width="94.85546875" style="3" customWidth="1"/>
-    <col min="10500" max="10752" width="9" style="3"/>
-    <col min="10753" max="10753" width="71.85546875" style="3" customWidth="1"/>
-    <col min="10754" max="10754" width="18.5703125" style="3" customWidth="1"/>
-    <col min="10755" max="10755" width="94.85546875" style="3" customWidth="1"/>
-    <col min="10756" max="11008" width="9" style="3"/>
-    <col min="11009" max="11009" width="71.85546875" style="3" customWidth="1"/>
-    <col min="11010" max="11010" width="18.5703125" style="3" customWidth="1"/>
-    <col min="11011" max="11011" width="94.85546875" style="3" customWidth="1"/>
-    <col min="11012" max="11264" width="9" style="3"/>
-    <col min="11265" max="11265" width="71.85546875" style="3" customWidth="1"/>
-    <col min="11266" max="11266" width="18.5703125" style="3" customWidth="1"/>
-    <col min="11267" max="11267" width="94.85546875" style="3" customWidth="1"/>
-    <col min="11268" max="11520" width="9" style="3"/>
-    <col min="11521" max="11521" width="71.85546875" style="3" customWidth="1"/>
-    <col min="11522" max="11522" width="18.5703125" style="3" customWidth="1"/>
-    <col min="11523" max="11523" width="94.85546875" style="3" customWidth="1"/>
-    <col min="11524" max="11776" width="9" style="3"/>
-    <col min="11777" max="11777" width="71.85546875" style="3" customWidth="1"/>
-    <col min="11778" max="11778" width="18.5703125" style="3" customWidth="1"/>
-    <col min="11779" max="11779" width="94.85546875" style="3" customWidth="1"/>
-    <col min="11780" max="12032" width="9" style="3"/>
-    <col min="12033" max="12033" width="71.85546875" style="3" customWidth="1"/>
-    <col min="12034" max="12034" width="18.5703125" style="3" customWidth="1"/>
-    <col min="12035" max="12035" width="94.85546875" style="3" customWidth="1"/>
-    <col min="12036" max="12288" width="9" style="3"/>
-    <col min="12289" max="12289" width="71.85546875" style="3" customWidth="1"/>
-    <col min="12290" max="12290" width="18.5703125" style="3" customWidth="1"/>
-    <col min="12291" max="12291" width="94.85546875" style="3" customWidth="1"/>
-    <col min="12292" max="12544" width="9" style="3"/>
-    <col min="12545" max="12545" width="71.85546875" style="3" customWidth="1"/>
-    <col min="12546" max="12546" width="18.5703125" style="3" customWidth="1"/>
-    <col min="12547" max="12547" width="94.85546875" style="3" customWidth="1"/>
-    <col min="12548" max="12800" width="9" style="3"/>
-    <col min="12801" max="12801" width="71.85546875" style="3" customWidth="1"/>
-    <col min="12802" max="12802" width="18.5703125" style="3" customWidth="1"/>
-    <col min="12803" max="12803" width="94.85546875" style="3" customWidth="1"/>
-    <col min="12804" max="13056" width="9" style="3"/>
-    <col min="13057" max="13057" width="71.85546875" style="3" customWidth="1"/>
-    <col min="13058" max="13058" width="18.5703125" style="3" customWidth="1"/>
-    <col min="13059" max="13059" width="94.85546875" style="3" customWidth="1"/>
-    <col min="13060" max="13312" width="9" style="3"/>
-    <col min="13313" max="13313" width="71.85546875" style="3" customWidth="1"/>
-    <col min="13314" max="13314" width="18.5703125" style="3" customWidth="1"/>
-    <col min="13315" max="13315" width="94.85546875" style="3" customWidth="1"/>
-    <col min="13316" max="13568" width="9" style="3"/>
-    <col min="13569" max="13569" width="71.85546875" style="3" customWidth="1"/>
-    <col min="13570" max="13570" width="18.5703125" style="3" customWidth="1"/>
-    <col min="13571" max="13571" width="94.85546875" style="3" customWidth="1"/>
-    <col min="13572" max="13824" width="9" style="3"/>
-    <col min="13825" max="13825" width="71.85546875" style="3" customWidth="1"/>
-    <col min="13826" max="13826" width="18.5703125" style="3" customWidth="1"/>
-    <col min="13827" max="13827" width="94.85546875" style="3" customWidth="1"/>
-    <col min="13828" max="14080" width="9" style="3"/>
-    <col min="14081" max="14081" width="71.85546875" style="3" customWidth="1"/>
-    <col min="14082" max="14082" width="18.5703125" style="3" customWidth="1"/>
-    <col min="14083" max="14083" width="94.85546875" style="3" customWidth="1"/>
-    <col min="14084" max="14336" width="9" style="3"/>
-    <col min="14337" max="14337" width="71.85546875" style="3" customWidth="1"/>
-    <col min="14338" max="14338" width="18.5703125" style="3" customWidth="1"/>
-    <col min="14339" max="14339" width="94.85546875" style="3" customWidth="1"/>
-    <col min="14340" max="14592" width="9" style="3"/>
-    <col min="14593" max="14593" width="71.85546875" style="3" customWidth="1"/>
-    <col min="14594" max="14594" width="18.5703125" style="3" customWidth="1"/>
-    <col min="14595" max="14595" width="94.85546875" style="3" customWidth="1"/>
-    <col min="14596" max="14848" width="9" style="3"/>
-    <col min="14849" max="14849" width="71.85546875" style="3" customWidth="1"/>
-    <col min="14850" max="14850" width="18.5703125" style="3" customWidth="1"/>
-    <col min="14851" max="14851" width="94.85546875" style="3" customWidth="1"/>
-    <col min="14852" max="15104" width="9" style="3"/>
-    <col min="15105" max="15105" width="71.85546875" style="3" customWidth="1"/>
-    <col min="15106" max="15106" width="18.5703125" style="3" customWidth="1"/>
-    <col min="15107" max="15107" width="94.85546875" style="3" customWidth="1"/>
-    <col min="15108" max="15360" width="9" style="3"/>
-    <col min="15361" max="15361" width="71.85546875" style="3" customWidth="1"/>
-    <col min="15362" max="15362" width="18.5703125" style="3" customWidth="1"/>
-    <col min="15363" max="15363" width="94.85546875" style="3" customWidth="1"/>
-    <col min="15364" max="15616" width="9" style="3"/>
-    <col min="15617" max="15617" width="71.85546875" style="3" customWidth="1"/>
-    <col min="15618" max="15618" width="18.5703125" style="3" customWidth="1"/>
-    <col min="15619" max="15619" width="94.85546875" style="3" customWidth="1"/>
-    <col min="15620" max="15872" width="9" style="3"/>
-    <col min="15873" max="15873" width="71.85546875" style="3" customWidth="1"/>
-    <col min="15874" max="15874" width="18.5703125" style="3" customWidth="1"/>
-    <col min="15875" max="15875" width="94.85546875" style="3" customWidth="1"/>
-    <col min="15876" max="16128" width="9" style="3"/>
-    <col min="16129" max="16129" width="71.85546875" style="3" customWidth="1"/>
-    <col min="16130" max="16130" width="18.5703125" style="3" customWidth="1"/>
-    <col min="16131" max="16131" width="94.85546875" style="3" customWidth="1"/>
-    <col min="16132" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A2" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="89"/>
-      <c r="B3" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" s="20" customFormat="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" s="22" customFormat="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="89"/>
-      <c r="B6" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="89"/>
-      <c r="B7" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="89"/>
-      <c r="B8" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="89"/>
-      <c r="B9" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="89"/>
-      <c r="B10" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="89"/>
-      <c r="B11" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="89"/>
-      <c r="B12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="89"/>
-      <c r="B13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="89"/>
-      <c r="B14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="89"/>
-      <c r="B15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="89"/>
-      <c r="B16" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="89"/>
-      <c r="B17" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="89"/>
-      <c r="B18" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="89"/>
-      <c r="B19" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="89"/>
-      <c r="B20" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="89"/>
-      <c r="B21" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="89"/>
-      <c r="B22" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="89"/>
-      <c r="B23" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="5"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="89"/>
-      <c r="B24" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="89"/>
-      <c r="B25" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>295</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="89"/>
-      <c r="B26" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="5"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="89"/>
-      <c r="B27" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="89"/>
-      <c r="B28" s="4"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="89"/>
-      <c r="B29" s="4"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="89"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="30">
-      <c r="A31" s="89"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="89"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="89"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="89"/>
-      <c r="B34" s="4"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="89"/>
-      <c r="B35" s="4"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="89"/>
-      <c r="B36" s="4"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="89"/>
-      <c r="B37" s="4"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="89"/>
-      <c r="B38" s="4"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="89"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="89"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="89"/>
-      <c r="B41" s="4"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="89"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="89"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="89"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="89"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="7"/>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="7"/>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="7"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="7"/>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="7"/>
-      <c r="B66" s="4"/>
-      <c r="D66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="7"/>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="7"/>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="7"/>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="7"/>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="7"/>
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="7"/>
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="7"/>
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="7"/>
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="7"/>
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="7"/>
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="7"/>
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="7"/>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="7"/>
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="7"/>
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="4"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="4"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A45"/>
-  </mergeCells>
-  <phoneticPr fontId="45" type="noConversion"/>
-  <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/TCS_NEWUI_Carousel.xlsx
+++ b/TCS_NEWUI_Carousel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E3A427-60D3-4755-8301-3C6E40E46E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44725313-B27C-40D8-AF5E-A12945E906E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="305">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -1005,6 +1005,28 @@
   </si>
   <si>
     <t>Sumit Rana</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>SMRT-8242</t>
+  </si>
+  <si>
+    <t>Verify Ad images should not load/refresh when selecting/deselecting any ad from the carousel</t>
+  </si>
+  <si>
+    <t>US:WEB-7428_TC 27</t>
+  </si>
+  <si>
+    <t>UA - Brand 
+Report -QA  Testing Dashboard</t>
+  </si>
+  <si>
+    <t>Click on any ad from carousel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While selecting/deselecting any ad from the carousel Ad images should not load/refresh</t>
   </si>
 </sst>
 </file>
@@ -3251,7 +3273,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3554,10 +3576,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.96153846153846156</c:v>
+                  <c:v>0.96296296296296291</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8461538461538436E-2</c:v>
+                  <c:v>3.703703703703709E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3753,7 +3775,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4736,7 +4758,7 @@
       </c>
       <c r="B8" s="12">
         <f>'SMART- Carousel'!G7</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="12">
         <f>'SMART- Carousel'!G8</f>
@@ -4752,11 +4774,11 @@
       </c>
       <c r="F8" s="12">
         <f>SUM(B8:E8)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="17">
         <f>(B8+C8+D8)/(F8)</f>
-        <v>0.96153846153846156</v>
+        <v>0.96296296296296291</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4774,7 +4796,7 @@
       </c>
       <c r="B10" s="18">
         <f>SUM(B8:B9)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="18">
         <f>SUM(C8:C9)</f>
@@ -4790,11 +4812,11 @@
       </c>
       <c r="F10" s="18">
         <f>SUM(F8:F9)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" s="14">
         <f>SUM(G8:G8)</f>
-        <v>0.96153846153846156</v>
+        <v>0.96296296296296291</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickTop="1">
@@ -4803,7 +4825,7 @@
       </c>
       <c r="G11" s="15">
         <f>100%-G10</f>
-        <v>3.8461538461538436E-2</v>
+        <v>3.703703703703709E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4829,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5411,8 +5433,15 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="89"/>
-      <c r="B28" s="4"/>
-      <c r="D28" s="68"/>
+      <c r="B28" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>299</v>
+      </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:7">
@@ -5759,10 +5788,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H960"/>
+  <dimension ref="A1:H959"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6509,8 +6538,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="37">
-        <f>COUNTIF(G11:G1086,"Pass")</f>
-        <v>25</v>
+        <f>COUNTIF(G11:G1085,"Pass")</f>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -6525,7 +6554,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="37">
-        <f>COUNTIF(G12:G1087,"Fail")</f>
+        <f>COUNTIF(G12:G1086,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -6543,7 +6572,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="37">
-        <f>COUNTIF(G13:G1088,"Blocked")</f>
+        <f>COUNTIF(G13:G1087,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
@@ -6559,7 +6588,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="37">
-        <f>COUNTIF(G14:G1089,"Not Executed")</f>
+        <f>COUNTIF(G14:G1088,"Not Executed")</f>
         <v>1</v>
       </c>
     </row>
@@ -6570,7 +6599,7 @@
       </c>
       <c r="C11" s="28">
         <f>G7</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="26"/>
@@ -11278,68 +11307,123 @@
       <c r="F293" s="91"/>
       <c r="G293" s="92"/>
     </row>
-    <row r="294" spans="1:7">
-      <c r="A294"/>
-      <c r="B294"/>
-      <c r="C294"/>
-      <c r="D294"/>
-      <c r="E294"/>
-      <c r="F294"/>
-      <c r="G294"/>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295"/>
-      <c r="B295"/>
-      <c r="C295"/>
-      <c r="D295"/>
-      <c r="E295"/>
-      <c r="F295"/>
-      <c r="G295"/>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296"/>
-      <c r="B296"/>
-      <c r="C296"/>
-      <c r="D296"/>
-      <c r="E296"/>
-      <c r="F296"/>
-      <c r="G296"/>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297"/>
-      <c r="B297"/>
-      <c r="C297"/>
-      <c r="D297"/>
-      <c r="E297"/>
-      <c r="F297"/>
-      <c r="G297"/>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298"/>
-      <c r="B298"/>
-      <c r="C298"/>
-      <c r="D298"/>
-      <c r="E298"/>
-      <c r="F298"/>
-      <c r="G298"/>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299"/>
-      <c r="B299"/>
-      <c r="C299"/>
-      <c r="D299"/>
-      <c r="E299"/>
-      <c r="F299"/>
-      <c r="G299"/>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300"/>
-      <c r="B300"/>
-      <c r="C300"/>
-      <c r="D300"/>
-      <c r="E300"/>
-      <c r="F300"/>
-      <c r="G300"/>
+    <row r="294" spans="1:7" customFormat="1">
+      <c r="A294" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="B294" s="93" t="s">
+        <v>300</v>
+      </c>
+      <c r="C294" s="94"/>
+      <c r="D294" s="94"/>
+      <c r="E294" s="95"/>
+      <c r="F294" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G294" s="52" t="str">
+        <f>IF(COUNTIF(F297:F299,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F297:F299,"Fail")&gt;0,"Fail",IF(COUNTIF(F297:F299,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" customFormat="1">
+      <c r="A295" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B295" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C295" s="97"/>
+      <c r="D295" s="97"/>
+      <c r="E295" s="97"/>
+      <c r="F295" s="97"/>
+      <c r="G295" s="98"/>
+    </row>
+    <row r="296" spans="1:7" customFormat="1">
+      <c r="A296" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B296" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C296" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D296" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E296" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F296" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G296" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" customFormat="1" ht="149.25" customHeight="1">
+      <c r="A297" s="55">
+        <v>1</v>
+      </c>
+      <c r="B297" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C297" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D297" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="E297" s="57"/>
+      <c r="F297" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G297" s="59"/>
+    </row>
+    <row r="298" spans="1:7" ht="75">
+      <c r="A298" s="55">
+        <v>2</v>
+      </c>
+      <c r="B298" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C298" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D298" s="57"/>
+      <c r="E298" s="57"/>
+      <c r="F298" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G298" s="59"/>
+    </row>
+    <row r="299" spans="1:7" customFormat="1" ht="30">
+      <c r="A299" s="55">
+        <v>3</v>
+      </c>
+      <c r="B299" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C299" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D299" s="57"/>
+      <c r="E299" s="57"/>
+      <c r="F299" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G299" s="59"/>
+    </row>
+    <row r="300" spans="1:7" customFormat="1">
+      <c r="A300" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B300" s="90"/>
+      <c r="C300" s="91"/>
+      <c r="D300" s="91"/>
+      <c r="E300" s="91"/>
+      <c r="F300" s="91"/>
+      <c r="G300" s="92"/>
     </row>
     <row r="301" spans="1:7">
       <c r="A301"/>
@@ -12610,14 +12694,13 @@
       <c r="F441"/>
       <c r="G441"/>
     </row>
-    <row r="442" spans="1:8">
-      <c r="A442"/>
-      <c r="B442"/>
-      <c r="C442"/>
-      <c r="D442"/>
-      <c r="E442"/>
-      <c r="F442"/>
-      <c r="G442"/>
+    <row r="442" spans="1:8" ht="15.75">
+      <c r="A442" s="26"/>
+      <c r="B442" s="45"/>
+      <c r="C442" s="45"/>
+      <c r="D442" s="64"/>
+      <c r="E442" s="65"/>
+      <c r="F442" s="66"/>
     </row>
     <row r="443" spans="1:8" ht="15.75">
       <c r="A443" s="26"/>
@@ -12635,13 +12718,14 @@
       <c r="E444" s="65"/>
       <c r="F444" s="66"/>
     </row>
-    <row r="445" spans="1:8" ht="15.75">
+    <row r="445" spans="1:8" s="46" customFormat="1" ht="15.75">
       <c r="A445" s="26"/>
       <c r="B445" s="45"/>
       <c r="C445" s="45"/>
       <c r="D445" s="64"/>
       <c r="E445" s="65"/>
       <c r="F445" s="66"/>
+      <c r="H445" s="25"/>
     </row>
     <row r="446" spans="1:8" s="46" customFormat="1" ht="15.75">
       <c r="A446" s="26"/>
@@ -17269,26 +17353,68 @@
       <c r="F959" s="66"/>
       <c r="H959" s="25"/>
     </row>
-    <row r="960" spans="1:8" s="46" customFormat="1" ht="15.75">
-      <c r="A960" s="26"/>
-      <c r="B960" s="45"/>
-      <c r="C960" s="45"/>
-      <c r="D960" s="64"/>
-      <c r="E960" s="65"/>
-      <c r="F960" s="66"/>
-      <c r="H960" s="25"/>
-    </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="B285:G285"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:G287"/>
-    <mergeCell ref="B293:G293"/>
-    <mergeCell ref="B269:E269"/>
-    <mergeCell ref="B270:G270"/>
-    <mergeCell ref="B276:G276"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B278:G278"/>
+  <mergeCells count="85">
+    <mergeCell ref="B294:E294"/>
+    <mergeCell ref="B295:G295"/>
+    <mergeCell ref="B300:G300"/>
+    <mergeCell ref="B259:G259"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:G244"/>
+    <mergeCell ref="B251:G251"/>
+    <mergeCell ref="B252:E252"/>
+    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B221:G221"/>
+    <mergeCell ref="B232:G232"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B234:G234"/>
+    <mergeCell ref="B242:G242"/>
+    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:G211"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:G72"/>
     <mergeCell ref="B260:E260"/>
     <mergeCell ref="B261:G261"/>
     <mergeCell ref="B268:G268"/>
@@ -17305,66 +17431,18 @@
     <mergeCell ref="B118:G118"/>
     <mergeCell ref="B119:E119"/>
     <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B191:E191"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:G211"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:G221"/>
-    <mergeCell ref="B232:G232"/>
-    <mergeCell ref="B233:E233"/>
-    <mergeCell ref="B234:G234"/>
-    <mergeCell ref="B242:G242"/>
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:G244"/>
-    <mergeCell ref="B251:G251"/>
-    <mergeCell ref="B252:E252"/>
-    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B285:G285"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:G287"/>
+    <mergeCell ref="B293:G293"/>
+    <mergeCell ref="B269:E269"/>
+    <mergeCell ref="B270:G270"/>
+    <mergeCell ref="B276:G276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B278:G278"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F443:F445 F450:F456 F669:F671 F659:F664 F461:F470 F475:F478 F483:F488 F493:F501 F506:F515 F520:F530 F535:F545 F561:F567 F589:F591 F550:F556 F572:F578 F583:F584 F596:F602 F607:F613 F629:F631 F618:F624 F636:F639 F644:F646 F651:F654 F21:F22 F50:F53 F34:F37 F27:F29 F82:F90 F42:F45 F66:F69 F74:F77 F58:F61 F95:F104 F109:F117 F122:F131 F136:F145 F150:F160 F165:F174 F179:F189 F194:F208 F213:F218 F223:F231 F236:F241 F246:F250 F255:F258 F263:F267 F272:F275 F280:F284 F289:F292" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F442:F444 F449:F455 F668:F670 F658:F663 F460:F469 F474:F477 F482:F487 F492:F500 F505:F514 F519:F529 F534:F544 F560:F566 F588:F590 F549:F555 F571:F577 F582:F583 F595:F601 F606:F612 F628:F630 F617:F623 F635:F638 F643:F645 F650:F653 F21:F22 F50:F53 F34:F37 F27:F29 F82:F90 F42:F45 F66:F69 F74:F77 F58:F61 F95:F104 F109:F117 F122:F131 F136:F145 F150:F160 F165:F174 F179:F189 F194:F208 F213:F218 F223:F231 F236:F241 F246:F250 F255:F258 F263:F267 F272:F275 F280:F284 F289:F292 F297:F299" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
